--- a/TimeReport-SW-FY190-RB Kruse.xlsx
+++ b/TimeReport-SW-FY190-RB Kruse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/Research/Dr. Bethel/ROSResearch2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7940926F-4415-B840-B2BF-292BDCB61C3F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D4053F-89EC-444E-94B7-678F79ABB932}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" firstSheet="10" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1812,6 +1812,22 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1886,22 +1902,6 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8945,30 +8945,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -8982,50 +8982,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -9041,12 +9041,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$15</f>
         <v>43742</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -9067,12 +9067,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$15</f>
         <v>43760</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -9089,12 +9089,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$15</f>
         <v>20</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -9825,13 +9825,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5">
@@ -9843,19 +9843,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -9887,19 +9887,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -10004,6 +10004,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="uDfPmr05QaRHc/lKQBu+sCDEq8l9gmbXs+mDIVYrjMbYdiANiTZup5p1OYd/eKZ8QEieuycJNLsen0Bcl4ffYA==" saltValue="nukzhvoHeCxP4JigkPz7tQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -10014,13 +10021,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="645" priority="34" operator="equal">
@@ -10252,30 +10252,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -10289,50 +10289,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -10348,12 +10348,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$17</f>
         <v>43761</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -10374,12 +10374,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$17</f>
         <v>43775</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -10396,12 +10396,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$17</f>
         <v>21</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -11132,13 +11132,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -11150,19 +11150,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -11194,19 +11194,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -11311,6 +11311,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="/sMdwuAGJN7SPGgNL0ziXu1Q8XeCInhE3i/9un0d99aP6RkY4rOhwZD2naCjZIQwbL3LTnlL+uAmHX7F6ZJ8TA==" saltValue="yi38ohwCODSad6eDmoaQlA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -11321,13 +11328,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="607" priority="34" operator="equal">
@@ -11559,30 +11559,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -11596,50 +11596,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -11655,12 +11655,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$18</f>
         <v>43776</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -11681,12 +11681,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$18</f>
         <v>43787</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -11703,12 +11703,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$18</f>
         <v>22</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -12439,13 +12439,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -12457,19 +12457,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -12501,19 +12501,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -12618,6 +12618,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="b1YDq75ljJ5B6o2TZ6cSpp71QV/8+wGo6uHySvsgApnCkDdlHU/izp0MAt9NoMMvlwJo7O/oEfqC3sSbh8J6lw==" saltValue="YEpRtlZipUUsNS0a5ZzSmA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -12628,13 +12635,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="569" priority="34" operator="equal">
@@ -12866,30 +12866,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -12903,50 +12903,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -12962,12 +12962,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$20</f>
         <v>43788</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -12988,12 +12988,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$20</f>
         <v>43802</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -13010,12 +13010,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$20</f>
         <v>23</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -13752,13 +13752,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -13770,19 +13770,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -13814,19 +13814,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -13931,6 +13931,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="3Z6eW+z3pw+vQCjBKIuoJGAKNBF8XRIGiABYepWnM715kNUB3NHASvVak4ysCm50L8slsFsG4INB1JxJk1vfog==" saltValue="pMUvIumHrWxgi1YvQBev+A==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -13941,13 +13948,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="531" priority="34" operator="equal">
@@ -14180,30 +14180,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -14217,50 +14217,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -14276,12 +14276,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$21</f>
         <v>43803</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -14302,12 +14302,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$21</f>
         <v>43808</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14324,12 +14324,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$21</f>
         <v>24</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -15060,13 +15060,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -15078,19 +15078,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -15122,19 +15122,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -15239,6 +15239,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="5S8pPa3Rbz2Tnuz4VwlCPO3sWLEC0cZqbv88WApxMyRXWZSiEaO48moEPWK1AYz8vDZoh0RBe0+ZiOm3A9sbvQ==" saltValue="x9JfbylXq6vDZEk+GDoBZQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -15249,13 +15256,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="493" priority="34" operator="equal">
@@ -15487,30 +15487,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -15524,50 +15524,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -15583,12 +15583,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$23</f>
         <v>43809</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -15609,12 +15609,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$23</f>
         <v>43836</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15631,12 +15631,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$23</f>
         <v>1</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -16367,13 +16367,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5">
@@ -16385,19 +16385,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -16429,19 +16429,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5">
         <f t="shared" si="8"/>
         <v>43832</v>
@@ -16546,6 +16546,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="axvo6Tg8DSfMEUeJCS4l6Pyz11MbJ+p1QagU8xCdQw5fg5SdhFbZ4fHrgdrUPqyusByHsIezxMFf3tPpcDkjfg==" saltValue="5iujVD2EGR97WF/z8x9VBQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -16556,13 +16563,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="455" priority="34" operator="equal">
@@ -16773,8 +16773,8 @@
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <pane ySplit="13" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -16794,30 +16794,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -16831,50 +16831,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -16890,12 +16890,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$24</f>
         <v>43837</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -16916,12 +16916,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$24</f>
         <v>43852</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -16938,12 +16938,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$24</f>
         <v>2</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -17361,7 +17361,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="136"/>
       <c r="E26" s="131"/>
@@ -17445,7 +17445,7 @@
       <c r="B29" s="141"/>
       <c r="C29" s="142">
         <f>SUM(C22:C28)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D29" s="142">
         <f>IF(C29&gt;40,C29-40,0)</f>
@@ -17486,7 +17486,7 @@
       <c r="G30" s="29"/>
       <c r="H30" s="31">
         <f>(C21+C29+C37+H21+H29)-C13</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" s="31">
         <f>D21+D29+D37+I21+I29</f>
@@ -17682,13 +17682,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -17700,19 +17700,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -17744,19 +17744,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -17861,6 +17861,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="xkKCxjW7MCiMvjPrg31YBXUU+osmUVj0krXN90eD/T6hHoNPrXDNIpHb23E9yJP7hKDOQAn0YvOoTrRvBongqA==" saltValue="c75NYpkdlYU8+gsM0zCRNA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -17871,13 +17878,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="417" priority="34" operator="equal">
@@ -18109,30 +18109,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -18146,50 +18146,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -18205,12 +18205,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$26</f>
         <v>43853</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -18231,12 +18231,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$26</f>
         <v>43866</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -18253,12 +18253,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$26</f>
         <v>3</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -18989,13 +18989,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -19007,19 +19007,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -19051,19 +19051,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -19168,6 +19168,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ZcNZSxFLwvB3uJEog6sE8eX/p3zfr3mUKYcu6v8ZRrn2g9ZL8xsmH+kakoe8C1JkjePqf4XCT340Bl8b/ztlAA==" saltValue="jXF2oECus8nAaH9pzX9SUQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -19178,13 +19185,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="379" priority="34" operator="equal">
@@ -19416,30 +19416,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -19453,50 +19453,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -19512,12 +19512,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$27</f>
         <v>43867</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -19538,12 +19538,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$27</f>
         <v>43880</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -19560,12 +19560,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$27</f>
         <v>4</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -20296,13 +20296,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -20314,19 +20314,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -20358,19 +20358,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -20475,6 +20475,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="EzGaIiT0OCXSKPs9rTkp1ftITDSfrkhQUzI0bmma8+dV1URCCocs7OTxcxmqNKHwjvPJWVuLqU8TSqt28dUcNg==" saltValue="PXH+58hkNDKJly1D/0pVmQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -20485,13 +20492,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="341" priority="34" operator="equal">
@@ -20723,30 +20723,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -20760,50 +20760,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -20819,12 +20819,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$29</f>
         <v>43881</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -20845,12 +20845,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$29</f>
         <v>43894</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -20867,12 +20867,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$29</f>
         <v>5</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -21603,13 +21603,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -21621,19 +21621,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -21665,19 +21665,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -21782,6 +21782,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="a1OZcyflEvX/Gd5N3Q6nZCP9yG0vNF9wTHcqApIWzyQjdXQ/ELOJxnA0CX4clIgGZyMFf1l8c0gBzIMyjZmwmQ==" saltValue="nGZ72lm9LqEz+L7b3oJGkg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -21792,13 +21799,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="303" priority="34" operator="equal">
@@ -22261,30 +22261,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -22298,50 +22298,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -22357,12 +22357,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$30</f>
         <v>43895</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -22383,12 +22383,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$30</f>
         <v>43912</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -22405,12 +22405,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$30</f>
         <v>6</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -23141,13 +23141,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="str">
@@ -23159,19 +23159,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -23203,19 +23203,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -23320,6 +23320,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="V1nc17foZ8+TKkdpHgVLN1BfpxWYRmqD/Ya12wVVHUx78LQZNTNRnriKGjLnjhdnBItbI6SiAkHW9EsltcklJw==" saltValue="wublnwmPYTCrrjYQtLtFvw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -23330,13 +23337,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="265" priority="34" operator="equal">
@@ -23568,30 +23568,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -23605,50 +23605,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -23664,12 +23664,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$32</f>
         <v>43913</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -23690,12 +23690,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$32</f>
         <v>43926</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -23712,12 +23712,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$32</f>
         <v>7</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -24448,13 +24448,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -24466,19 +24466,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -24510,19 +24510,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -24627,6 +24627,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Kg6B3wMpyHtE3AG2+ZhM4iVpdSxDw+pCBdNIb+Wo6Ts+QON2d+uS2cM4EGU7doxlj/v6sQZRCLDJacYEHRTCWg==" saltValue="TqyyoN4EUigEJJATe2teew==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -24637,13 +24644,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="227" priority="34" operator="equal">
@@ -24875,30 +24875,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -24912,50 +24912,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -24971,12 +24971,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$33</f>
         <v>43927</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -24997,12 +24997,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$33</f>
         <v>43942</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -25019,12 +25019,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$33</f>
         <v>8</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -25755,13 +25755,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -25773,19 +25773,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -25817,19 +25817,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -25934,6 +25934,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="pL1llo1icHEYJ3TXDIYTPyJLENO1wV3Eyh/2WXX1MQibsv6eIANEQ6p81eSLf00FXmHTK80ocHiAlfzCSNnobA==" saltValue="xg19KB5Q+BRlyZJ260jfjw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -25944,13 +25951,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="189" priority="34" operator="equal">
@@ -26182,30 +26182,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -26219,50 +26219,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -26278,12 +26278,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$35</f>
         <v>43943</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -26304,12 +26304,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$35</f>
         <v>43957</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -26326,12 +26326,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$35</f>
         <v>9</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -27062,13 +27062,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -27080,19 +27080,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -27124,19 +27124,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -27241,6 +27241,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="cTTzshwCkoAqnh/geSNfKTT36wmZ/VdBuT3vIr+/2YsvbGJ8iBLOCV3uynrPhE8WcWQfprCPh0UKqqYAOdwEwQ==" saltValue="Q4AkvBK7ZSuvi376cVoqHg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -27251,13 +27258,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="151" priority="34" operator="equal">
@@ -27489,30 +27489,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -27526,50 +27526,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -27585,12 +27585,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$36</f>
         <v>43958</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -27611,12 +27611,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$36</f>
         <v>43970</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -27633,12 +27633,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$36</f>
         <v>10</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -28369,13 +28369,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -28387,19 +28387,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -28431,19 +28431,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -28548,6 +28548,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="/V1OKocwyLiiD7voXBGhmM1UK7C7RaZXxwAl2UR0a/g9ofjWI2UH03lweCKWBkoGED//exie+GFqMeUI+uVmzQ==" saltValue="eZQsMcrfzspB3EMk5v6XVA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -28558,13 +28565,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="113" priority="34" operator="equal">
@@ -28796,30 +28796,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -28833,50 +28833,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -28892,12 +28892,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$38</f>
         <v>43971</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -28918,12 +28918,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$38</f>
         <v>43986</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -28940,12 +28940,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$38</f>
         <v>11</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -29676,13 +29676,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -29694,19 +29694,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -29738,19 +29738,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -29855,6 +29855,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="oNctHQkxsBNUdifaeP4nhC9Gpn8YqyV2INclhAfQGal8TbFhFBZ5GsyonIJaHE15CM1bSYVUQSgD+94/pOyF2A==" saltValue="VnPuH9l13Gfm4vUE2x53PA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -29865,13 +29872,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="75" priority="34" operator="equal">
@@ -30103,30 +30103,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -30140,50 +30140,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -30199,12 +30199,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$39</f>
         <v>43987</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -30225,12 +30225,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$39</f>
         <v>44003</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -30247,12 +30247,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$39</f>
         <v>12</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -30983,13 +30983,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="str">
@@ -31001,19 +31001,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -31045,19 +31045,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -31162,6 +31162,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="uV3RtGqppO7ha8Js24gTUllRkNwQoQeB1H9xx2tTMLpS6FYIg9UoAIO8nji2h7RSBhm6I77Jv5QWfAHoz4mxtg==" saltValue="rz6vH+A1IVicU/xL/a63lA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -31172,13 +31179,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="37" priority="34" operator="equal">
@@ -31410,30 +31410,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -31447,70 +31447,70 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="192">
+      <c r="B8" s="196">
         <v>904301118</v>
       </c>
-      <c r="C8" s="192"/>
-      <c r="D8" s="192"/>
+      <c r="C8" s="196"/>
+      <c r="D8" s="196"/>
       <c r="E8" s="4"/>
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$5</f>
         <v>43636</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -31521,42 +31521,42 @@
       <c r="A9" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="193" t="s">
+      <c r="B9" s="197" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="193"/>
-      <c r="D9" s="193"/>
+      <c r="C9" s="197"/>
+      <c r="D9" s="197"/>
       <c r="E9" s="4"/>
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$5</f>
         <v>43648</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="193" t="s">
+      <c r="B10" s="197" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="193"/>
-      <c r="D10" s="193"/>
+      <c r="C10" s="197"/>
+      <c r="D10" s="197"/>
       <c r="E10" s="4"/>
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$5</f>
         <v>13</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -31601,10 +31601,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="191" t="s">
+      <c r="A13" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="191"/>
+      <c r="B13" s="195"/>
       <c r="C13" s="16">
         <f>'Previous June Split WK HRS'!$B$9</f>
         <v>0</v>
@@ -32116,12 +32116,12 @@
       <c r="C31" s="135"/>
       <c r="D31" s="136"/>
       <c r="E31" s="131"/>
-      <c r="F31" s="180" t="s">
+      <c r="F31" s="184" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="181"/>
-      <c r="H31" s="181"/>
-      <c r="I31" s="182"/>
+      <c r="G31" s="185"/>
+      <c r="H31" s="185"/>
+      <c r="I31" s="186"/>
       <c r="K31" s="5">
         <f>IF(K30=0,"",IF(K30&lt;$G$9,K30+1,IF(K30=$G$9,"")))</f>
         <v>43647</v>
@@ -32141,10 +32141,10 @@
       <c r="C32" s="135"/>
       <c r="D32" s="136"/>
       <c r="E32" s="131"/>
-      <c r="F32" s="183"/>
-      <c r="G32" s="184"/>
-      <c r="H32" s="184"/>
-      <c r="I32" s="185"/>
+      <c r="F32" s="187"/>
+      <c r="G32" s="188"/>
+      <c r="H32" s="188"/>
+      <c r="I32" s="189"/>
       <c r="K32" s="5">
         <f t="shared" ref="K32:K36" si="7">IF(K31=0,"",IF(K31&lt;$G$9,K31+1,IF(K31=$G$9,"")))</f>
         <v>43648</v>
@@ -32164,10 +32164,10 @@
       <c r="C33" s="136"/>
       <c r="D33" s="136"/>
       <c r="E33" s="131"/>
-      <c r="F33" s="183"/>
-      <c r="G33" s="184"/>
-      <c r="H33" s="184"/>
-      <c r="I33" s="185"/>
+      <c r="F33" s="187"/>
+      <c r="G33" s="188"/>
+      <c r="H33" s="188"/>
+      <c r="I33" s="189"/>
       <c r="K33" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -32187,10 +32187,10 @@
       <c r="C34" s="136"/>
       <c r="D34" s="136"/>
       <c r="E34" s="131"/>
-      <c r="F34" s="183"/>
-      <c r="G34" s="184"/>
-      <c r="H34" s="184"/>
-      <c r="I34" s="185"/>
+      <c r="F34" s="187"/>
+      <c r="G34" s="188"/>
+      <c r="H34" s="188"/>
+      <c r="I34" s="189"/>
       <c r="K34" s="5" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -32210,10 +32210,10 @@
       <c r="C35" s="136"/>
       <c r="D35" s="136"/>
       <c r="E35" s="131"/>
-      <c r="F35" s="183"/>
-      <c r="G35" s="184"/>
-      <c r="H35" s="184"/>
-      <c r="I35" s="185"/>
+      <c r="F35" s="187"/>
+      <c r="G35" s="188"/>
+      <c r="H35" s="188"/>
+      <c r="I35" s="189"/>
       <c r="K35" s="5" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -32233,10 +32233,10 @@
       <c r="C36" s="139"/>
       <c r="D36" s="139"/>
       <c r="E36" s="131"/>
-      <c r="F36" s="183"/>
-      <c r="G36" s="184"/>
-      <c r="H36" s="184"/>
-      <c r="I36" s="185"/>
+      <c r="F36" s="187"/>
+      <c r="G36" s="188"/>
+      <c r="H36" s="188"/>
+      <c r="I36" s="189"/>
       <c r="K36" s="5" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -32259,10 +32259,10 @@
         <v>0</v>
       </c>
       <c r="E37" s="150"/>
-      <c r="F37" s="186"/>
-      <c r="G37" s="187"/>
-      <c r="H37" s="187"/>
-      <c r="I37" s="188"/>
+      <c r="F37" s="190"/>
+      <c r="G37" s="191"/>
+      <c r="H37" s="191"/>
+      <c r="I37" s="192"/>
       <c r="K37" s="8" t="s">
         <v>22</v>
       </c>
@@ -32287,13 +32287,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -32305,19 +32305,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -32349,19 +32349,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -32466,12 +32466,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="S5X1sRKbVHIC/CxNvUSLGbMtzFy/V13rjQxnfTWYv4nG1Q+RIPUG1SPfVjoRJSUT2HTEVjeS/kJu2d8+Y6rxSg==" saltValue="A64d+t0sLiguDosj21Ghpw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="A42:D42"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A4:I7"/>
@@ -32483,6 +32477,12 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="A42:D42"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="909" priority="43" operator="equal">
@@ -32704,30 +32704,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -32741,50 +32741,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -32800,12 +32800,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$6</f>
         <v>43649</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -32826,12 +32826,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$6</f>
         <v>43668</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -32848,12 +32848,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$6</f>
         <v>14</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -32898,10 +32898,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="191" t="s">
+      <c r="A13" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="191"/>
+      <c r="B13" s="195"/>
       <c r="C13" s="16">
         <f>'June 20, 2019 - July 2,2019'!$C$37</f>
         <v>0</v>
@@ -33584,13 +33584,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5">
@@ -33602,19 +33602,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -33646,19 +33646,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -33763,6 +33763,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="2lB+QSBmjIj9R2xKru8PmZreKGvpmEfO/0GOrlhZ0MZCVS02q7aLA/WORT8uz5qYj3dUHkRAJw1U/qt64pNfiw==" saltValue="h6uuiXovP/FrsUciOjanjw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -33773,13 +33780,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="873" priority="34" operator="equal">
@@ -34011,30 +34011,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -34048,50 +34048,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -34107,12 +34107,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$8</f>
         <v>43669</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -34133,12 +34133,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$8</f>
         <v>43683</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -34155,12 +34155,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$8</f>
         <v>15</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -34205,10 +34205,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="191" t="s">
+      <c r="A13" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="191"/>
+      <c r="B13" s="195"/>
       <c r="C13" s="16">
         <f>'July 3, 2019 - July 22, 2019'!$H$21</f>
         <v>0</v>
@@ -34891,13 +34891,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -34909,19 +34909,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -34953,19 +34953,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -35070,6 +35070,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ATJHUNHQBNdjd96oUH7vKvka/F64NjKj3Xn6T8lprLHrs616uwjb1Z0qCX7s8JM5yStmTV5XhlOA40aVUekqmw==" saltValue="ZSXrR0LlpV1Qr9K1tI8xEA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -35080,13 +35087,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="835" priority="34" operator="equal">
@@ -35318,30 +35318,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -35355,50 +35355,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -35414,12 +35414,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$9</f>
         <v>43684</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -35440,12 +35440,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$9</f>
         <v>43698</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -35462,12 +35462,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$9</f>
         <v>16</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -35512,10 +35512,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="191" t="s">
+      <c r="A13" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="191"/>
+      <c r="B13" s="195"/>
       <c r="C13" s="16">
         <f>'July 23, 2019 - Aug 6, 2019'!$C$37</f>
         <v>0</v>
@@ -36198,13 +36198,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -36216,19 +36216,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -36260,19 +36260,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -36377,6 +36377,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="pjvtob70aqxbUVwbESLxavj0Egekft8/sG3lzDDz8j0UwrUOUxmx6PyQliu1rUgl/+2/kjNfTvUwQZgl2it/Ww==" saltValue="Tncw5B/YPaEuEdaFi6BZwA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -36387,13 +36394,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="797" priority="34" operator="equal">
@@ -36625,30 +36625,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -36662,50 +36662,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -36721,12 +36721,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$11</f>
         <v>43699</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -36747,12 +36747,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$11</f>
         <v>43712</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -36769,12 +36769,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$11</f>
         <v>17</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -36819,10 +36819,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="191" t="s">
+      <c r="A13" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="191"/>
+      <c r="B13" s="195"/>
       <c r="C13" s="16">
         <f>'Aug 7, 2019 - Aug 21, 2019'!$C$37</f>
         <v>0</v>
@@ -37505,13 +37505,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -37523,19 +37523,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -37567,19 +37567,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -37684,6 +37684,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="6LAhclbOUnmqJcpdXA5lk6utAC8YfwinYcC5Ki32jSdOy8vMfhUJVna4b6LEsTnFQwBID+ZoytYeUHiOwjDQQA==" saltValue="Xi3mOL2RymSmRy9N4wbt7Q==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -37694,13 +37701,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="759" priority="34" operator="equal">
@@ -37932,30 +37932,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -37969,50 +37969,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -38028,12 +38028,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$12</f>
         <v>43713</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -38054,12 +38054,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$12</f>
         <v>43727</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -38076,12 +38076,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$12</f>
         <v>18</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -38126,10 +38126,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="191" t="s">
+      <c r="A13" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="191"/>
+      <c r="B13" s="195"/>
       <c r="C13" s="16">
         <f>'Aug 22, 2019 - Sept 4, 2019'!$C$37</f>
         <v>0</v>
@@ -38812,13 +38812,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -38830,19 +38830,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -38874,19 +38874,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -38991,6 +38991,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="y3DImqH2VJ6Dt3mfRvoZqaB3/pUlD505riboGLqDJWCwWWWLCviCk1N0GcfKxeCT4uGRqT7/qdqgKfcgOKdMGQ==" saltValue="8TCmrJvFWv6GB62RsfwMPg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -39001,13 +39008,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="721" priority="34" operator="equal">
@@ -39239,30 +39239,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -39276,50 +39276,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -39335,12 +39335,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$14</f>
         <v>43728</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -39361,12 +39361,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$14</f>
         <v>43741</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -39383,12 +39383,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$14</f>
         <v>19</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -40119,13 +40119,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -40137,19 +40137,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -40181,19 +40181,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -40298,6 +40298,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="6dEjPHEgF8OUT15wBxgLnX+yynDGVgTTC4871Syu9JmtBGLoz89ibSTwvX6fYAZHt//Uzbi0MxR+8tDXSNLVjw==" saltValue="aH9gsTcCeUah3TuHbCYGvw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -40308,13 +40315,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="683" priority="34" operator="equal">

--- a/TimeReport-SW-FY190-RB Kruse.xlsx
+++ b/TimeReport-SW-FY190-RB Kruse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/Research/Dr. Bethel/ROSResearch2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D4053F-89EC-444E-94B7-678F79ABB932}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73493FF4-F829-F542-BBDE-723F65D93841}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" firstSheet="10" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payroll Schedule" sheetId="3" state="hidden" r:id="rId1"/>
@@ -1812,22 +1812,6 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1902,6 +1886,22 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8945,30 +8945,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -8982,50 +8982,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -9041,12 +9041,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$15</f>
         <v>43742</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -9067,12 +9067,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$15</f>
         <v>43760</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -9089,12 +9089,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$15</f>
         <v>20</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -9825,13 +9825,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5">
@@ -9843,19 +9843,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -9887,19 +9887,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -10004,13 +10004,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="uDfPmr05QaRHc/lKQBu+sCDEq8l9gmbXs+mDIVYrjMbYdiANiTZup5p1OYd/eKZ8QEieuycJNLsen0Bcl4ffYA==" saltValue="nukzhvoHeCxP4JigkPz7tQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -10021,6 +10014,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="645" priority="34" operator="equal">
@@ -10252,30 +10252,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -10289,50 +10289,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -10348,12 +10348,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$17</f>
         <v>43761</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -10374,12 +10374,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$17</f>
         <v>43775</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -10396,12 +10396,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$17</f>
         <v>21</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -11132,13 +11132,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -11150,19 +11150,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -11194,19 +11194,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -11311,13 +11311,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="/sMdwuAGJN7SPGgNL0ziXu1Q8XeCInhE3i/9un0d99aP6RkY4rOhwZD2naCjZIQwbL3LTnlL+uAmHX7F6ZJ8TA==" saltValue="yi38ohwCODSad6eDmoaQlA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -11328,6 +11321,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="607" priority="34" operator="equal">
@@ -11559,30 +11559,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -11596,50 +11596,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -11655,12 +11655,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$18</f>
         <v>43776</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -11681,12 +11681,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$18</f>
         <v>43787</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -11703,12 +11703,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$18</f>
         <v>22</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -12439,13 +12439,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -12457,19 +12457,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -12501,19 +12501,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -12618,13 +12618,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="b1YDq75ljJ5B6o2TZ6cSpp71QV/8+wGo6uHySvsgApnCkDdlHU/izp0MAt9NoMMvlwJo7O/oEfqC3sSbh8J6lw==" saltValue="YEpRtlZipUUsNS0a5ZzSmA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -12635,6 +12628,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="569" priority="34" operator="equal">
@@ -12866,30 +12866,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -12903,50 +12903,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -12962,12 +12962,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$20</f>
         <v>43788</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -12988,12 +12988,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$20</f>
         <v>43802</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -13010,12 +13010,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$20</f>
         <v>23</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -13752,13 +13752,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -13770,19 +13770,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -13814,19 +13814,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -13931,13 +13931,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="3Z6eW+z3pw+vQCjBKIuoJGAKNBF8XRIGiABYepWnM715kNUB3NHASvVak4ysCm50L8slsFsG4INB1JxJk1vfog==" saltValue="pMUvIumHrWxgi1YvQBev+A==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -13948,6 +13941,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="531" priority="34" operator="equal">
@@ -14180,30 +14180,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -14217,50 +14217,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -14276,12 +14276,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$21</f>
         <v>43803</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -14302,12 +14302,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$21</f>
         <v>43808</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14324,12 +14324,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$21</f>
         <v>24</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -15060,13 +15060,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -15078,19 +15078,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -15122,19 +15122,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -15239,13 +15239,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="5S8pPa3Rbz2Tnuz4VwlCPO3sWLEC0cZqbv88WApxMyRXWZSiEaO48moEPWK1AYz8vDZoh0RBe0+ZiOm3A9sbvQ==" saltValue="x9JfbylXq6vDZEk+GDoBZQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -15256,6 +15249,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="493" priority="34" operator="equal">
@@ -15487,30 +15487,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -15524,50 +15524,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -15583,12 +15583,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$23</f>
         <v>43809</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -15609,12 +15609,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$23</f>
         <v>43836</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15631,12 +15631,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$23</f>
         <v>1</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -16367,13 +16367,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5">
@@ -16385,19 +16385,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -16429,19 +16429,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5">
         <f t="shared" si="8"/>
         <v>43832</v>
@@ -16546,13 +16546,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="axvo6Tg8DSfMEUeJCS4l6Pyz11MbJ+p1QagU8xCdQw5fg5SdhFbZ4fHrgdrUPqyusByHsIezxMFf3tPpcDkjfg==" saltValue="5iujVD2EGR97WF/z8x9VBQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -16563,6 +16556,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="455" priority="34" operator="equal">
@@ -16772,8 +16772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="13" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -16794,30 +16794,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -16831,50 +16831,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -16890,12 +16890,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$24</f>
         <v>43837</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -16916,12 +16916,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$24</f>
         <v>43852</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -16938,12 +16938,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$24</f>
         <v>2</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -17682,13 +17682,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -17700,19 +17700,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -17744,19 +17744,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -17861,13 +17861,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="xkKCxjW7MCiMvjPrg31YBXUU+osmUVj0krXN90eD/T6hHoNPrXDNIpHb23E9yJP7hKDOQAn0YvOoTrRvBongqA==" saltValue="c75NYpkdlYU8+gsM0zCRNA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -17878,6 +17871,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="417" priority="34" operator="equal">
@@ -18087,7 +18087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
@@ -18109,30 +18109,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -18146,50 +18146,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -18205,12 +18205,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$26</f>
         <v>43853</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -18231,12 +18231,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$26</f>
         <v>43866</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -18253,12 +18253,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$26</f>
         <v>3</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -18441,7 +18441,9 @@
       <c r="B18" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="135"/>
+      <c r="C18" s="135">
+        <v>1.5</v>
+      </c>
       <c r="D18" s="136"/>
       <c r="E18" s="131"/>
       <c r="F18" s="26" t="b">
@@ -18524,7 +18526,7 @@
       <c r="B21" s="141"/>
       <c r="C21" s="142">
         <f>SUM(C13:C20)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D21" s="142">
         <f>IF(C21&gt;40,C21-40,0)</f>
@@ -18793,7 +18795,7 @@
       <c r="G30" s="29"/>
       <c r="H30" s="31">
         <f>(C21+C29+C37+H21+H29)-C13</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I30" s="31">
         <f>D21+D29+D37+I21+I29</f>
@@ -18989,13 +18991,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -19007,19 +19009,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -19051,19 +19053,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -19168,13 +19170,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ZcNZSxFLwvB3uJEog6sE8eX/p3zfr3mUKYcu6v8ZRrn2g9ZL8xsmH+kakoe8C1JkjePqf4XCT340Bl8b/ztlAA==" saltValue="jXF2oECus8nAaH9pzX9SUQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -19185,6 +19180,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="379" priority="34" operator="equal">
@@ -19416,30 +19418,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -19453,50 +19455,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -19512,12 +19514,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$27</f>
         <v>43867</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -19538,12 +19540,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$27</f>
         <v>43880</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -19560,12 +19562,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$27</f>
         <v>4</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -20296,13 +20298,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -20314,19 +20316,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -20358,19 +20360,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -20475,13 +20477,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="EzGaIiT0OCXSKPs9rTkp1ftITDSfrkhQUzI0bmma8+dV1URCCocs7OTxcxmqNKHwjvPJWVuLqU8TSqt28dUcNg==" saltValue="PXH+58hkNDKJly1D/0pVmQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -20492,6 +20487,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="341" priority="34" operator="equal">
@@ -20723,30 +20725,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -20760,50 +20762,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -20819,12 +20821,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$29</f>
         <v>43881</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -20845,12 +20847,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$29</f>
         <v>43894</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -20867,12 +20869,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$29</f>
         <v>5</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -21603,13 +21605,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -21621,19 +21623,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -21665,19 +21667,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -21782,13 +21784,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="a1OZcyflEvX/Gd5N3Q6nZCP9yG0vNF9wTHcqApIWzyQjdXQ/ELOJxnA0CX4clIgGZyMFf1l8c0gBzIMyjZmwmQ==" saltValue="nGZ72lm9LqEz+L7b3oJGkg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -21799,6 +21794,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="303" priority="34" operator="equal">
@@ -22261,30 +22263,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -22298,50 +22300,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -22357,12 +22359,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$30</f>
         <v>43895</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -22383,12 +22385,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$30</f>
         <v>43912</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -22405,12 +22407,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$30</f>
         <v>6</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -23141,13 +23143,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="str">
@@ -23159,19 +23161,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -23203,19 +23205,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -23320,13 +23322,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="V1nc17foZ8+TKkdpHgVLN1BfpxWYRmqD/Ya12wVVHUx78LQZNTNRnriKGjLnjhdnBItbI6SiAkHW9EsltcklJw==" saltValue="wublnwmPYTCrrjYQtLtFvw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -23337,6 +23332,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="265" priority="34" operator="equal">
@@ -23568,30 +23570,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -23605,50 +23607,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -23664,12 +23666,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$32</f>
         <v>43913</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -23690,12 +23692,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$32</f>
         <v>43926</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -23712,12 +23714,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$32</f>
         <v>7</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -24448,13 +24450,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -24466,19 +24468,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -24510,19 +24512,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -24627,13 +24629,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Kg6B3wMpyHtE3AG2+ZhM4iVpdSxDw+pCBdNIb+Wo6Ts+QON2d+uS2cM4EGU7doxlj/v6sQZRCLDJacYEHRTCWg==" saltValue="TqyyoN4EUigEJJATe2teew==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -24644,6 +24639,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="227" priority="34" operator="equal">
@@ -24875,30 +24877,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -24912,50 +24914,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -24971,12 +24973,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$33</f>
         <v>43927</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -24997,12 +24999,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$33</f>
         <v>43942</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -25019,12 +25021,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$33</f>
         <v>8</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -25755,13 +25757,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -25773,19 +25775,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -25817,19 +25819,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -25934,13 +25936,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="pL1llo1icHEYJ3TXDIYTPyJLENO1wV3Eyh/2WXX1MQibsv6eIANEQ6p81eSLf00FXmHTK80ocHiAlfzCSNnobA==" saltValue="xg19KB5Q+BRlyZJ260jfjw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -25951,6 +25946,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="189" priority="34" operator="equal">
@@ -26182,30 +26184,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -26219,50 +26221,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -26278,12 +26280,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$35</f>
         <v>43943</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -26304,12 +26306,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$35</f>
         <v>43957</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -26326,12 +26328,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$35</f>
         <v>9</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -27062,13 +27064,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -27080,19 +27082,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -27124,19 +27126,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -27241,13 +27243,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="cTTzshwCkoAqnh/geSNfKTT36wmZ/VdBuT3vIr+/2YsvbGJ8iBLOCV3uynrPhE8WcWQfprCPh0UKqqYAOdwEwQ==" saltValue="Q4AkvBK7ZSuvi376cVoqHg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -27258,6 +27253,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="151" priority="34" operator="equal">
@@ -27489,30 +27491,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -27526,50 +27528,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -27585,12 +27587,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$36</f>
         <v>43958</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -27611,12 +27613,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$36</f>
         <v>43970</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -27633,12 +27635,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$36</f>
         <v>10</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -28369,13 +28371,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -28387,19 +28389,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -28431,19 +28433,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -28548,13 +28550,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="/V1OKocwyLiiD7voXBGhmM1UK7C7RaZXxwAl2UR0a/g9ofjWI2UH03lweCKWBkoGED//exie+GFqMeUI+uVmzQ==" saltValue="eZQsMcrfzspB3EMk5v6XVA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -28565,6 +28560,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="113" priority="34" operator="equal">
@@ -28796,30 +28798,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -28833,50 +28835,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -28892,12 +28894,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$38</f>
         <v>43971</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -28918,12 +28920,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$38</f>
         <v>43986</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -28940,12 +28942,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$38</f>
         <v>11</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -29676,13 +29678,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -29694,19 +29696,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -29738,19 +29740,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -29855,13 +29857,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="oNctHQkxsBNUdifaeP4nhC9Gpn8YqyV2INclhAfQGal8TbFhFBZ5GsyonIJaHE15CM1bSYVUQSgD+94/pOyF2A==" saltValue="VnPuH9l13Gfm4vUE2x53PA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -29872,6 +29867,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="75" priority="34" operator="equal">
@@ -30103,30 +30105,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -30140,50 +30142,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -30199,12 +30201,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$39</f>
         <v>43987</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -30225,12 +30227,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$39</f>
         <v>44003</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -30247,12 +30249,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$39</f>
         <v>12</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -30983,13 +30985,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="str">
@@ -31001,19 +31003,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -31045,19 +31047,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -31162,13 +31164,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="uV3RtGqppO7ha8Js24gTUllRkNwQoQeB1H9xx2tTMLpS6FYIg9UoAIO8nji2h7RSBhm6I77Jv5QWfAHoz4mxtg==" saltValue="rz6vH+A1IVicU/xL/a63lA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -31179,6 +31174,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="37" priority="34" operator="equal">
@@ -31410,30 +31412,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -31447,70 +31449,70 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="196">
+      <c r="B8" s="192">
         <v>904301118</v>
       </c>
-      <c r="C8" s="196"/>
-      <c r="D8" s="196"/>
+      <c r="C8" s="192"/>
+      <c r="D8" s="192"/>
       <c r="E8" s="4"/>
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$5</f>
         <v>43636</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -31521,42 +31523,42 @@
       <c r="A9" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="197" t="s">
+      <c r="B9" s="193" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="197"/>
-      <c r="D9" s="197"/>
+      <c r="C9" s="193"/>
+      <c r="D9" s="193"/>
       <c r="E9" s="4"/>
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$5</f>
         <v>43648</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="197" t="s">
+      <c r="B10" s="193" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="197"/>
-      <c r="D10" s="197"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="193"/>
       <c r="E10" s="4"/>
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$5</f>
         <v>13</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -31601,10 +31603,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="195" t="s">
+      <c r="A13" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="195"/>
+      <c r="B13" s="191"/>
       <c r="C13" s="16">
         <f>'Previous June Split WK HRS'!$B$9</f>
         <v>0</v>
@@ -32116,12 +32118,12 @@
       <c r="C31" s="135"/>
       <c r="D31" s="136"/>
       <c r="E31" s="131"/>
-      <c r="F31" s="184" t="s">
+      <c r="F31" s="180" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="185"/>
-      <c r="H31" s="185"/>
-      <c r="I31" s="186"/>
+      <c r="G31" s="181"/>
+      <c r="H31" s="181"/>
+      <c r="I31" s="182"/>
       <c r="K31" s="5">
         <f>IF(K30=0,"",IF(K30&lt;$G$9,K30+1,IF(K30=$G$9,"")))</f>
         <v>43647</v>
@@ -32141,10 +32143,10 @@
       <c r="C32" s="135"/>
       <c r="D32" s="136"/>
       <c r="E32" s="131"/>
-      <c r="F32" s="187"/>
-      <c r="G32" s="188"/>
-      <c r="H32" s="188"/>
-      <c r="I32" s="189"/>
+      <c r="F32" s="183"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="184"/>
+      <c r="I32" s="185"/>
       <c r="K32" s="5">
         <f t="shared" ref="K32:K36" si="7">IF(K31=0,"",IF(K31&lt;$G$9,K31+1,IF(K31=$G$9,"")))</f>
         <v>43648</v>
@@ -32164,10 +32166,10 @@
       <c r="C33" s="136"/>
       <c r="D33" s="136"/>
       <c r="E33" s="131"/>
-      <c r="F33" s="187"/>
-      <c r="G33" s="188"/>
-      <c r="H33" s="188"/>
-      <c r="I33" s="189"/>
+      <c r="F33" s="183"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="185"/>
       <c r="K33" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -32187,10 +32189,10 @@
       <c r="C34" s="136"/>
       <c r="D34" s="136"/>
       <c r="E34" s="131"/>
-      <c r="F34" s="187"/>
-      <c r="G34" s="188"/>
-      <c r="H34" s="188"/>
-      <c r="I34" s="189"/>
+      <c r="F34" s="183"/>
+      <c r="G34" s="184"/>
+      <c r="H34" s="184"/>
+      <c r="I34" s="185"/>
       <c r="K34" s="5" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -32210,10 +32212,10 @@
       <c r="C35" s="136"/>
       <c r="D35" s="136"/>
       <c r="E35" s="131"/>
-      <c r="F35" s="187"/>
-      <c r="G35" s="188"/>
-      <c r="H35" s="188"/>
-      <c r="I35" s="189"/>
+      <c r="F35" s="183"/>
+      <c r="G35" s="184"/>
+      <c r="H35" s="184"/>
+      <c r="I35" s="185"/>
       <c r="K35" s="5" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -32233,10 +32235,10 @@
       <c r="C36" s="139"/>
       <c r="D36" s="139"/>
       <c r="E36" s="131"/>
-      <c r="F36" s="187"/>
-      <c r="G36" s="188"/>
-      <c r="H36" s="188"/>
-      <c r="I36" s="189"/>
+      <c r="F36" s="183"/>
+      <c r="G36" s="184"/>
+      <c r="H36" s="184"/>
+      <c r="I36" s="185"/>
       <c r="K36" s="5" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -32259,10 +32261,10 @@
         <v>0</v>
       </c>
       <c r="E37" s="150"/>
-      <c r="F37" s="190"/>
-      <c r="G37" s="191"/>
-      <c r="H37" s="191"/>
-      <c r="I37" s="192"/>
+      <c r="F37" s="186"/>
+      <c r="G37" s="187"/>
+      <c r="H37" s="187"/>
+      <c r="I37" s="188"/>
       <c r="K37" s="8" t="s">
         <v>22</v>
       </c>
@@ -32287,13 +32289,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -32305,19 +32307,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -32349,19 +32351,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -32466,6 +32468,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="S5X1sRKbVHIC/CxNvUSLGbMtzFy/V13rjQxnfTWYv4nG1Q+RIPUG1SPfVjoRJSUT2HTEVjeS/kJu2d8+Y6rxSg==" saltValue="A64d+t0sLiguDosj21Ghpw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="A42:D42"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A4:I7"/>
@@ -32477,12 +32485,6 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="A42:D42"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="909" priority="43" operator="equal">
@@ -32704,30 +32706,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -32741,50 +32743,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -32800,12 +32802,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$6</f>
         <v>43649</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -32826,12 +32828,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$6</f>
         <v>43668</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -32848,12 +32850,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$6</f>
         <v>14</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -32898,10 +32900,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="195" t="s">
+      <c r="A13" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="195"/>
+      <c r="B13" s="191"/>
       <c r="C13" s="16">
         <f>'June 20, 2019 - July 2,2019'!$C$37</f>
         <v>0</v>
@@ -33584,13 +33586,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5">
@@ -33602,19 +33604,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -33646,19 +33648,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -33763,13 +33765,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="2lB+QSBmjIj9R2xKru8PmZreKGvpmEfO/0GOrlhZ0MZCVS02q7aLA/WORT8uz5qYj3dUHkRAJw1U/qt64pNfiw==" saltValue="h6uuiXovP/FrsUciOjanjw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -33780,6 +33775,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="873" priority="34" operator="equal">
@@ -34011,30 +34013,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -34048,50 +34050,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -34107,12 +34109,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$8</f>
         <v>43669</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -34133,12 +34135,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$8</f>
         <v>43683</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -34155,12 +34157,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$8</f>
         <v>15</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -34205,10 +34207,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="195" t="s">
+      <c r="A13" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="195"/>
+      <c r="B13" s="191"/>
       <c r="C13" s="16">
         <f>'July 3, 2019 - July 22, 2019'!$H$21</f>
         <v>0</v>
@@ -34891,13 +34893,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -34909,19 +34911,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -34953,19 +34955,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -35070,13 +35072,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ATJHUNHQBNdjd96oUH7vKvka/F64NjKj3Xn6T8lprLHrs616uwjb1Z0qCX7s8JM5yStmTV5XhlOA40aVUekqmw==" saltValue="ZSXrR0LlpV1Qr9K1tI8xEA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -35087,6 +35082,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="835" priority="34" operator="equal">
@@ -35318,30 +35320,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -35355,50 +35357,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -35414,12 +35416,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$9</f>
         <v>43684</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -35440,12 +35442,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$9</f>
         <v>43698</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -35462,12 +35464,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$9</f>
         <v>16</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -35512,10 +35514,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="195" t="s">
+      <c r="A13" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="195"/>
+      <c r="B13" s="191"/>
       <c r="C13" s="16">
         <f>'July 23, 2019 - Aug 6, 2019'!$C$37</f>
         <v>0</v>
@@ -36198,13 +36200,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -36216,19 +36218,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -36260,19 +36262,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -36377,13 +36379,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="pjvtob70aqxbUVwbESLxavj0Egekft8/sG3lzDDz8j0UwrUOUxmx6PyQliu1rUgl/+2/kjNfTvUwQZgl2it/Ww==" saltValue="Tncw5B/YPaEuEdaFi6BZwA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -36394,6 +36389,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="797" priority="34" operator="equal">
@@ -36625,30 +36627,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -36662,50 +36664,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -36721,12 +36723,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$11</f>
         <v>43699</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -36747,12 +36749,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$11</f>
         <v>43712</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -36769,12 +36771,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$11</f>
         <v>17</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -36819,10 +36821,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="195" t="s">
+      <c r="A13" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="195"/>
+      <c r="B13" s="191"/>
       <c r="C13" s="16">
         <f>'Aug 7, 2019 - Aug 21, 2019'!$C$37</f>
         <v>0</v>
@@ -37505,13 +37507,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -37523,19 +37525,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -37567,19 +37569,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -37684,13 +37686,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="6LAhclbOUnmqJcpdXA5lk6utAC8YfwinYcC5Ki32jSdOy8vMfhUJVna4b6LEsTnFQwBID+ZoytYeUHiOwjDQQA==" saltValue="Xi3mOL2RymSmRy9N4wbt7Q==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -37701,6 +37696,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="759" priority="34" operator="equal">
@@ -37932,30 +37934,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -37969,50 +37971,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -38028,12 +38030,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$12</f>
         <v>43713</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -38054,12 +38056,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$12</f>
         <v>43727</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -38076,12 +38078,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$12</f>
         <v>18</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -38126,10 +38128,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="195" t="s">
+      <c r="A13" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="195"/>
+      <c r="B13" s="191"/>
       <c r="C13" s="16">
         <f>'Aug 22, 2019 - Sept 4, 2019'!$C$37</f>
         <v>0</v>
@@ -38812,13 +38814,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -38830,19 +38832,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -38874,19 +38876,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -38991,13 +38993,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="y3DImqH2VJ6Dt3mfRvoZqaB3/pUlD505riboGLqDJWCwWWWLCviCk1N0GcfKxeCT4uGRqT7/qdqgKfcgOKdMGQ==" saltValue="8TCmrJvFWv6GB62RsfwMPg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -39008,6 +39003,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="721" priority="34" operator="equal">
@@ -39239,30 +39241,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -39276,50 +39278,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -39335,12 +39337,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$14</f>
         <v>43728</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -39361,12 +39363,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$14</f>
         <v>43741</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -39383,12 +39385,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$14</f>
         <v>19</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -40119,13 +40121,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -40137,19 +40139,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -40181,19 +40183,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -40298,13 +40300,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="6dEjPHEgF8OUT15wBxgLnX+yynDGVgTTC4871Syu9JmtBGLoz89ibSTwvX6fYAZHt//Uzbi0MxR+8tDXSNLVjw==" saltValue="aH9gsTcCeUah3TuHbCYGvw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -40315,6 +40310,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="683" priority="34" operator="equal">

--- a/TimeReport-SW-FY190-RB Kruse.xlsx
+++ b/TimeReport-SW-FY190-RB Kruse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/Research/Dr. Bethel/ROSResearch2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73493FF4-F829-F542-BBDE-723F65D93841}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02E584B-E1B9-6744-BF32-ED2A370B92E1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1812,6 +1812,22 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1886,22 +1902,6 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8945,30 +8945,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -8982,50 +8982,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -9041,12 +9041,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$15</f>
         <v>43742</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -9067,12 +9067,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$15</f>
         <v>43760</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -9089,12 +9089,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$15</f>
         <v>20</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -9825,13 +9825,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5">
@@ -9843,19 +9843,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -9887,19 +9887,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -10004,6 +10004,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="uDfPmr05QaRHc/lKQBu+sCDEq8l9gmbXs+mDIVYrjMbYdiANiTZup5p1OYd/eKZ8QEieuycJNLsen0Bcl4ffYA==" saltValue="nukzhvoHeCxP4JigkPz7tQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -10014,13 +10021,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="645" priority="34" operator="equal">
@@ -10252,30 +10252,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -10289,50 +10289,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -10348,12 +10348,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$17</f>
         <v>43761</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -10374,12 +10374,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$17</f>
         <v>43775</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -10396,12 +10396,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$17</f>
         <v>21</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -11132,13 +11132,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -11150,19 +11150,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -11194,19 +11194,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -11311,6 +11311,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="/sMdwuAGJN7SPGgNL0ziXu1Q8XeCInhE3i/9un0d99aP6RkY4rOhwZD2naCjZIQwbL3LTnlL+uAmHX7F6ZJ8TA==" saltValue="yi38ohwCODSad6eDmoaQlA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -11321,13 +11328,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="607" priority="34" operator="equal">
@@ -11559,30 +11559,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -11596,50 +11596,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -11655,12 +11655,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$18</f>
         <v>43776</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -11681,12 +11681,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$18</f>
         <v>43787</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -11703,12 +11703,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$18</f>
         <v>22</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -12439,13 +12439,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -12457,19 +12457,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -12501,19 +12501,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -12618,6 +12618,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="b1YDq75ljJ5B6o2TZ6cSpp71QV/8+wGo6uHySvsgApnCkDdlHU/izp0MAt9NoMMvlwJo7O/oEfqC3sSbh8J6lw==" saltValue="YEpRtlZipUUsNS0a5ZzSmA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -12628,13 +12635,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="569" priority="34" operator="equal">
@@ -12866,30 +12866,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -12903,50 +12903,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -12962,12 +12962,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$20</f>
         <v>43788</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -12988,12 +12988,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$20</f>
         <v>43802</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -13010,12 +13010,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$20</f>
         <v>23</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -13752,13 +13752,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -13770,19 +13770,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -13814,19 +13814,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -13931,6 +13931,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="3Z6eW+z3pw+vQCjBKIuoJGAKNBF8XRIGiABYepWnM715kNUB3NHASvVak4ysCm50L8slsFsG4INB1JxJk1vfog==" saltValue="pMUvIumHrWxgi1YvQBev+A==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -13941,13 +13948,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="531" priority="34" operator="equal">
@@ -14180,30 +14180,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -14217,50 +14217,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -14276,12 +14276,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$21</f>
         <v>43803</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -14302,12 +14302,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$21</f>
         <v>43808</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14324,12 +14324,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$21</f>
         <v>24</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -15060,13 +15060,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -15078,19 +15078,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -15122,19 +15122,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -15239,6 +15239,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="5S8pPa3Rbz2Tnuz4VwlCPO3sWLEC0cZqbv88WApxMyRXWZSiEaO48moEPWK1AYz8vDZoh0RBe0+ZiOm3A9sbvQ==" saltValue="x9JfbylXq6vDZEk+GDoBZQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -15249,13 +15256,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="493" priority="34" operator="equal">
@@ -15487,30 +15487,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -15524,50 +15524,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -15583,12 +15583,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$23</f>
         <v>43809</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -15609,12 +15609,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$23</f>
         <v>43836</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15631,12 +15631,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$23</f>
         <v>1</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -16367,13 +16367,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5">
@@ -16385,19 +16385,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -16429,19 +16429,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5">
         <f t="shared" si="8"/>
         <v>43832</v>
@@ -16546,6 +16546,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="axvo6Tg8DSfMEUeJCS4l6Pyz11MbJ+p1QagU8xCdQw5fg5SdhFbZ4fHrgdrUPqyusByHsIezxMFf3tPpcDkjfg==" saltValue="5iujVD2EGR97WF/z8x9VBQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -16556,13 +16563,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="455" priority="34" operator="equal">
@@ -16794,30 +16794,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -16831,50 +16831,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -16890,12 +16890,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$24</f>
         <v>43837</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -16916,12 +16916,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$24</f>
         <v>43852</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -16938,12 +16938,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$24</f>
         <v>2</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -17682,13 +17682,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -17700,19 +17700,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -17744,19 +17744,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -17861,6 +17861,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="xkKCxjW7MCiMvjPrg31YBXUU+osmUVj0krXN90eD/T6hHoNPrXDNIpHb23E9yJP7hKDOQAn0YvOoTrRvBongqA==" saltValue="c75NYpkdlYU8+gsM0zCRNA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -17871,13 +17878,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="417" priority="34" operator="equal">
@@ -18088,8 +18088,8 @@
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <pane ySplit="13" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -18109,30 +18109,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -18146,50 +18146,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -18205,12 +18205,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$26</f>
         <v>43853</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -18231,12 +18231,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$26</f>
         <v>43866</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -18253,12 +18253,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$26</f>
         <v>3</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -18671,7 +18671,9 @@
       <c r="B26" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="135"/>
+      <c r="C26" s="135">
+        <v>3</v>
+      </c>
       <c r="D26" s="136"/>
       <c r="E26" s="131"/>
       <c r="F26" s="26" t="b">
@@ -18754,7 +18756,7 @@
       <c r="B29" s="141"/>
       <c r="C29" s="142">
         <f>SUM(C22:C28)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D29" s="142">
         <f>IF(C29&gt;40,C29-40,0)</f>
@@ -18795,7 +18797,7 @@
       <c r="G30" s="29"/>
       <c r="H30" s="31">
         <f>(C21+C29+C37+H21+H29)-C13</f>
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="I30" s="31">
         <f>D21+D29+D37+I21+I29</f>
@@ -18991,13 +18993,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -19009,19 +19011,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -19053,19 +19055,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -19170,6 +19172,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ZcNZSxFLwvB3uJEog6sE8eX/p3zfr3mUKYcu6v8ZRrn2g9ZL8xsmH+kakoe8C1JkjePqf4XCT340Bl8b/ztlAA==" saltValue="jXF2oECus8nAaH9pzX9SUQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -19180,13 +19189,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="379" priority="34" operator="equal">
@@ -19418,30 +19420,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -19455,50 +19457,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -19514,12 +19516,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$27</f>
         <v>43867</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -19540,12 +19542,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$27</f>
         <v>43880</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -19562,12 +19564,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$27</f>
         <v>4</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -20298,13 +20300,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -20316,19 +20318,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -20360,19 +20362,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -20477,6 +20479,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="EzGaIiT0OCXSKPs9rTkp1ftITDSfrkhQUzI0bmma8+dV1URCCocs7OTxcxmqNKHwjvPJWVuLqU8TSqt28dUcNg==" saltValue="PXH+58hkNDKJly1D/0pVmQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -20487,13 +20496,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="341" priority="34" operator="equal">
@@ -20725,30 +20727,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -20762,50 +20764,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -20821,12 +20823,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$29</f>
         <v>43881</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -20847,12 +20849,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$29</f>
         <v>43894</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -20869,12 +20871,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$29</f>
         <v>5</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -21605,13 +21607,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -21623,19 +21625,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -21667,19 +21669,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -21784,6 +21786,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="a1OZcyflEvX/Gd5N3Q6nZCP9yG0vNF9wTHcqApIWzyQjdXQ/ELOJxnA0CX4clIgGZyMFf1l8c0gBzIMyjZmwmQ==" saltValue="nGZ72lm9LqEz+L7b3oJGkg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -21794,13 +21803,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="303" priority="34" operator="equal">
@@ -22263,30 +22265,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -22300,50 +22302,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -22359,12 +22361,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$30</f>
         <v>43895</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -22385,12 +22387,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$30</f>
         <v>43912</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -22407,12 +22409,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$30</f>
         <v>6</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -23143,13 +23145,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="str">
@@ -23161,19 +23163,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -23205,19 +23207,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -23322,6 +23324,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="V1nc17foZ8+TKkdpHgVLN1BfpxWYRmqD/Ya12wVVHUx78LQZNTNRnriKGjLnjhdnBItbI6SiAkHW9EsltcklJw==" saltValue="wublnwmPYTCrrjYQtLtFvw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -23332,13 +23341,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="265" priority="34" operator="equal">
@@ -23570,30 +23572,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -23607,50 +23609,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -23666,12 +23668,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$32</f>
         <v>43913</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -23692,12 +23694,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$32</f>
         <v>43926</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -23714,12 +23716,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$32</f>
         <v>7</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -24450,13 +24452,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -24468,19 +24470,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -24512,19 +24514,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -24629,6 +24631,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Kg6B3wMpyHtE3AG2+ZhM4iVpdSxDw+pCBdNIb+Wo6Ts+QON2d+uS2cM4EGU7doxlj/v6sQZRCLDJacYEHRTCWg==" saltValue="TqyyoN4EUigEJJATe2teew==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -24639,13 +24648,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="227" priority="34" operator="equal">
@@ -24877,30 +24879,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -24914,50 +24916,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -24973,12 +24975,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$33</f>
         <v>43927</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -24999,12 +25001,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$33</f>
         <v>43942</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -25021,12 +25023,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$33</f>
         <v>8</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -25757,13 +25759,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -25775,19 +25777,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -25819,19 +25821,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -25936,6 +25938,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="pL1llo1icHEYJ3TXDIYTPyJLENO1wV3Eyh/2WXX1MQibsv6eIANEQ6p81eSLf00FXmHTK80ocHiAlfzCSNnobA==" saltValue="xg19KB5Q+BRlyZJ260jfjw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -25946,13 +25955,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="189" priority="34" operator="equal">
@@ -26184,30 +26186,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -26221,50 +26223,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -26280,12 +26282,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$35</f>
         <v>43943</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -26306,12 +26308,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$35</f>
         <v>43957</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -26328,12 +26330,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$35</f>
         <v>9</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -27064,13 +27066,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -27082,19 +27084,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -27126,19 +27128,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -27243,6 +27245,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="cTTzshwCkoAqnh/geSNfKTT36wmZ/VdBuT3vIr+/2YsvbGJ8iBLOCV3uynrPhE8WcWQfprCPh0UKqqYAOdwEwQ==" saltValue="Q4AkvBK7ZSuvi376cVoqHg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -27253,13 +27262,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="151" priority="34" operator="equal">
@@ -27491,30 +27493,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -27528,50 +27530,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -27587,12 +27589,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$36</f>
         <v>43958</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -27613,12 +27615,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$36</f>
         <v>43970</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -27635,12 +27637,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$36</f>
         <v>10</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -28371,13 +28373,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -28389,19 +28391,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -28433,19 +28435,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -28550,6 +28552,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="/V1OKocwyLiiD7voXBGhmM1UK7C7RaZXxwAl2UR0a/g9ofjWI2UH03lweCKWBkoGED//exie+GFqMeUI+uVmzQ==" saltValue="eZQsMcrfzspB3EMk5v6XVA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -28560,13 +28569,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="113" priority="34" operator="equal">
@@ -28798,30 +28800,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -28835,50 +28837,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -28894,12 +28896,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$38</f>
         <v>43971</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -28920,12 +28922,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$38</f>
         <v>43986</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -28942,12 +28944,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$38</f>
         <v>11</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -29678,13 +29680,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -29696,19 +29698,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -29740,19 +29742,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -29857,6 +29859,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="oNctHQkxsBNUdifaeP4nhC9Gpn8YqyV2INclhAfQGal8TbFhFBZ5GsyonIJaHE15CM1bSYVUQSgD+94/pOyF2A==" saltValue="VnPuH9l13Gfm4vUE2x53PA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -29867,13 +29876,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="75" priority="34" operator="equal">
@@ -30105,30 +30107,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -30142,50 +30144,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -30201,12 +30203,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$39</f>
         <v>43987</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -30227,12 +30229,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$39</f>
         <v>44003</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -30249,12 +30251,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$39</f>
         <v>12</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -30985,13 +30987,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="str">
@@ -31003,19 +31005,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -31047,19 +31049,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -31164,6 +31166,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="uV3RtGqppO7ha8Js24gTUllRkNwQoQeB1H9xx2tTMLpS6FYIg9UoAIO8nji2h7RSBhm6I77Jv5QWfAHoz4mxtg==" saltValue="rz6vH+A1IVicU/xL/a63lA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -31174,13 +31183,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="37" priority="34" operator="equal">
@@ -31412,30 +31414,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -31449,70 +31451,70 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="192">
+      <c r="B8" s="196">
         <v>904301118</v>
       </c>
-      <c r="C8" s="192"/>
-      <c r="D8" s="192"/>
+      <c r="C8" s="196"/>
+      <c r="D8" s="196"/>
       <c r="E8" s="4"/>
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$5</f>
         <v>43636</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -31523,42 +31525,42 @@
       <c r="A9" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="193" t="s">
+      <c r="B9" s="197" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="193"/>
-      <c r="D9" s="193"/>
+      <c r="C9" s="197"/>
+      <c r="D9" s="197"/>
       <c r="E9" s="4"/>
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$5</f>
         <v>43648</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="193" t="s">
+      <c r="B10" s="197" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="193"/>
-      <c r="D10" s="193"/>
+      <c r="C10" s="197"/>
+      <c r="D10" s="197"/>
       <c r="E10" s="4"/>
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$5</f>
         <v>13</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -31603,10 +31605,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="191" t="s">
+      <c r="A13" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="191"/>
+      <c r="B13" s="195"/>
       <c r="C13" s="16">
         <f>'Previous June Split WK HRS'!$B$9</f>
         <v>0</v>
@@ -32118,12 +32120,12 @@
       <c r="C31" s="135"/>
       <c r="D31" s="136"/>
       <c r="E31" s="131"/>
-      <c r="F31" s="180" t="s">
+      <c r="F31" s="184" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="181"/>
-      <c r="H31" s="181"/>
-      <c r="I31" s="182"/>
+      <c r="G31" s="185"/>
+      <c r="H31" s="185"/>
+      <c r="I31" s="186"/>
       <c r="K31" s="5">
         <f>IF(K30=0,"",IF(K30&lt;$G$9,K30+1,IF(K30=$G$9,"")))</f>
         <v>43647</v>
@@ -32143,10 +32145,10 @@
       <c r="C32" s="135"/>
       <c r="D32" s="136"/>
       <c r="E32" s="131"/>
-      <c r="F32" s="183"/>
-      <c r="G32" s="184"/>
-      <c r="H32" s="184"/>
-      <c r="I32" s="185"/>
+      <c r="F32" s="187"/>
+      <c r="G32" s="188"/>
+      <c r="H32" s="188"/>
+      <c r="I32" s="189"/>
       <c r="K32" s="5">
         <f t="shared" ref="K32:K36" si="7">IF(K31=0,"",IF(K31&lt;$G$9,K31+1,IF(K31=$G$9,"")))</f>
         <v>43648</v>
@@ -32166,10 +32168,10 @@
       <c r="C33" s="136"/>
       <c r="D33" s="136"/>
       <c r="E33" s="131"/>
-      <c r="F33" s="183"/>
-      <c r="G33" s="184"/>
-      <c r="H33" s="184"/>
-      <c r="I33" s="185"/>
+      <c r="F33" s="187"/>
+      <c r="G33" s="188"/>
+      <c r="H33" s="188"/>
+      <c r="I33" s="189"/>
       <c r="K33" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -32189,10 +32191,10 @@
       <c r="C34" s="136"/>
       <c r="D34" s="136"/>
       <c r="E34" s="131"/>
-      <c r="F34" s="183"/>
-      <c r="G34" s="184"/>
-      <c r="H34" s="184"/>
-      <c r="I34" s="185"/>
+      <c r="F34" s="187"/>
+      <c r="G34" s="188"/>
+      <c r="H34" s="188"/>
+      <c r="I34" s="189"/>
       <c r="K34" s="5" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -32212,10 +32214,10 @@
       <c r="C35" s="136"/>
       <c r="D35" s="136"/>
       <c r="E35" s="131"/>
-      <c r="F35" s="183"/>
-      <c r="G35" s="184"/>
-      <c r="H35" s="184"/>
-      <c r="I35" s="185"/>
+      <c r="F35" s="187"/>
+      <c r="G35" s="188"/>
+      <c r="H35" s="188"/>
+      <c r="I35" s="189"/>
       <c r="K35" s="5" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -32235,10 +32237,10 @@
       <c r="C36" s="139"/>
       <c r="D36" s="139"/>
       <c r="E36" s="131"/>
-      <c r="F36" s="183"/>
-      <c r="G36" s="184"/>
-      <c r="H36" s="184"/>
-      <c r="I36" s="185"/>
+      <c r="F36" s="187"/>
+      <c r="G36" s="188"/>
+      <c r="H36" s="188"/>
+      <c r="I36" s="189"/>
       <c r="K36" s="5" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -32261,10 +32263,10 @@
         <v>0</v>
       </c>
       <c r="E37" s="150"/>
-      <c r="F37" s="186"/>
-      <c r="G37" s="187"/>
-      <c r="H37" s="187"/>
-      <c r="I37" s="188"/>
+      <c r="F37" s="190"/>
+      <c r="G37" s="191"/>
+      <c r="H37" s="191"/>
+      <c r="I37" s="192"/>
       <c r="K37" s="8" t="s">
         <v>22</v>
       </c>
@@ -32289,13 +32291,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -32307,19 +32309,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -32351,19 +32353,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -32468,12 +32470,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="S5X1sRKbVHIC/CxNvUSLGbMtzFy/V13rjQxnfTWYv4nG1Q+RIPUG1SPfVjoRJSUT2HTEVjeS/kJu2d8+Y6rxSg==" saltValue="A64d+t0sLiguDosj21Ghpw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="A42:D42"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A4:I7"/>
@@ -32485,6 +32481,12 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="A42:D42"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="909" priority="43" operator="equal">
@@ -32706,30 +32708,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -32743,50 +32745,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -32802,12 +32804,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$6</f>
         <v>43649</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -32828,12 +32830,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$6</f>
         <v>43668</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -32850,12 +32852,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$6</f>
         <v>14</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -32900,10 +32902,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="191" t="s">
+      <c r="A13" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="191"/>
+      <c r="B13" s="195"/>
       <c r="C13" s="16">
         <f>'June 20, 2019 - July 2,2019'!$C$37</f>
         <v>0</v>
@@ -33586,13 +33588,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5">
@@ -33604,19 +33606,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -33648,19 +33650,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -33765,6 +33767,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="2lB+QSBmjIj9R2xKru8PmZreKGvpmEfO/0GOrlhZ0MZCVS02q7aLA/WORT8uz5qYj3dUHkRAJw1U/qt64pNfiw==" saltValue="h6uuiXovP/FrsUciOjanjw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -33775,13 +33784,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="873" priority="34" operator="equal">
@@ -34013,30 +34015,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -34050,50 +34052,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -34109,12 +34111,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$8</f>
         <v>43669</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -34135,12 +34137,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$8</f>
         <v>43683</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -34157,12 +34159,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$8</f>
         <v>15</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -34207,10 +34209,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="191" t="s">
+      <c r="A13" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="191"/>
+      <c r="B13" s="195"/>
       <c r="C13" s="16">
         <f>'July 3, 2019 - July 22, 2019'!$H$21</f>
         <v>0</v>
@@ -34893,13 +34895,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -34911,19 +34913,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -34955,19 +34957,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -35072,6 +35074,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ATJHUNHQBNdjd96oUH7vKvka/F64NjKj3Xn6T8lprLHrs616uwjb1Z0qCX7s8JM5yStmTV5XhlOA40aVUekqmw==" saltValue="ZSXrR0LlpV1Qr9K1tI8xEA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -35082,13 +35091,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="835" priority="34" operator="equal">
@@ -35320,30 +35322,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -35357,50 +35359,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -35416,12 +35418,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$9</f>
         <v>43684</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -35442,12 +35444,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$9</f>
         <v>43698</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -35464,12 +35466,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$9</f>
         <v>16</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -35514,10 +35516,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="191" t="s">
+      <c r="A13" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="191"/>
+      <c r="B13" s="195"/>
       <c r="C13" s="16">
         <f>'July 23, 2019 - Aug 6, 2019'!$C$37</f>
         <v>0</v>
@@ -36200,13 +36202,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -36218,19 +36220,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -36262,19 +36264,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -36379,6 +36381,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="pjvtob70aqxbUVwbESLxavj0Egekft8/sG3lzDDz8j0UwrUOUxmx6PyQliu1rUgl/+2/kjNfTvUwQZgl2it/Ww==" saltValue="Tncw5B/YPaEuEdaFi6BZwA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -36389,13 +36398,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="797" priority="34" operator="equal">
@@ -36627,30 +36629,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -36664,50 +36666,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -36723,12 +36725,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$11</f>
         <v>43699</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -36749,12 +36751,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$11</f>
         <v>43712</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -36771,12 +36773,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$11</f>
         <v>17</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -36821,10 +36823,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="191" t="s">
+      <c r="A13" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="191"/>
+      <c r="B13" s="195"/>
       <c r="C13" s="16">
         <f>'Aug 7, 2019 - Aug 21, 2019'!$C$37</f>
         <v>0</v>
@@ -37507,13 +37509,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -37525,19 +37527,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -37569,19 +37571,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -37686,6 +37688,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="6LAhclbOUnmqJcpdXA5lk6utAC8YfwinYcC5Ki32jSdOy8vMfhUJVna4b6LEsTnFQwBID+ZoytYeUHiOwjDQQA==" saltValue="Xi3mOL2RymSmRy9N4wbt7Q==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -37696,13 +37705,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="759" priority="34" operator="equal">
@@ -37934,30 +37936,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -37971,50 +37973,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -38030,12 +38032,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$12</f>
         <v>43713</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -38056,12 +38058,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$12</f>
         <v>43727</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -38078,12 +38080,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$12</f>
         <v>18</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -38128,10 +38130,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="191" t="s">
+      <c r="A13" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="191"/>
+      <c r="B13" s="195"/>
       <c r="C13" s="16">
         <f>'Aug 22, 2019 - Sept 4, 2019'!$C$37</f>
         <v>0</v>
@@ -38814,13 +38816,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -38832,19 +38834,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -38876,19 +38878,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -38993,6 +38995,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="y3DImqH2VJ6Dt3mfRvoZqaB3/pUlD505riboGLqDJWCwWWWLCviCk1N0GcfKxeCT4uGRqT7/qdqgKfcgOKdMGQ==" saltValue="8TCmrJvFWv6GB62RsfwMPg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -39003,13 +39012,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="721" priority="34" operator="equal">
@@ -39241,30 +39243,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -39278,50 +39280,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -39337,12 +39339,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$14</f>
         <v>43728</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -39363,12 +39365,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$14</f>
         <v>43741</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -39385,12 +39387,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$14</f>
         <v>19</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -40121,13 +40123,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -40139,19 +40141,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -40183,19 +40185,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -40300,6 +40302,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="6dEjPHEgF8OUT15wBxgLnX+yynDGVgTTC4871Syu9JmtBGLoz89ibSTwvX6fYAZHt//Uzbi0MxR+8tDXSNLVjw==" saltValue="aH9gsTcCeUah3TuHbCYGvw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -40310,13 +40319,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="683" priority="34" operator="equal">

--- a/TimeReport-SW-FY190-RB Kruse.xlsx
+++ b/TimeReport-SW-FY190-RB Kruse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/Research/Dr. Bethel/ROSResearch2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02E584B-E1B9-6744-BF32-ED2A370B92E1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1936EC4A-83AB-0245-A62B-305BE830A741}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1812,22 +1812,6 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1902,6 +1886,22 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8945,30 +8945,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -8982,50 +8982,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -9041,12 +9041,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$15</f>
         <v>43742</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -9067,12 +9067,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$15</f>
         <v>43760</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -9089,12 +9089,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$15</f>
         <v>20</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -9825,13 +9825,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5">
@@ -9843,19 +9843,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -9887,19 +9887,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -10004,13 +10004,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="uDfPmr05QaRHc/lKQBu+sCDEq8l9gmbXs+mDIVYrjMbYdiANiTZup5p1OYd/eKZ8QEieuycJNLsen0Bcl4ffYA==" saltValue="nukzhvoHeCxP4JigkPz7tQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -10021,6 +10014,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="645" priority="34" operator="equal">
@@ -10252,30 +10252,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -10289,50 +10289,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -10348,12 +10348,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$17</f>
         <v>43761</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -10374,12 +10374,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$17</f>
         <v>43775</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -10396,12 +10396,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$17</f>
         <v>21</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -11132,13 +11132,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -11150,19 +11150,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -11194,19 +11194,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -11311,13 +11311,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="/sMdwuAGJN7SPGgNL0ziXu1Q8XeCInhE3i/9un0d99aP6RkY4rOhwZD2naCjZIQwbL3LTnlL+uAmHX7F6ZJ8TA==" saltValue="yi38ohwCODSad6eDmoaQlA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -11328,6 +11321,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="607" priority="34" operator="equal">
@@ -11559,30 +11559,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -11596,50 +11596,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -11655,12 +11655,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$18</f>
         <v>43776</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -11681,12 +11681,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$18</f>
         <v>43787</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -11703,12 +11703,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$18</f>
         <v>22</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -12439,13 +12439,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -12457,19 +12457,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -12501,19 +12501,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -12618,13 +12618,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="b1YDq75ljJ5B6o2TZ6cSpp71QV/8+wGo6uHySvsgApnCkDdlHU/izp0MAt9NoMMvlwJo7O/oEfqC3sSbh8J6lw==" saltValue="YEpRtlZipUUsNS0a5ZzSmA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -12635,6 +12628,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="569" priority="34" operator="equal">
@@ -12866,30 +12866,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -12903,50 +12903,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -12962,12 +12962,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$20</f>
         <v>43788</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -12988,12 +12988,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$20</f>
         <v>43802</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -13010,12 +13010,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$20</f>
         <v>23</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -13752,13 +13752,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -13770,19 +13770,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -13814,19 +13814,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -13931,13 +13931,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="3Z6eW+z3pw+vQCjBKIuoJGAKNBF8XRIGiABYepWnM715kNUB3NHASvVak4ysCm50L8slsFsG4INB1JxJk1vfog==" saltValue="pMUvIumHrWxgi1YvQBev+A==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -13948,6 +13941,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="531" priority="34" operator="equal">
@@ -14180,30 +14180,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -14217,50 +14217,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -14276,12 +14276,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$21</f>
         <v>43803</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -14302,12 +14302,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$21</f>
         <v>43808</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14324,12 +14324,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$21</f>
         <v>24</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -15060,13 +15060,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -15078,19 +15078,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -15122,19 +15122,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -15239,13 +15239,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="5S8pPa3Rbz2Tnuz4VwlCPO3sWLEC0cZqbv88WApxMyRXWZSiEaO48moEPWK1AYz8vDZoh0RBe0+ZiOm3A9sbvQ==" saltValue="x9JfbylXq6vDZEk+GDoBZQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -15256,6 +15249,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="493" priority="34" operator="equal">
@@ -15487,30 +15487,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -15524,50 +15524,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -15583,12 +15583,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$23</f>
         <v>43809</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -15609,12 +15609,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$23</f>
         <v>43836</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15631,12 +15631,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$23</f>
         <v>1</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -16367,13 +16367,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5">
@@ -16385,19 +16385,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -16429,19 +16429,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5">
         <f t="shared" si="8"/>
         <v>43832</v>
@@ -16546,13 +16546,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="axvo6Tg8DSfMEUeJCS4l6Pyz11MbJ+p1QagU8xCdQw5fg5SdhFbZ4fHrgdrUPqyusByHsIezxMFf3tPpcDkjfg==" saltValue="5iujVD2EGR97WF/z8x9VBQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -16563,6 +16556,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="455" priority="34" operator="equal">
@@ -16794,30 +16794,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -16831,50 +16831,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -16890,12 +16890,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$24</f>
         <v>43837</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -16916,12 +16916,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$24</f>
         <v>43852</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -16938,12 +16938,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$24</f>
         <v>2</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -17682,13 +17682,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -17700,19 +17700,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -17744,19 +17744,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -17861,13 +17861,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="xkKCxjW7MCiMvjPrg31YBXUU+osmUVj0krXN90eD/T6hHoNPrXDNIpHb23E9yJP7hKDOQAn0YvOoTrRvBongqA==" saltValue="c75NYpkdlYU8+gsM0zCRNA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -17878,6 +17871,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="417" priority="34" operator="equal">
@@ -18089,7 +18089,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="13" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -18109,30 +18109,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -18146,50 +18146,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -18205,12 +18205,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$26</f>
         <v>43853</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -18231,12 +18231,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$26</f>
         <v>43866</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -18253,12 +18253,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$26</f>
         <v>3</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -18701,7 +18701,9 @@
       <c r="B27" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="135"/>
+      <c r="C27" s="135">
+        <v>3.5</v>
+      </c>
       <c r="D27" s="136"/>
       <c r="E27" s="131"/>
       <c r="F27" s="26" t="b">
@@ -18756,7 +18758,7 @@
       <c r="B29" s="141"/>
       <c r="C29" s="142">
         <f>SUM(C22:C28)</f>
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="D29" s="142">
         <f>IF(C29&gt;40,C29-40,0)</f>
@@ -18797,7 +18799,7 @@
       <c r="G30" s="29"/>
       <c r="H30" s="31">
         <f>(C21+C29+C37+H21+H29)-C13</f>
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="I30" s="31">
         <f>D21+D29+D37+I21+I29</f>
@@ -18993,13 +18995,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -19011,19 +19013,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -19055,19 +19057,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -19172,13 +19174,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ZcNZSxFLwvB3uJEog6sE8eX/p3zfr3mUKYcu6v8ZRrn2g9ZL8xsmH+kakoe8C1JkjePqf4XCT340Bl8b/ztlAA==" saltValue="jXF2oECus8nAaH9pzX9SUQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -19189,6 +19184,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="379" priority="34" operator="equal">
@@ -19420,30 +19422,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -19457,50 +19459,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -19516,12 +19518,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$27</f>
         <v>43867</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -19542,12 +19544,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$27</f>
         <v>43880</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -19564,12 +19566,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$27</f>
         <v>4</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -20300,13 +20302,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -20318,19 +20320,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -20362,19 +20364,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -20479,13 +20481,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="EzGaIiT0OCXSKPs9rTkp1ftITDSfrkhQUzI0bmma8+dV1URCCocs7OTxcxmqNKHwjvPJWVuLqU8TSqt28dUcNg==" saltValue="PXH+58hkNDKJly1D/0pVmQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -20496,6 +20491,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="341" priority="34" operator="equal">
@@ -20727,30 +20729,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -20764,50 +20766,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -20823,12 +20825,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$29</f>
         <v>43881</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -20849,12 +20851,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$29</f>
         <v>43894</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -20871,12 +20873,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$29</f>
         <v>5</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -21607,13 +21609,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -21625,19 +21627,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -21669,19 +21671,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -21786,13 +21788,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="a1OZcyflEvX/Gd5N3Q6nZCP9yG0vNF9wTHcqApIWzyQjdXQ/ELOJxnA0CX4clIgGZyMFf1l8c0gBzIMyjZmwmQ==" saltValue="nGZ72lm9LqEz+L7b3oJGkg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -21803,6 +21798,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="303" priority="34" operator="equal">
@@ -22265,30 +22267,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -22302,50 +22304,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -22361,12 +22363,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$30</f>
         <v>43895</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -22387,12 +22389,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$30</f>
         <v>43912</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -22409,12 +22411,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$30</f>
         <v>6</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -23145,13 +23147,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="str">
@@ -23163,19 +23165,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -23207,19 +23209,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -23324,13 +23326,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="V1nc17foZ8+TKkdpHgVLN1BfpxWYRmqD/Ya12wVVHUx78LQZNTNRnriKGjLnjhdnBItbI6SiAkHW9EsltcklJw==" saltValue="wublnwmPYTCrrjYQtLtFvw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -23341,6 +23336,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="265" priority="34" operator="equal">
@@ -23572,30 +23574,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -23609,50 +23611,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -23668,12 +23670,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$32</f>
         <v>43913</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -23694,12 +23696,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$32</f>
         <v>43926</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -23716,12 +23718,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$32</f>
         <v>7</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -24452,13 +24454,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -24470,19 +24472,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -24514,19 +24516,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -24631,13 +24633,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Kg6B3wMpyHtE3AG2+ZhM4iVpdSxDw+pCBdNIb+Wo6Ts+QON2d+uS2cM4EGU7doxlj/v6sQZRCLDJacYEHRTCWg==" saltValue="TqyyoN4EUigEJJATe2teew==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -24648,6 +24643,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="227" priority="34" operator="equal">
@@ -24879,30 +24881,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -24916,50 +24918,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -24975,12 +24977,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$33</f>
         <v>43927</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -25001,12 +25003,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$33</f>
         <v>43942</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -25023,12 +25025,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$33</f>
         <v>8</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -25759,13 +25761,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -25777,19 +25779,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -25821,19 +25823,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -25938,13 +25940,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="pL1llo1icHEYJ3TXDIYTPyJLENO1wV3Eyh/2WXX1MQibsv6eIANEQ6p81eSLf00FXmHTK80ocHiAlfzCSNnobA==" saltValue="xg19KB5Q+BRlyZJ260jfjw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -25955,6 +25950,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="189" priority="34" operator="equal">
@@ -26186,30 +26188,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -26223,50 +26225,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -26282,12 +26284,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$35</f>
         <v>43943</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -26308,12 +26310,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$35</f>
         <v>43957</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -26330,12 +26332,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$35</f>
         <v>9</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -27066,13 +27068,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -27084,19 +27086,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -27128,19 +27130,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -27245,13 +27247,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="cTTzshwCkoAqnh/geSNfKTT36wmZ/VdBuT3vIr+/2YsvbGJ8iBLOCV3uynrPhE8WcWQfprCPh0UKqqYAOdwEwQ==" saltValue="Q4AkvBK7ZSuvi376cVoqHg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -27262,6 +27257,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="151" priority="34" operator="equal">
@@ -27493,30 +27495,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -27530,50 +27532,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -27589,12 +27591,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$36</f>
         <v>43958</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -27615,12 +27617,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$36</f>
         <v>43970</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -27637,12 +27639,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$36</f>
         <v>10</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -28373,13 +28375,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -28391,19 +28393,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -28435,19 +28437,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -28552,13 +28554,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="/V1OKocwyLiiD7voXBGhmM1UK7C7RaZXxwAl2UR0a/g9ofjWI2UH03lweCKWBkoGED//exie+GFqMeUI+uVmzQ==" saltValue="eZQsMcrfzspB3EMk5v6XVA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -28569,6 +28564,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="113" priority="34" operator="equal">
@@ -28800,30 +28802,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -28837,50 +28839,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -28896,12 +28898,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$38</f>
         <v>43971</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -28922,12 +28924,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$38</f>
         <v>43986</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -28944,12 +28946,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$38</f>
         <v>11</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -29680,13 +29682,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -29698,19 +29700,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -29742,19 +29744,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -29859,13 +29861,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="oNctHQkxsBNUdifaeP4nhC9Gpn8YqyV2INclhAfQGal8TbFhFBZ5GsyonIJaHE15CM1bSYVUQSgD+94/pOyF2A==" saltValue="VnPuH9l13Gfm4vUE2x53PA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -29876,6 +29871,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="75" priority="34" operator="equal">
@@ -30107,30 +30109,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -30144,50 +30146,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -30203,12 +30205,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$39</f>
         <v>43987</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -30229,12 +30231,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$39</f>
         <v>44003</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -30251,12 +30253,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$39</f>
         <v>12</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -30987,13 +30989,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="str">
@@ -31005,19 +31007,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -31049,19 +31051,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -31166,13 +31168,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="uV3RtGqppO7ha8Js24gTUllRkNwQoQeB1H9xx2tTMLpS6FYIg9UoAIO8nji2h7RSBhm6I77Jv5QWfAHoz4mxtg==" saltValue="rz6vH+A1IVicU/xL/a63lA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -31183,6 +31178,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="37" priority="34" operator="equal">
@@ -31414,30 +31416,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -31451,70 +31453,70 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="196">
+      <c r="B8" s="192">
         <v>904301118</v>
       </c>
-      <c r="C8" s="196"/>
-      <c r="D8" s="196"/>
+      <c r="C8" s="192"/>
+      <c r="D8" s="192"/>
       <c r="E8" s="4"/>
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$5</f>
         <v>43636</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -31525,42 +31527,42 @@
       <c r="A9" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="197" t="s">
+      <c r="B9" s="193" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="197"/>
-      <c r="D9" s="197"/>
+      <c r="C9" s="193"/>
+      <c r="D9" s="193"/>
       <c r="E9" s="4"/>
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$5</f>
         <v>43648</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="197" t="s">
+      <c r="B10" s="193" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="197"/>
-      <c r="D10" s="197"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="193"/>
       <c r="E10" s="4"/>
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$5</f>
         <v>13</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -31605,10 +31607,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="195" t="s">
+      <c r="A13" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="195"/>
+      <c r="B13" s="191"/>
       <c r="C13" s="16">
         <f>'Previous June Split WK HRS'!$B$9</f>
         <v>0</v>
@@ -32120,12 +32122,12 @@
       <c r="C31" s="135"/>
       <c r="D31" s="136"/>
       <c r="E31" s="131"/>
-      <c r="F31" s="184" t="s">
+      <c r="F31" s="180" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="185"/>
-      <c r="H31" s="185"/>
-      <c r="I31" s="186"/>
+      <c r="G31" s="181"/>
+      <c r="H31" s="181"/>
+      <c r="I31" s="182"/>
       <c r="K31" s="5">
         <f>IF(K30=0,"",IF(K30&lt;$G$9,K30+1,IF(K30=$G$9,"")))</f>
         <v>43647</v>
@@ -32145,10 +32147,10 @@
       <c r="C32" s="135"/>
       <c r="D32" s="136"/>
       <c r="E32" s="131"/>
-      <c r="F32" s="187"/>
-      <c r="G32" s="188"/>
-      <c r="H32" s="188"/>
-      <c r="I32" s="189"/>
+      <c r="F32" s="183"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="184"/>
+      <c r="I32" s="185"/>
       <c r="K32" s="5">
         <f t="shared" ref="K32:K36" si="7">IF(K31=0,"",IF(K31&lt;$G$9,K31+1,IF(K31=$G$9,"")))</f>
         <v>43648</v>
@@ -32168,10 +32170,10 @@
       <c r="C33" s="136"/>
       <c r="D33" s="136"/>
       <c r="E33" s="131"/>
-      <c r="F33" s="187"/>
-      <c r="G33" s="188"/>
-      <c r="H33" s="188"/>
-      <c r="I33" s="189"/>
+      <c r="F33" s="183"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="185"/>
       <c r="K33" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -32191,10 +32193,10 @@
       <c r="C34" s="136"/>
       <c r="D34" s="136"/>
       <c r="E34" s="131"/>
-      <c r="F34" s="187"/>
-      <c r="G34" s="188"/>
-      <c r="H34" s="188"/>
-      <c r="I34" s="189"/>
+      <c r="F34" s="183"/>
+      <c r="G34" s="184"/>
+      <c r="H34" s="184"/>
+      <c r="I34" s="185"/>
       <c r="K34" s="5" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -32214,10 +32216,10 @@
       <c r="C35" s="136"/>
       <c r="D35" s="136"/>
       <c r="E35" s="131"/>
-      <c r="F35" s="187"/>
-      <c r="G35" s="188"/>
-      <c r="H35" s="188"/>
-      <c r="I35" s="189"/>
+      <c r="F35" s="183"/>
+      <c r="G35" s="184"/>
+      <c r="H35" s="184"/>
+      <c r="I35" s="185"/>
       <c r="K35" s="5" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -32237,10 +32239,10 @@
       <c r="C36" s="139"/>
       <c r="D36" s="139"/>
       <c r="E36" s="131"/>
-      <c r="F36" s="187"/>
-      <c r="G36" s="188"/>
-      <c r="H36" s="188"/>
-      <c r="I36" s="189"/>
+      <c r="F36" s="183"/>
+      <c r="G36" s="184"/>
+      <c r="H36" s="184"/>
+      <c r="I36" s="185"/>
       <c r="K36" s="5" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -32263,10 +32265,10 @@
         <v>0</v>
       </c>
       <c r="E37" s="150"/>
-      <c r="F37" s="190"/>
-      <c r="G37" s="191"/>
-      <c r="H37" s="191"/>
-      <c r="I37" s="192"/>
+      <c r="F37" s="186"/>
+      <c r="G37" s="187"/>
+      <c r="H37" s="187"/>
+      <c r="I37" s="188"/>
       <c r="K37" s="8" t="s">
         <v>22</v>
       </c>
@@ -32291,13 +32293,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -32309,19 +32311,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -32353,19 +32355,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -32470,6 +32472,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="S5X1sRKbVHIC/CxNvUSLGbMtzFy/V13rjQxnfTWYv4nG1Q+RIPUG1SPfVjoRJSUT2HTEVjeS/kJu2d8+Y6rxSg==" saltValue="A64d+t0sLiguDosj21Ghpw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="A42:D42"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A4:I7"/>
@@ -32481,12 +32489,6 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="A42:D42"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="909" priority="43" operator="equal">
@@ -32708,30 +32710,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -32745,50 +32747,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -32804,12 +32806,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$6</f>
         <v>43649</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -32830,12 +32832,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$6</f>
         <v>43668</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -32852,12 +32854,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$6</f>
         <v>14</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -32902,10 +32904,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="195" t="s">
+      <c r="A13" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="195"/>
+      <c r="B13" s="191"/>
       <c r="C13" s="16">
         <f>'June 20, 2019 - July 2,2019'!$C$37</f>
         <v>0</v>
@@ -33588,13 +33590,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5">
@@ -33606,19 +33608,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -33650,19 +33652,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -33767,13 +33769,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="2lB+QSBmjIj9R2xKru8PmZreKGvpmEfO/0GOrlhZ0MZCVS02q7aLA/WORT8uz5qYj3dUHkRAJw1U/qt64pNfiw==" saltValue="h6uuiXovP/FrsUciOjanjw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -33784,6 +33779,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="873" priority="34" operator="equal">
@@ -34015,30 +34017,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -34052,50 +34054,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -34111,12 +34113,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$8</f>
         <v>43669</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -34137,12 +34139,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$8</f>
         <v>43683</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -34159,12 +34161,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$8</f>
         <v>15</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -34209,10 +34211,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="195" t="s">
+      <c r="A13" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="195"/>
+      <c r="B13" s="191"/>
       <c r="C13" s="16">
         <f>'July 3, 2019 - July 22, 2019'!$H$21</f>
         <v>0</v>
@@ -34895,13 +34897,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -34913,19 +34915,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -34957,19 +34959,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -35074,13 +35076,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ATJHUNHQBNdjd96oUH7vKvka/F64NjKj3Xn6T8lprLHrs616uwjb1Z0qCX7s8JM5yStmTV5XhlOA40aVUekqmw==" saltValue="ZSXrR0LlpV1Qr9K1tI8xEA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -35091,6 +35086,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="835" priority="34" operator="equal">
@@ -35322,30 +35324,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -35359,50 +35361,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -35418,12 +35420,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$9</f>
         <v>43684</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -35444,12 +35446,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$9</f>
         <v>43698</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -35466,12 +35468,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$9</f>
         <v>16</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -35516,10 +35518,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="195" t="s">
+      <c r="A13" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="195"/>
+      <c r="B13" s="191"/>
       <c r="C13" s="16">
         <f>'July 23, 2019 - Aug 6, 2019'!$C$37</f>
         <v>0</v>
@@ -36202,13 +36204,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -36220,19 +36222,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -36264,19 +36266,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -36381,13 +36383,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="pjvtob70aqxbUVwbESLxavj0Egekft8/sG3lzDDz8j0UwrUOUxmx6PyQliu1rUgl/+2/kjNfTvUwQZgl2it/Ww==" saltValue="Tncw5B/YPaEuEdaFi6BZwA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -36398,6 +36393,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="797" priority="34" operator="equal">
@@ -36629,30 +36631,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -36666,50 +36668,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -36725,12 +36727,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$11</f>
         <v>43699</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -36751,12 +36753,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$11</f>
         <v>43712</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -36773,12 +36775,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$11</f>
         <v>17</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -36823,10 +36825,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="195" t="s">
+      <c r="A13" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="195"/>
+      <c r="B13" s="191"/>
       <c r="C13" s="16">
         <f>'Aug 7, 2019 - Aug 21, 2019'!$C$37</f>
         <v>0</v>
@@ -37509,13 +37511,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -37527,19 +37529,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -37571,19 +37573,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -37688,13 +37690,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="6LAhclbOUnmqJcpdXA5lk6utAC8YfwinYcC5Ki32jSdOy8vMfhUJVna4b6LEsTnFQwBID+ZoytYeUHiOwjDQQA==" saltValue="Xi3mOL2RymSmRy9N4wbt7Q==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -37705,6 +37700,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="759" priority="34" operator="equal">
@@ -37936,30 +37938,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -37973,50 +37975,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -38032,12 +38034,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$12</f>
         <v>43713</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -38058,12 +38060,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$12</f>
         <v>43727</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -38080,12 +38082,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$12</f>
         <v>18</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -38130,10 +38132,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="195" t="s">
+      <c r="A13" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="195"/>
+      <c r="B13" s="191"/>
       <c r="C13" s="16">
         <f>'Aug 22, 2019 - Sept 4, 2019'!$C$37</f>
         <v>0</v>
@@ -38816,13 +38818,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -38834,19 +38836,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -38878,19 +38880,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -38995,13 +38997,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="y3DImqH2VJ6Dt3mfRvoZqaB3/pUlD505riboGLqDJWCwWWWLCviCk1N0GcfKxeCT4uGRqT7/qdqgKfcgOKdMGQ==" saltValue="8TCmrJvFWv6GB62RsfwMPg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -39012,6 +39007,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="721" priority="34" operator="equal">
@@ -39243,30 +39245,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -39280,50 +39282,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -39339,12 +39341,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$14</f>
         <v>43728</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -39365,12 +39367,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$14</f>
         <v>43741</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -39387,12 +39389,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$14</f>
         <v>19</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -40123,13 +40125,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -40141,19 +40143,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -40185,19 +40187,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -40302,13 +40304,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="6dEjPHEgF8OUT15wBxgLnX+yynDGVgTTC4871Syu9JmtBGLoz89ibSTwvX6fYAZHt//Uzbi0MxR+8tDXSNLVjw==" saltValue="aH9gsTcCeUah3TuHbCYGvw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -40319,6 +40314,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="683" priority="34" operator="equal">

--- a/TimeReport-SW-FY190-RB Kruse.xlsx
+++ b/TimeReport-SW-FY190-RB Kruse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/Research/Dr. Bethel/ROSResearch2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1936EC4A-83AB-0245-A62B-305BE830A741}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664F7E8D-ECC1-954A-B0F9-04731F524D09}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1812,6 +1812,22 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1886,22 +1902,6 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8945,30 +8945,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -8982,50 +8982,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -9041,12 +9041,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$15</f>
         <v>43742</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -9067,12 +9067,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$15</f>
         <v>43760</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -9089,12 +9089,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$15</f>
         <v>20</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -9825,13 +9825,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5">
@@ -9843,19 +9843,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -9887,19 +9887,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -10004,6 +10004,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="uDfPmr05QaRHc/lKQBu+sCDEq8l9gmbXs+mDIVYrjMbYdiANiTZup5p1OYd/eKZ8QEieuycJNLsen0Bcl4ffYA==" saltValue="nukzhvoHeCxP4JigkPz7tQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -10014,13 +10021,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="645" priority="34" operator="equal">
@@ -10252,30 +10252,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -10289,50 +10289,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -10348,12 +10348,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$17</f>
         <v>43761</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -10374,12 +10374,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$17</f>
         <v>43775</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -10396,12 +10396,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$17</f>
         <v>21</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -11132,13 +11132,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -11150,19 +11150,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -11194,19 +11194,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -11311,6 +11311,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="/sMdwuAGJN7SPGgNL0ziXu1Q8XeCInhE3i/9un0d99aP6RkY4rOhwZD2naCjZIQwbL3LTnlL+uAmHX7F6ZJ8TA==" saltValue="yi38ohwCODSad6eDmoaQlA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -11321,13 +11328,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="607" priority="34" operator="equal">
@@ -11559,30 +11559,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -11596,50 +11596,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -11655,12 +11655,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$18</f>
         <v>43776</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -11681,12 +11681,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$18</f>
         <v>43787</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -11703,12 +11703,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$18</f>
         <v>22</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -12439,13 +12439,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -12457,19 +12457,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -12501,19 +12501,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -12618,6 +12618,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="b1YDq75ljJ5B6o2TZ6cSpp71QV/8+wGo6uHySvsgApnCkDdlHU/izp0MAt9NoMMvlwJo7O/oEfqC3sSbh8J6lw==" saltValue="YEpRtlZipUUsNS0a5ZzSmA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -12628,13 +12635,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="569" priority="34" operator="equal">
@@ -12866,30 +12866,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -12903,50 +12903,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -12962,12 +12962,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$20</f>
         <v>43788</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -12988,12 +12988,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$20</f>
         <v>43802</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -13010,12 +13010,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$20</f>
         <v>23</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -13752,13 +13752,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -13770,19 +13770,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -13814,19 +13814,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -13931,6 +13931,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="3Z6eW+z3pw+vQCjBKIuoJGAKNBF8XRIGiABYepWnM715kNUB3NHASvVak4ysCm50L8slsFsG4INB1JxJk1vfog==" saltValue="pMUvIumHrWxgi1YvQBev+A==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -13941,13 +13948,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="531" priority="34" operator="equal">
@@ -14180,30 +14180,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -14217,50 +14217,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -14276,12 +14276,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$21</f>
         <v>43803</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -14302,12 +14302,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$21</f>
         <v>43808</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14324,12 +14324,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$21</f>
         <v>24</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -15060,13 +15060,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -15078,19 +15078,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -15122,19 +15122,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -15239,6 +15239,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="5S8pPa3Rbz2Tnuz4VwlCPO3sWLEC0cZqbv88WApxMyRXWZSiEaO48moEPWK1AYz8vDZoh0RBe0+ZiOm3A9sbvQ==" saltValue="x9JfbylXq6vDZEk+GDoBZQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -15249,13 +15256,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="493" priority="34" operator="equal">
@@ -15487,30 +15487,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -15524,50 +15524,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -15583,12 +15583,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$23</f>
         <v>43809</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -15609,12 +15609,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$23</f>
         <v>43836</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15631,12 +15631,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$23</f>
         <v>1</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -16367,13 +16367,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5">
@@ -16385,19 +16385,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -16429,19 +16429,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5">
         <f t="shared" si="8"/>
         <v>43832</v>
@@ -16546,6 +16546,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="axvo6Tg8DSfMEUeJCS4l6Pyz11MbJ+p1QagU8xCdQw5fg5SdhFbZ4fHrgdrUPqyusByHsIezxMFf3tPpcDkjfg==" saltValue="5iujVD2EGR97WF/z8x9VBQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -16556,13 +16563,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="455" priority="34" operator="equal">
@@ -16794,30 +16794,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -16831,50 +16831,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -16890,12 +16890,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$24</f>
         <v>43837</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -16916,12 +16916,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$24</f>
         <v>43852</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -16938,12 +16938,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$24</f>
         <v>2</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -17682,13 +17682,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -17700,19 +17700,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -17744,19 +17744,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -17861,6 +17861,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="xkKCxjW7MCiMvjPrg31YBXUU+osmUVj0krXN90eD/T6hHoNPrXDNIpHb23E9yJP7hKDOQAn0YvOoTrRvBongqA==" saltValue="c75NYpkdlYU8+gsM0zCRNA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -17871,13 +17878,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="417" priority="34" operator="equal">
@@ -18088,8 +18088,8 @@
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <pane ySplit="13" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -18109,30 +18109,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -18146,50 +18146,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -18205,12 +18205,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$26</f>
         <v>43853</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -18231,12 +18231,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$26</f>
         <v>43866</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -18253,12 +18253,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$26</f>
         <v>3</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -18731,7 +18731,9 @@
       <c r="B28" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="138"/>
+      <c r="C28" s="138">
+        <v>3</v>
+      </c>
       <c r="D28" s="139"/>
       <c r="E28" s="131"/>
       <c r="F28" s="27" t="b">
@@ -18758,7 +18760,7 @@
       <c r="B29" s="141"/>
       <c r="C29" s="142">
         <f>SUM(C22:C28)</f>
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="D29" s="142">
         <f>IF(C29&gt;40,C29-40,0)</f>
@@ -18799,7 +18801,7 @@
       <c r="G30" s="29"/>
       <c r="H30" s="31">
         <f>(C21+C29+C37+H21+H29)-C13</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I30" s="31">
         <f>D21+D29+D37+I21+I29</f>
@@ -18995,13 +18997,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -19013,19 +19015,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -19057,19 +19059,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -19174,6 +19176,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ZcNZSxFLwvB3uJEog6sE8eX/p3zfr3mUKYcu6v8ZRrn2g9ZL8xsmH+kakoe8C1JkjePqf4XCT340Bl8b/ztlAA==" saltValue="jXF2oECus8nAaH9pzX9SUQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -19184,13 +19193,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="379" priority="34" operator="equal">
@@ -19422,30 +19424,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -19459,50 +19461,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -19518,12 +19520,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$27</f>
         <v>43867</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -19544,12 +19546,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$27</f>
         <v>43880</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -19566,12 +19568,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$27</f>
         <v>4</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -20302,13 +20304,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -20320,19 +20322,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -20364,19 +20366,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -20481,6 +20483,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="EzGaIiT0OCXSKPs9rTkp1ftITDSfrkhQUzI0bmma8+dV1URCCocs7OTxcxmqNKHwjvPJWVuLqU8TSqt28dUcNg==" saltValue="PXH+58hkNDKJly1D/0pVmQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -20491,13 +20500,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="341" priority="34" operator="equal">
@@ -20729,30 +20731,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -20766,50 +20768,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -20825,12 +20827,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$29</f>
         <v>43881</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -20851,12 +20853,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$29</f>
         <v>43894</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -20873,12 +20875,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$29</f>
         <v>5</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -21609,13 +21611,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -21627,19 +21629,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -21671,19 +21673,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -21788,6 +21790,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="a1OZcyflEvX/Gd5N3Q6nZCP9yG0vNF9wTHcqApIWzyQjdXQ/ELOJxnA0CX4clIgGZyMFf1l8c0gBzIMyjZmwmQ==" saltValue="nGZ72lm9LqEz+L7b3oJGkg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -21798,13 +21807,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="303" priority="34" operator="equal">
@@ -22267,30 +22269,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -22304,50 +22306,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -22363,12 +22365,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$30</f>
         <v>43895</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -22389,12 +22391,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$30</f>
         <v>43912</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -22411,12 +22413,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$30</f>
         <v>6</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -23147,13 +23149,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="str">
@@ -23165,19 +23167,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -23209,19 +23211,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -23326,6 +23328,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="V1nc17foZ8+TKkdpHgVLN1BfpxWYRmqD/Ya12wVVHUx78LQZNTNRnriKGjLnjhdnBItbI6SiAkHW9EsltcklJw==" saltValue="wublnwmPYTCrrjYQtLtFvw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -23336,13 +23345,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="265" priority="34" operator="equal">
@@ -23574,30 +23576,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -23611,50 +23613,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -23670,12 +23672,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$32</f>
         <v>43913</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -23696,12 +23698,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$32</f>
         <v>43926</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -23718,12 +23720,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$32</f>
         <v>7</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -24454,13 +24456,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -24472,19 +24474,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -24516,19 +24518,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -24633,6 +24635,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Kg6B3wMpyHtE3AG2+ZhM4iVpdSxDw+pCBdNIb+Wo6Ts+QON2d+uS2cM4EGU7doxlj/v6sQZRCLDJacYEHRTCWg==" saltValue="TqyyoN4EUigEJJATe2teew==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -24643,13 +24652,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="227" priority="34" operator="equal">
@@ -24881,30 +24883,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -24918,50 +24920,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -24977,12 +24979,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$33</f>
         <v>43927</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -25003,12 +25005,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$33</f>
         <v>43942</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -25025,12 +25027,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$33</f>
         <v>8</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -25761,13 +25763,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -25779,19 +25781,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -25823,19 +25825,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -25940,6 +25942,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="pL1llo1icHEYJ3TXDIYTPyJLENO1wV3Eyh/2WXX1MQibsv6eIANEQ6p81eSLf00FXmHTK80ocHiAlfzCSNnobA==" saltValue="xg19KB5Q+BRlyZJ260jfjw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -25950,13 +25959,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="189" priority="34" operator="equal">
@@ -26188,30 +26190,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -26225,50 +26227,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -26284,12 +26286,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$35</f>
         <v>43943</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -26310,12 +26312,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$35</f>
         <v>43957</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -26332,12 +26334,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$35</f>
         <v>9</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -27068,13 +27070,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -27086,19 +27088,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -27130,19 +27132,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -27247,6 +27249,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="cTTzshwCkoAqnh/geSNfKTT36wmZ/VdBuT3vIr+/2YsvbGJ8iBLOCV3uynrPhE8WcWQfprCPh0UKqqYAOdwEwQ==" saltValue="Q4AkvBK7ZSuvi376cVoqHg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -27257,13 +27266,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="151" priority="34" operator="equal">
@@ -27495,30 +27497,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -27532,50 +27534,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -27591,12 +27593,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$36</f>
         <v>43958</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -27617,12 +27619,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$36</f>
         <v>43970</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -27639,12 +27641,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$36</f>
         <v>10</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -28375,13 +28377,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -28393,19 +28395,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -28437,19 +28439,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -28554,6 +28556,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="/V1OKocwyLiiD7voXBGhmM1UK7C7RaZXxwAl2UR0a/g9ofjWI2UH03lweCKWBkoGED//exie+GFqMeUI+uVmzQ==" saltValue="eZQsMcrfzspB3EMk5v6XVA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -28564,13 +28573,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="113" priority="34" operator="equal">
@@ -28802,30 +28804,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -28839,50 +28841,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -28898,12 +28900,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$38</f>
         <v>43971</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -28924,12 +28926,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$38</f>
         <v>43986</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -28946,12 +28948,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$38</f>
         <v>11</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -29682,13 +29684,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -29700,19 +29702,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -29744,19 +29746,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -29861,6 +29863,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="oNctHQkxsBNUdifaeP4nhC9Gpn8YqyV2INclhAfQGal8TbFhFBZ5GsyonIJaHE15CM1bSYVUQSgD+94/pOyF2A==" saltValue="VnPuH9l13Gfm4vUE2x53PA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -29871,13 +29880,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="75" priority="34" operator="equal">
@@ -30109,30 +30111,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -30146,50 +30148,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -30205,12 +30207,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$39</f>
         <v>43987</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -30231,12 +30233,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$39</f>
         <v>44003</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -30253,12 +30255,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$39</f>
         <v>12</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -30989,13 +30991,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="str">
@@ -31007,19 +31009,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -31051,19 +31053,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -31168,6 +31170,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="uV3RtGqppO7ha8Js24gTUllRkNwQoQeB1H9xx2tTMLpS6FYIg9UoAIO8nji2h7RSBhm6I77Jv5QWfAHoz4mxtg==" saltValue="rz6vH+A1IVicU/xL/a63lA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -31178,13 +31187,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="37" priority="34" operator="equal">
@@ -31416,30 +31418,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -31453,70 +31455,70 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="192">
+      <c r="B8" s="196">
         <v>904301118</v>
       </c>
-      <c r="C8" s="192"/>
-      <c r="D8" s="192"/>
+      <c r="C8" s="196"/>
+      <c r="D8" s="196"/>
       <c r="E8" s="4"/>
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$5</f>
         <v>43636</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -31527,42 +31529,42 @@
       <c r="A9" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="193" t="s">
+      <c r="B9" s="197" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="193"/>
-      <c r="D9" s="193"/>
+      <c r="C9" s="197"/>
+      <c r="D9" s="197"/>
       <c r="E9" s="4"/>
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$5</f>
         <v>43648</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="193" t="s">
+      <c r="B10" s="197" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="193"/>
-      <c r="D10" s="193"/>
+      <c r="C10" s="197"/>
+      <c r="D10" s="197"/>
       <c r="E10" s="4"/>
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$5</f>
         <v>13</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -31607,10 +31609,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="191" t="s">
+      <c r="A13" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="191"/>
+      <c r="B13" s="195"/>
       <c r="C13" s="16">
         <f>'Previous June Split WK HRS'!$B$9</f>
         <v>0</v>
@@ -32122,12 +32124,12 @@
       <c r="C31" s="135"/>
       <c r="D31" s="136"/>
       <c r="E31" s="131"/>
-      <c r="F31" s="180" t="s">
+      <c r="F31" s="184" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="181"/>
-      <c r="H31" s="181"/>
-      <c r="I31" s="182"/>
+      <c r="G31" s="185"/>
+      <c r="H31" s="185"/>
+      <c r="I31" s="186"/>
       <c r="K31" s="5">
         <f>IF(K30=0,"",IF(K30&lt;$G$9,K30+1,IF(K30=$G$9,"")))</f>
         <v>43647</v>
@@ -32147,10 +32149,10 @@
       <c r="C32" s="135"/>
       <c r="D32" s="136"/>
       <c r="E32" s="131"/>
-      <c r="F32" s="183"/>
-      <c r="G32" s="184"/>
-      <c r="H32" s="184"/>
-      <c r="I32" s="185"/>
+      <c r="F32" s="187"/>
+      <c r="G32" s="188"/>
+      <c r="H32" s="188"/>
+      <c r="I32" s="189"/>
       <c r="K32" s="5">
         <f t="shared" ref="K32:K36" si="7">IF(K31=0,"",IF(K31&lt;$G$9,K31+1,IF(K31=$G$9,"")))</f>
         <v>43648</v>
@@ -32170,10 +32172,10 @@
       <c r="C33" s="136"/>
       <c r="D33" s="136"/>
       <c r="E33" s="131"/>
-      <c r="F33" s="183"/>
-      <c r="G33" s="184"/>
-      <c r="H33" s="184"/>
-      <c r="I33" s="185"/>
+      <c r="F33" s="187"/>
+      <c r="G33" s="188"/>
+      <c r="H33" s="188"/>
+      <c r="I33" s="189"/>
       <c r="K33" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -32193,10 +32195,10 @@
       <c r="C34" s="136"/>
       <c r="D34" s="136"/>
       <c r="E34" s="131"/>
-      <c r="F34" s="183"/>
-      <c r="G34" s="184"/>
-      <c r="H34" s="184"/>
-      <c r="I34" s="185"/>
+      <c r="F34" s="187"/>
+      <c r="G34" s="188"/>
+      <c r="H34" s="188"/>
+      <c r="I34" s="189"/>
       <c r="K34" s="5" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -32216,10 +32218,10 @@
       <c r="C35" s="136"/>
       <c r="D35" s="136"/>
       <c r="E35" s="131"/>
-      <c r="F35" s="183"/>
-      <c r="G35" s="184"/>
-      <c r="H35" s="184"/>
-      <c r="I35" s="185"/>
+      <c r="F35" s="187"/>
+      <c r="G35" s="188"/>
+      <c r="H35" s="188"/>
+      <c r="I35" s="189"/>
       <c r="K35" s="5" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -32239,10 +32241,10 @@
       <c r="C36" s="139"/>
       <c r="D36" s="139"/>
       <c r="E36" s="131"/>
-      <c r="F36" s="183"/>
-      <c r="G36" s="184"/>
-      <c r="H36" s="184"/>
-      <c r="I36" s="185"/>
+      <c r="F36" s="187"/>
+      <c r="G36" s="188"/>
+      <c r="H36" s="188"/>
+      <c r="I36" s="189"/>
       <c r="K36" s="5" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -32265,10 +32267,10 @@
         <v>0</v>
       </c>
       <c r="E37" s="150"/>
-      <c r="F37" s="186"/>
-      <c r="G37" s="187"/>
-      <c r="H37" s="187"/>
-      <c r="I37" s="188"/>
+      <c r="F37" s="190"/>
+      <c r="G37" s="191"/>
+      <c r="H37" s="191"/>
+      <c r="I37" s="192"/>
       <c r="K37" s="8" t="s">
         <v>22</v>
       </c>
@@ -32293,13 +32295,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -32311,19 +32313,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -32355,19 +32357,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -32472,12 +32474,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="S5X1sRKbVHIC/CxNvUSLGbMtzFy/V13rjQxnfTWYv4nG1Q+RIPUG1SPfVjoRJSUT2HTEVjeS/kJu2d8+Y6rxSg==" saltValue="A64d+t0sLiguDosj21Ghpw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="A42:D42"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A4:I7"/>
@@ -32489,6 +32485,12 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="A42:D42"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="909" priority="43" operator="equal">
@@ -32710,30 +32712,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -32747,50 +32749,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -32806,12 +32808,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$6</f>
         <v>43649</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -32832,12 +32834,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$6</f>
         <v>43668</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -32854,12 +32856,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$6</f>
         <v>14</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -32904,10 +32906,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="191" t="s">
+      <c r="A13" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="191"/>
+      <c r="B13" s="195"/>
       <c r="C13" s="16">
         <f>'June 20, 2019 - July 2,2019'!$C$37</f>
         <v>0</v>
@@ -33590,13 +33592,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5">
@@ -33608,19 +33610,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -33652,19 +33654,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -33769,6 +33771,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="2lB+QSBmjIj9R2xKru8PmZreKGvpmEfO/0GOrlhZ0MZCVS02q7aLA/WORT8uz5qYj3dUHkRAJw1U/qt64pNfiw==" saltValue="h6uuiXovP/FrsUciOjanjw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -33779,13 +33788,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="873" priority="34" operator="equal">
@@ -34017,30 +34019,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -34054,50 +34056,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -34113,12 +34115,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$8</f>
         <v>43669</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -34139,12 +34141,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$8</f>
         <v>43683</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -34161,12 +34163,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$8</f>
         <v>15</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -34211,10 +34213,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="191" t="s">
+      <c r="A13" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="191"/>
+      <c r="B13" s="195"/>
       <c r="C13" s="16">
         <f>'July 3, 2019 - July 22, 2019'!$H$21</f>
         <v>0</v>
@@ -34897,13 +34899,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -34915,19 +34917,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -34959,19 +34961,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -35076,6 +35078,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ATJHUNHQBNdjd96oUH7vKvka/F64NjKj3Xn6T8lprLHrs616uwjb1Z0qCX7s8JM5yStmTV5XhlOA40aVUekqmw==" saltValue="ZSXrR0LlpV1Qr9K1tI8xEA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -35086,13 +35095,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="835" priority="34" operator="equal">
@@ -35324,30 +35326,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -35361,50 +35363,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -35420,12 +35422,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$9</f>
         <v>43684</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -35446,12 +35448,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$9</f>
         <v>43698</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -35468,12 +35470,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$9</f>
         <v>16</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -35518,10 +35520,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="191" t="s">
+      <c r="A13" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="191"/>
+      <c r="B13" s="195"/>
       <c r="C13" s="16">
         <f>'July 23, 2019 - Aug 6, 2019'!$C$37</f>
         <v>0</v>
@@ -36204,13 +36206,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -36222,19 +36224,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -36266,19 +36268,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -36383,6 +36385,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="pjvtob70aqxbUVwbESLxavj0Egekft8/sG3lzDDz8j0UwrUOUxmx6PyQliu1rUgl/+2/kjNfTvUwQZgl2it/Ww==" saltValue="Tncw5B/YPaEuEdaFi6BZwA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -36393,13 +36402,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="797" priority="34" operator="equal">
@@ -36631,30 +36633,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -36668,50 +36670,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -36727,12 +36729,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$11</f>
         <v>43699</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -36753,12 +36755,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$11</f>
         <v>43712</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -36775,12 +36777,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$11</f>
         <v>17</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -36825,10 +36827,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="191" t="s">
+      <c r="A13" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="191"/>
+      <c r="B13" s="195"/>
       <c r="C13" s="16">
         <f>'Aug 7, 2019 - Aug 21, 2019'!$C$37</f>
         <v>0</v>
@@ -37511,13 +37513,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -37529,19 +37531,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -37573,19 +37575,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -37690,6 +37692,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="6LAhclbOUnmqJcpdXA5lk6utAC8YfwinYcC5Ki32jSdOy8vMfhUJVna4b6LEsTnFQwBID+ZoytYeUHiOwjDQQA==" saltValue="Xi3mOL2RymSmRy9N4wbt7Q==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -37700,13 +37709,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="759" priority="34" operator="equal">
@@ -37938,30 +37940,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -37975,50 +37977,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -38034,12 +38036,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$12</f>
         <v>43713</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -38060,12 +38062,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$12</f>
         <v>43727</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -38082,12 +38084,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$12</f>
         <v>18</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -38132,10 +38134,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="191" t="s">
+      <c r="A13" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="191"/>
+      <c r="B13" s="195"/>
       <c r="C13" s="16">
         <f>'Aug 22, 2019 - Sept 4, 2019'!$C$37</f>
         <v>0</v>
@@ -38818,13 +38820,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -38836,19 +38838,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -38880,19 +38882,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -38997,6 +38999,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="y3DImqH2VJ6Dt3mfRvoZqaB3/pUlD505riboGLqDJWCwWWWLCviCk1N0GcfKxeCT4uGRqT7/qdqgKfcgOKdMGQ==" saltValue="8TCmrJvFWv6GB62RsfwMPg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -39007,13 +39016,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="721" priority="34" operator="equal">
@@ -39245,30 +39247,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -39282,50 +39284,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -39341,12 +39343,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$14</f>
         <v>43728</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -39367,12 +39369,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$14</f>
         <v>43741</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -39389,12 +39391,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$14</f>
         <v>19</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -40125,13 +40127,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -40143,19 +40145,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -40187,19 +40189,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -40304,6 +40306,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="6dEjPHEgF8OUT15wBxgLnX+yynDGVgTTC4871Syu9JmtBGLoz89ibSTwvX6fYAZHt//Uzbi0MxR+8tDXSNLVjw==" saltValue="aH9gsTcCeUah3TuHbCYGvw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -40314,13 +40323,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="683" priority="34" operator="equal">

--- a/TimeReport-SW-FY190-RB Kruse.xlsx
+++ b/TimeReport-SW-FY190-RB Kruse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/Research/Dr. Bethel/ROSResearch2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664F7E8D-ECC1-954A-B0F9-04731F524D09}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FC3432-44D2-3243-93DA-DBF3F82E33B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18088,8 +18088,8 @@
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <pane ySplit="13" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -18732,7 +18732,7 @@
         <v>19</v>
       </c>
       <c r="C28" s="138">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D28" s="139"/>
       <c r="E28" s="131"/>
@@ -18760,7 +18760,7 @@
       <c r="B29" s="141"/>
       <c r="C29" s="142">
         <f>SUM(C22:C28)</f>
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="D29" s="142">
         <f>IF(C29&gt;40,C29-40,0)</f>
@@ -18792,7 +18792,9 @@
       <c r="B30" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="133"/>
+      <c r="C30" s="133">
+        <v>1</v>
+      </c>
       <c r="D30" s="130"/>
       <c r="E30" s="30"/>
       <c r="F30" s="15" t="s">
@@ -18801,7 +18803,7 @@
       <c r="G30" s="29"/>
       <c r="H30" s="31">
         <f>(C21+C29+C37+H21+H29)-C13</f>
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="I30" s="31">
         <f>D21+D29+D37+I21+I29</f>
@@ -18962,7 +18964,7 @@
       <c r="B37" s="149"/>
       <c r="C37" s="142">
         <f>SUM(C30:C36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="142">
         <f>IF(C37&gt;40,C37-40,0)</f>
@@ -19624,7 +19626,7 @@
       <c r="B13" s="209"/>
       <c r="C13" s="154">
         <f>'Jan 23, 2020 - Feb 5, 2020'!$C$37</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="154"/>
       <c r="E13" s="155"/>
@@ -19839,7 +19841,7 @@
       <c r="B21" s="141"/>
       <c r="C21" s="142">
         <f>SUM(C13:C20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="142">
         <f>IF(C21&gt;40,C21-40,0)</f>

--- a/TimeReport-SW-FY190-RB Kruse.xlsx
+++ b/TimeReport-SW-FY190-RB Kruse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/Research/Dr. Bethel/ROSResearch2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FC3432-44D2-3243-93DA-DBF3F82E33B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8346582C-33F6-6444-B92D-893E230C4BA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" firstSheet="16" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payroll Schedule" sheetId="3" state="hidden" r:id="rId1"/>
@@ -76,7 +76,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -7373,6 +7375,1138 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>246224</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>77755</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>829388</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Freeform 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6C017D0-72A9-BA44-B5C0-173249F15CD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="246224" y="8812245"/>
+          <a:ext cx="1917960" cy="583163"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 1917960"/>
+            <a:gd name="connsiteY0" fmla="*/ 12959 h 583163"/>
+            <a:gd name="connsiteX1" fmla="*/ 64796 w 1917960"/>
+            <a:gd name="connsiteY1" fmla="*/ 25918 h 583163"/>
+            <a:gd name="connsiteX2" fmla="*/ 181429 w 1917960"/>
+            <a:gd name="connsiteY2" fmla="*/ 38877 h 583163"/>
+            <a:gd name="connsiteX3" fmla="*/ 129592 w 1917960"/>
+            <a:gd name="connsiteY3" fmla="*/ 90714 h 583163"/>
+            <a:gd name="connsiteX4" fmla="*/ 90715 w 1917960"/>
+            <a:gd name="connsiteY4" fmla="*/ 168469 h 583163"/>
+            <a:gd name="connsiteX5" fmla="*/ 64796 w 1917960"/>
+            <a:gd name="connsiteY5" fmla="*/ 246224 h 583163"/>
+            <a:gd name="connsiteX6" fmla="*/ 51837 w 1917960"/>
+            <a:gd name="connsiteY6" fmla="*/ 285102 h 583163"/>
+            <a:gd name="connsiteX7" fmla="*/ 25919 w 1917960"/>
+            <a:gd name="connsiteY7" fmla="*/ 375816 h 583163"/>
+            <a:gd name="connsiteX8" fmla="*/ 0 w 1917960"/>
+            <a:gd name="connsiteY8" fmla="*/ 414694 h 583163"/>
+            <a:gd name="connsiteX9" fmla="*/ 25919 w 1917960"/>
+            <a:gd name="connsiteY9" fmla="*/ 336939 h 583163"/>
+            <a:gd name="connsiteX10" fmla="*/ 38878 w 1917960"/>
+            <a:gd name="connsiteY10" fmla="*/ 285102 h 583163"/>
+            <a:gd name="connsiteX11" fmla="*/ 64796 w 1917960"/>
+            <a:gd name="connsiteY11" fmla="*/ 246224 h 583163"/>
+            <a:gd name="connsiteX12" fmla="*/ 77756 w 1917960"/>
+            <a:gd name="connsiteY12" fmla="*/ 207347 h 583163"/>
+            <a:gd name="connsiteX13" fmla="*/ 129592 w 1917960"/>
+            <a:gd name="connsiteY13" fmla="*/ 116633 h 583163"/>
+            <a:gd name="connsiteX14" fmla="*/ 194388 w 1917960"/>
+            <a:gd name="connsiteY14" fmla="*/ 51837 h 583163"/>
+            <a:gd name="connsiteX15" fmla="*/ 285103 w 1917960"/>
+            <a:gd name="connsiteY15" fmla="*/ 0 h 583163"/>
+            <a:gd name="connsiteX16" fmla="*/ 401735 w 1917960"/>
+            <a:gd name="connsiteY16" fmla="*/ 12959 h 583163"/>
+            <a:gd name="connsiteX17" fmla="*/ 414694 w 1917960"/>
+            <a:gd name="connsiteY17" fmla="*/ 77755 h 583163"/>
+            <a:gd name="connsiteX18" fmla="*/ 375817 w 1917960"/>
+            <a:gd name="connsiteY18" fmla="*/ 90714 h 583163"/>
+            <a:gd name="connsiteX19" fmla="*/ 336939 w 1917960"/>
+            <a:gd name="connsiteY19" fmla="*/ 116633 h 583163"/>
+            <a:gd name="connsiteX20" fmla="*/ 259184 w 1917960"/>
+            <a:gd name="connsiteY20" fmla="*/ 142551 h 583163"/>
+            <a:gd name="connsiteX21" fmla="*/ 181429 w 1917960"/>
+            <a:gd name="connsiteY21" fmla="*/ 168469 h 583163"/>
+            <a:gd name="connsiteX22" fmla="*/ 142552 w 1917960"/>
+            <a:gd name="connsiteY22" fmla="*/ 181428 h 583163"/>
+            <a:gd name="connsiteX23" fmla="*/ 103674 w 1917960"/>
+            <a:gd name="connsiteY23" fmla="*/ 194388 h 583163"/>
+            <a:gd name="connsiteX24" fmla="*/ 272143 w 1917960"/>
+            <a:gd name="connsiteY24" fmla="*/ 233265 h 583163"/>
+            <a:gd name="connsiteX25" fmla="*/ 285103 w 1917960"/>
+            <a:gd name="connsiteY25" fmla="*/ 272143 h 583163"/>
+            <a:gd name="connsiteX26" fmla="*/ 259184 w 1917960"/>
+            <a:gd name="connsiteY26" fmla="*/ 311020 h 583163"/>
+            <a:gd name="connsiteX27" fmla="*/ 181429 w 1917960"/>
+            <a:gd name="connsiteY27" fmla="*/ 349898 h 583163"/>
+            <a:gd name="connsiteX28" fmla="*/ 142552 w 1917960"/>
+            <a:gd name="connsiteY28" fmla="*/ 375816 h 583163"/>
+            <a:gd name="connsiteX29" fmla="*/ 116633 w 1917960"/>
+            <a:gd name="connsiteY29" fmla="*/ 401735 h 583163"/>
+            <a:gd name="connsiteX30" fmla="*/ 129592 w 1917960"/>
+            <a:gd name="connsiteY30" fmla="*/ 362857 h 583163"/>
+            <a:gd name="connsiteX31" fmla="*/ 220307 w 1917960"/>
+            <a:gd name="connsiteY31" fmla="*/ 285102 h 583163"/>
+            <a:gd name="connsiteX32" fmla="*/ 285103 w 1917960"/>
+            <a:gd name="connsiteY32" fmla="*/ 220306 h 583163"/>
+            <a:gd name="connsiteX33" fmla="*/ 414694 w 1917960"/>
+            <a:gd name="connsiteY33" fmla="*/ 233265 h 583163"/>
+            <a:gd name="connsiteX34" fmla="*/ 388776 w 1917960"/>
+            <a:gd name="connsiteY34" fmla="*/ 259184 h 583163"/>
+            <a:gd name="connsiteX35" fmla="*/ 349898 w 1917960"/>
+            <a:gd name="connsiteY35" fmla="*/ 285102 h 583163"/>
+            <a:gd name="connsiteX36" fmla="*/ 272143 w 1917960"/>
+            <a:gd name="connsiteY36" fmla="*/ 336939 h 583163"/>
+            <a:gd name="connsiteX37" fmla="*/ 246225 w 1917960"/>
+            <a:gd name="connsiteY37" fmla="*/ 375816 h 583163"/>
+            <a:gd name="connsiteX38" fmla="*/ 401735 w 1917960"/>
+            <a:gd name="connsiteY38" fmla="*/ 349898 h 583163"/>
+            <a:gd name="connsiteX39" fmla="*/ 427654 w 1917960"/>
+            <a:gd name="connsiteY39" fmla="*/ 272143 h 583163"/>
+            <a:gd name="connsiteX40" fmla="*/ 414694 w 1917960"/>
+            <a:gd name="connsiteY40" fmla="*/ 311020 h 583163"/>
+            <a:gd name="connsiteX41" fmla="*/ 427654 w 1917960"/>
+            <a:gd name="connsiteY41" fmla="*/ 375816 h 583163"/>
+            <a:gd name="connsiteX42" fmla="*/ 466531 w 1917960"/>
+            <a:gd name="connsiteY42" fmla="*/ 388775 h 583163"/>
+            <a:gd name="connsiteX43" fmla="*/ 557245 w 1917960"/>
+            <a:gd name="connsiteY43" fmla="*/ 375816 h 583163"/>
+            <a:gd name="connsiteX44" fmla="*/ 531327 w 1917960"/>
+            <a:gd name="connsiteY44" fmla="*/ 336939 h 583163"/>
+            <a:gd name="connsiteX45" fmla="*/ 505409 w 1917960"/>
+            <a:gd name="connsiteY45" fmla="*/ 259184 h 583163"/>
+            <a:gd name="connsiteX46" fmla="*/ 466531 w 1917960"/>
+            <a:gd name="connsiteY46" fmla="*/ 246224 h 583163"/>
+            <a:gd name="connsiteX47" fmla="*/ 518368 w 1917960"/>
+            <a:gd name="connsiteY47" fmla="*/ 323979 h 583163"/>
+            <a:gd name="connsiteX48" fmla="*/ 531327 w 1917960"/>
+            <a:gd name="connsiteY48" fmla="*/ 362857 h 583163"/>
+            <a:gd name="connsiteX49" fmla="*/ 570205 w 1917960"/>
+            <a:gd name="connsiteY49" fmla="*/ 388775 h 583163"/>
+            <a:gd name="connsiteX50" fmla="*/ 583164 w 1917960"/>
+            <a:gd name="connsiteY50" fmla="*/ 349898 h 583163"/>
+            <a:gd name="connsiteX51" fmla="*/ 596123 w 1917960"/>
+            <a:gd name="connsiteY51" fmla="*/ 298061 h 583163"/>
+            <a:gd name="connsiteX52" fmla="*/ 622041 w 1917960"/>
+            <a:gd name="connsiteY52" fmla="*/ 259184 h 583163"/>
+            <a:gd name="connsiteX53" fmla="*/ 635000 w 1917960"/>
+            <a:gd name="connsiteY53" fmla="*/ 220306 h 583163"/>
+            <a:gd name="connsiteX54" fmla="*/ 596123 w 1917960"/>
+            <a:gd name="connsiteY54" fmla="*/ 323979 h 583163"/>
+            <a:gd name="connsiteX55" fmla="*/ 570205 w 1917960"/>
+            <a:gd name="connsiteY55" fmla="*/ 401735 h 583163"/>
+            <a:gd name="connsiteX56" fmla="*/ 557245 w 1917960"/>
+            <a:gd name="connsiteY56" fmla="*/ 440612 h 583163"/>
+            <a:gd name="connsiteX57" fmla="*/ 583164 w 1917960"/>
+            <a:gd name="connsiteY57" fmla="*/ 466531 h 583163"/>
+            <a:gd name="connsiteX58" fmla="*/ 635000 w 1917960"/>
+            <a:gd name="connsiteY58" fmla="*/ 388775 h 583163"/>
+            <a:gd name="connsiteX59" fmla="*/ 635000 w 1917960"/>
+            <a:gd name="connsiteY59" fmla="*/ 90714 h 583163"/>
+            <a:gd name="connsiteX60" fmla="*/ 622041 w 1917960"/>
+            <a:gd name="connsiteY60" fmla="*/ 38877 h 583163"/>
+            <a:gd name="connsiteX61" fmla="*/ 635000 w 1917960"/>
+            <a:gd name="connsiteY61" fmla="*/ 142551 h 583163"/>
+            <a:gd name="connsiteX62" fmla="*/ 647960 w 1917960"/>
+            <a:gd name="connsiteY62" fmla="*/ 272143 h 583163"/>
+            <a:gd name="connsiteX63" fmla="*/ 686837 w 1917960"/>
+            <a:gd name="connsiteY63" fmla="*/ 298061 h 583163"/>
+            <a:gd name="connsiteX64" fmla="*/ 777552 w 1917960"/>
+            <a:gd name="connsiteY64" fmla="*/ 181428 h 583163"/>
+            <a:gd name="connsiteX65" fmla="*/ 816429 w 1917960"/>
+            <a:gd name="connsiteY65" fmla="*/ 194388 h 583163"/>
+            <a:gd name="connsiteX66" fmla="*/ 855307 w 1917960"/>
+            <a:gd name="connsiteY66" fmla="*/ 272143 h 583163"/>
+            <a:gd name="connsiteX67" fmla="*/ 881225 w 1917960"/>
+            <a:gd name="connsiteY67" fmla="*/ 233265 h 583163"/>
+            <a:gd name="connsiteX68" fmla="*/ 868266 w 1917960"/>
+            <a:gd name="connsiteY68" fmla="*/ 298061 h 583163"/>
+            <a:gd name="connsiteX69" fmla="*/ 842347 w 1917960"/>
+            <a:gd name="connsiteY69" fmla="*/ 401735 h 583163"/>
+            <a:gd name="connsiteX70" fmla="*/ 829388 w 1917960"/>
+            <a:gd name="connsiteY70" fmla="*/ 440612 h 583163"/>
+            <a:gd name="connsiteX71" fmla="*/ 803470 w 1917960"/>
+            <a:gd name="connsiteY71" fmla="*/ 466531 h 583163"/>
+            <a:gd name="connsiteX72" fmla="*/ 790511 w 1917960"/>
+            <a:gd name="connsiteY72" fmla="*/ 505408 h 583163"/>
+            <a:gd name="connsiteX73" fmla="*/ 738674 w 1917960"/>
+            <a:gd name="connsiteY73" fmla="*/ 583163 h 583163"/>
+            <a:gd name="connsiteX74" fmla="*/ 699796 w 1917960"/>
+            <a:gd name="connsiteY74" fmla="*/ 570204 h 583163"/>
+            <a:gd name="connsiteX75" fmla="*/ 699796 w 1917960"/>
+            <a:gd name="connsiteY75" fmla="*/ 440612 h 583163"/>
+            <a:gd name="connsiteX76" fmla="*/ 764592 w 1917960"/>
+            <a:gd name="connsiteY76" fmla="*/ 388775 h 583163"/>
+            <a:gd name="connsiteX77" fmla="*/ 842347 w 1917960"/>
+            <a:gd name="connsiteY77" fmla="*/ 362857 h 583163"/>
+            <a:gd name="connsiteX78" fmla="*/ 907143 w 1917960"/>
+            <a:gd name="connsiteY78" fmla="*/ 323979 h 583163"/>
+            <a:gd name="connsiteX79" fmla="*/ 933062 w 1917960"/>
+            <a:gd name="connsiteY79" fmla="*/ 298061 h 583163"/>
+            <a:gd name="connsiteX80" fmla="*/ 997858 w 1917960"/>
+            <a:gd name="connsiteY80" fmla="*/ 246224 h 583163"/>
+            <a:gd name="connsiteX81" fmla="*/ 1023776 w 1917960"/>
+            <a:gd name="connsiteY81" fmla="*/ 25918 h 583163"/>
+            <a:gd name="connsiteX82" fmla="*/ 1010817 w 1917960"/>
+            <a:gd name="connsiteY82" fmla="*/ 77755 h 583163"/>
+            <a:gd name="connsiteX83" fmla="*/ 997858 w 1917960"/>
+            <a:gd name="connsiteY83" fmla="*/ 116633 h 583163"/>
+            <a:gd name="connsiteX84" fmla="*/ 984898 w 1917960"/>
+            <a:gd name="connsiteY84" fmla="*/ 168469 h 583163"/>
+            <a:gd name="connsiteX85" fmla="*/ 958980 w 1917960"/>
+            <a:gd name="connsiteY85" fmla="*/ 246224 h 583163"/>
+            <a:gd name="connsiteX86" fmla="*/ 920103 w 1917960"/>
+            <a:gd name="connsiteY86" fmla="*/ 362857 h 583163"/>
+            <a:gd name="connsiteX87" fmla="*/ 907143 w 1917960"/>
+            <a:gd name="connsiteY87" fmla="*/ 401735 h 583163"/>
+            <a:gd name="connsiteX88" fmla="*/ 894184 w 1917960"/>
+            <a:gd name="connsiteY88" fmla="*/ 440612 h 583163"/>
+            <a:gd name="connsiteX89" fmla="*/ 933062 w 1917960"/>
+            <a:gd name="connsiteY89" fmla="*/ 349898 h 583163"/>
+            <a:gd name="connsiteX90" fmla="*/ 946021 w 1917960"/>
+            <a:gd name="connsiteY90" fmla="*/ 311020 h 583163"/>
+            <a:gd name="connsiteX91" fmla="*/ 971939 w 1917960"/>
+            <a:gd name="connsiteY91" fmla="*/ 272143 h 583163"/>
+            <a:gd name="connsiteX92" fmla="*/ 997858 w 1917960"/>
+            <a:gd name="connsiteY92" fmla="*/ 194388 h 583163"/>
+            <a:gd name="connsiteX93" fmla="*/ 1010817 w 1917960"/>
+            <a:gd name="connsiteY93" fmla="*/ 220306 h 583163"/>
+            <a:gd name="connsiteX94" fmla="*/ 997858 w 1917960"/>
+            <a:gd name="connsiteY94" fmla="*/ 259184 h 583163"/>
+            <a:gd name="connsiteX95" fmla="*/ 1036735 w 1917960"/>
+            <a:gd name="connsiteY95" fmla="*/ 272143 h 583163"/>
+            <a:gd name="connsiteX96" fmla="*/ 1062654 w 1917960"/>
+            <a:gd name="connsiteY96" fmla="*/ 298061 h 583163"/>
+            <a:gd name="connsiteX97" fmla="*/ 1127449 w 1917960"/>
+            <a:gd name="connsiteY97" fmla="*/ 349898 h 583163"/>
+            <a:gd name="connsiteX98" fmla="*/ 1140409 w 1917960"/>
+            <a:gd name="connsiteY98" fmla="*/ 388775 h 583163"/>
+            <a:gd name="connsiteX99" fmla="*/ 1179286 w 1917960"/>
+            <a:gd name="connsiteY99" fmla="*/ 362857 h 583163"/>
+            <a:gd name="connsiteX100" fmla="*/ 1308878 w 1917960"/>
+            <a:gd name="connsiteY100" fmla="*/ 259184 h 583163"/>
+            <a:gd name="connsiteX101" fmla="*/ 1347756 w 1917960"/>
+            <a:gd name="connsiteY101" fmla="*/ 233265 h 583163"/>
+            <a:gd name="connsiteX102" fmla="*/ 1373674 w 1917960"/>
+            <a:gd name="connsiteY102" fmla="*/ 272143 h 583163"/>
+            <a:gd name="connsiteX103" fmla="*/ 1399592 w 1917960"/>
+            <a:gd name="connsiteY103" fmla="*/ 362857 h 583163"/>
+            <a:gd name="connsiteX104" fmla="*/ 1425511 w 1917960"/>
+            <a:gd name="connsiteY104" fmla="*/ 388775 h 583163"/>
+            <a:gd name="connsiteX105" fmla="*/ 1529184 w 1917960"/>
+            <a:gd name="connsiteY105" fmla="*/ 375816 h 583163"/>
+            <a:gd name="connsiteX106" fmla="*/ 1658776 w 1917960"/>
+            <a:gd name="connsiteY106" fmla="*/ 336939 h 583163"/>
+            <a:gd name="connsiteX107" fmla="*/ 1917960 w 1917960"/>
+            <a:gd name="connsiteY107" fmla="*/ 336939 h 583163"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX20" y="connsiteY20"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX21" y="connsiteY21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX22" y="connsiteY22"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX23" y="connsiteY23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX24" y="connsiteY24"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX25" y="connsiteY25"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX26" y="connsiteY26"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX27" y="connsiteY27"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX28" y="connsiteY28"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX29" y="connsiteY29"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX30" y="connsiteY30"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX31" y="connsiteY31"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX32" y="connsiteY32"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX33" y="connsiteY33"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX34" y="connsiteY34"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX35" y="connsiteY35"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX36" y="connsiteY36"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX37" y="connsiteY37"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX38" y="connsiteY38"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX39" y="connsiteY39"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX40" y="connsiteY40"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX41" y="connsiteY41"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX42" y="connsiteY42"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX43" y="connsiteY43"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX44" y="connsiteY44"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX45" y="connsiteY45"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX46" y="connsiteY46"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX47" y="connsiteY47"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX48" y="connsiteY48"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX49" y="connsiteY49"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX50" y="connsiteY50"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX51" y="connsiteY51"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX52" y="connsiteY52"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX53" y="connsiteY53"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX54" y="connsiteY54"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX55" y="connsiteY55"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX56" y="connsiteY56"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX57" y="connsiteY57"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX58" y="connsiteY58"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX59" y="connsiteY59"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX60" y="connsiteY60"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX61" y="connsiteY61"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX62" y="connsiteY62"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX63" y="connsiteY63"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX64" y="connsiteY64"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX65" y="connsiteY65"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX66" y="connsiteY66"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX67" y="connsiteY67"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX68" y="connsiteY68"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX69" y="connsiteY69"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX70" y="connsiteY70"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX71" y="connsiteY71"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX72" y="connsiteY72"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX73" y="connsiteY73"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX74" y="connsiteY74"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX75" y="connsiteY75"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX76" y="connsiteY76"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX77" y="connsiteY77"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX78" y="connsiteY78"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX79" y="connsiteY79"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX80" y="connsiteY80"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX81" y="connsiteY81"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX82" y="connsiteY82"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX83" y="connsiteY83"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX84" y="connsiteY84"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX85" y="connsiteY85"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX86" y="connsiteY86"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX87" y="connsiteY87"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX88" y="connsiteY88"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX89" y="connsiteY89"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX90" y="connsiteY90"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX91" y="connsiteY91"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX92" y="connsiteY92"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX93" y="connsiteY93"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX94" y="connsiteY94"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX95" y="connsiteY95"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX96" y="connsiteY96"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX97" y="connsiteY97"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX98" y="connsiteY98"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX99" y="connsiteY99"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX100" y="connsiteY100"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX101" y="connsiteY101"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX102" y="connsiteY102"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX103" y="connsiteY103"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX104" y="connsiteY104"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX105" y="connsiteY105"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX106" y="connsiteY106"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX107" y="connsiteY107"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="1917960" h="583163">
+              <a:moveTo>
+                <a:pt x="0" y="12959"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="21599" y="17279"/>
+                <a:pt x="42991" y="22803"/>
+                <a:pt x="64796" y="25918"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="103520" y="31450"/>
+                <a:pt x="153769" y="11217"/>
+                <a:pt x="181429" y="38877"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="129592" y="90714"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="82335" y="232489"/>
+                <a:pt x="157700" y="17754"/>
+                <a:pt x="90715" y="168469"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="79619" y="193435"/>
+                <a:pt x="73436" y="220306"/>
+                <a:pt x="64796" y="246224"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="60476" y="259183"/>
+                <a:pt x="55150" y="271850"/>
+                <a:pt x="51837" y="285102"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="47685" y="301711"/>
+                <a:pt x="35215" y="357225"/>
+                <a:pt x="25919" y="375816"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="18953" y="389747"/>
+                <a:pt x="0" y="430269"/>
+                <a:pt x="0" y="414694"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="387374"/>
+                <a:pt x="19293" y="363444"/>
+                <a:pt x="25919" y="336939"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="30239" y="319660"/>
+                <a:pt x="31862" y="301473"/>
+                <a:pt x="38878" y="285102"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="45013" y="270786"/>
+                <a:pt x="57831" y="260155"/>
+                <a:pt x="64796" y="246224"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="70905" y="234006"/>
+                <a:pt x="72375" y="219903"/>
+                <a:pt x="77756" y="207347"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="87801" y="183908"/>
+                <a:pt x="111370" y="137458"/>
+                <a:pt x="129592" y="116633"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="149706" y="93645"/>
+                <a:pt x="167068" y="65497"/>
+                <a:pt x="194388" y="51837"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="260156" y="18953"/>
+                <a:pt x="230151" y="36634"/>
+                <a:pt x="285103" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="323980" y="4320"/>
+                <a:pt x="363997" y="2667"/>
+                <a:pt x="401735" y="12959"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="433999" y="21758"/>
+                <a:pt x="435224" y="57225"/>
+                <a:pt x="414694" y="77755"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="405035" y="87414"/>
+                <a:pt x="388776" y="86394"/>
+                <a:pt x="375817" y="90714"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="362858" y="99354"/>
+                <a:pt x="351172" y="110307"/>
+                <a:pt x="336939" y="116633"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="311973" y="127729"/>
+                <a:pt x="285102" y="133912"/>
+                <a:pt x="259184" y="142551"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="181429" y="168469"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="142552" y="181428"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="103674" y="194388"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="142725" y="198293"/>
+                <a:pt x="235187" y="187070"/>
+                <a:pt x="272143" y="233265"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="280677" y="243932"/>
+                <a:pt x="280783" y="259184"/>
+                <a:pt x="285103" y="272143"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="276463" y="285102"/>
+                <a:pt x="270197" y="300007"/>
+                <a:pt x="259184" y="311020"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="234060" y="336144"/>
+                <a:pt x="213052" y="339357"/>
+                <a:pt x="181429" y="349898"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="168470" y="358537"/>
+                <a:pt x="154714" y="366086"/>
+                <a:pt x="142552" y="375816"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="133011" y="383449"/>
+                <a:pt x="125273" y="410374"/>
+                <a:pt x="116633" y="401735"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="106973" y="392076"/>
+                <a:pt x="121652" y="373973"/>
+                <a:pt x="129592" y="362857"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="181421" y="290296"/>
+                <a:pt x="168121" y="330764"/>
+                <a:pt x="220307" y="285102"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="243295" y="264988"/>
+                <a:pt x="285103" y="220306"/>
+                <a:pt x="285103" y="220306"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="328300" y="224626"/>
+                <a:pt x="374046" y="218022"/>
+                <a:pt x="414694" y="233265"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="426134" y="237555"/>
+                <a:pt x="398317" y="251551"/>
+                <a:pt x="388776" y="259184"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="376614" y="268914"/>
+                <a:pt x="361863" y="275131"/>
+                <a:pt x="349898" y="285102"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="285181" y="339032"/>
+                <a:pt x="340468" y="314163"/>
+                <a:pt x="272143" y="336939"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="263504" y="349898"/>
+                <a:pt x="231249" y="371537"/>
+                <a:pt x="246225" y="375816"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="292968" y="389171"/>
+                <a:pt x="354896" y="365511"/>
+                <a:pt x="401735" y="349898"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="427654" y="272143"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="414694" y="311020"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="419014" y="332619"/>
+                <a:pt x="415436" y="357489"/>
+                <a:pt x="427654" y="375816"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="435231" y="387182"/>
+                <a:pt x="452871" y="388775"/>
+                <a:pt x="466531" y="388775"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="497076" y="388775"/>
+                <a:pt x="527007" y="380136"/>
+                <a:pt x="557245" y="375816"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="548606" y="362857"/>
+                <a:pt x="537652" y="351171"/>
+                <a:pt x="531327" y="336939"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="520231" y="311973"/>
+                <a:pt x="531327" y="267824"/>
+                <a:pt x="505409" y="259184"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="466531" y="246224"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="483810" y="272142"/>
+                <a:pt x="508518" y="294427"/>
+                <a:pt x="518368" y="323979"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="522688" y="336938"/>
+                <a:pt x="522793" y="352190"/>
+                <a:pt x="531327" y="362857"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="541057" y="375019"/>
+                <a:pt x="557246" y="380136"/>
+                <a:pt x="570205" y="388775"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="574525" y="375816"/>
+                <a:pt x="579411" y="363032"/>
+                <a:pt x="583164" y="349898"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="588057" y="332773"/>
+                <a:pt x="589107" y="314432"/>
+                <a:pt x="596123" y="298061"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="602258" y="283745"/>
+                <a:pt x="613402" y="272143"/>
+                <a:pt x="622041" y="259184"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="626361" y="246225"/>
+                <a:pt x="635000" y="206646"/>
+                <a:pt x="635000" y="220306"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="635000" y="262394"/>
+                <a:pt x="610869" y="287114"/>
+                <a:pt x="596123" y="323979"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="585977" y="349346"/>
+                <a:pt x="578845" y="375816"/>
+                <a:pt x="570205" y="401735"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="557245" y="440612"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="565885" y="449252"/>
+                <a:pt x="570946" y="466531"/>
+                <a:pt x="583164" y="466531"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="602953" y="466531"/>
+                <a:pt x="634908" y="388960"/>
+                <a:pt x="635000" y="388775"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="661479" y="256390"/>
+                <a:pt x="655386" y="314953"/>
+                <a:pt x="635000" y="90714"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="633387" y="72976"/>
+                <a:pt x="622041" y="38877"/>
+                <a:pt x="622041" y="38877"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="626361" y="73435"/>
+                <a:pt x="631154" y="107937"/>
+                <a:pt x="635000" y="142551"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="639794" y="185698"/>
+                <a:pt x="634232" y="230958"/>
+                <a:pt x="647960" y="272143"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="652885" y="286919"/>
+                <a:pt x="673878" y="289422"/>
+                <a:pt x="686837" y="298061"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="748840" y="205057"/>
+                <a:pt x="716648" y="242332"/>
+                <a:pt x="777552" y="181428"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="790511" y="185748"/>
+                <a:pt x="805762" y="185855"/>
+                <a:pt x="816429" y="194388"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="839266" y="212658"/>
+                <a:pt x="846770" y="246533"/>
+                <a:pt x="855307" y="272143"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="863946" y="259184"/>
+                <a:pt x="874260" y="219334"/>
+                <a:pt x="881225" y="233265"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="891076" y="252966"/>
+                <a:pt x="873219" y="276599"/>
+                <a:pt x="868266" y="298061"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="860256" y="332770"/>
+                <a:pt x="853612" y="367941"/>
+                <a:pt x="842347" y="401735"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="838027" y="414694"/>
+                <a:pt x="836416" y="428899"/>
+                <a:pt x="829388" y="440612"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="823102" y="451089"/>
+                <a:pt x="812109" y="457891"/>
+                <a:pt x="803470" y="466531"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="799150" y="479490"/>
+                <a:pt x="797145" y="493467"/>
+                <a:pt x="790511" y="505408"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="775383" y="532638"/>
+                <a:pt x="738674" y="583163"/>
+                <a:pt x="738674" y="583163"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="725715" y="578843"/>
+                <a:pt x="709455" y="579863"/>
+                <a:pt x="699796" y="570204"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="672528" y="542936"/>
+                <a:pt x="695302" y="454093"/>
+                <a:pt x="699796" y="440612"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="704478" y="426565"/>
+                <a:pt x="756659" y="392301"/>
+                <a:pt x="764592" y="388775"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="789558" y="377679"/>
+                <a:pt x="842347" y="362857"/>
+                <a:pt x="842347" y="362857"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="908020" y="297186"/>
+                <a:pt x="823028" y="374448"/>
+                <a:pt x="907143" y="323979"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="917620" y="317693"/>
+                <a:pt x="923521" y="305694"/>
+                <a:pt x="933062" y="298061"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1014796" y="232675"/>
+                <a:pt x="935280" y="308802"/>
+                <a:pt x="997858" y="246224"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1010214" y="172086"/>
+                <a:pt x="1023776" y="102609"/>
+                <a:pt x="1023776" y="25918"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1023776" y="8107"/>
+                <a:pt x="1015710" y="60629"/>
+                <a:pt x="1010817" y="77755"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1007064" y="90890"/>
+                <a:pt x="1001611" y="103498"/>
+                <a:pt x="997858" y="116633"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="992965" y="133758"/>
+                <a:pt x="990016" y="151410"/>
+                <a:pt x="984898" y="168469"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="977047" y="194637"/>
+                <a:pt x="967619" y="220306"/>
+                <a:pt x="958980" y="246224"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="920103" y="362857"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="907143" y="401735"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="902823" y="414694"/>
+                <a:pt x="890871" y="453864"/>
+                <a:pt x="894184" y="440612"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="910920" y="373665"/>
+                <a:pt x="897263" y="403594"/>
+                <a:pt x="933062" y="349898"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="937382" y="336939"/>
+                <a:pt x="939912" y="323238"/>
+                <a:pt x="946021" y="311020"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="952986" y="297089"/>
+                <a:pt x="965613" y="286375"/>
+                <a:pt x="971939" y="272143"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="983035" y="247177"/>
+                <a:pt x="982704" y="217120"/>
+                <a:pt x="997858" y="194388"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1031465" y="143977"/>
+                <a:pt x="1033236" y="130629"/>
+                <a:pt x="1010817" y="220306"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1007504" y="233558"/>
+                <a:pt x="1002178" y="246225"/>
+                <a:pt x="997858" y="259184"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1010817" y="263504"/>
+                <a:pt x="1025022" y="265115"/>
+                <a:pt x="1036735" y="272143"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1047212" y="278429"/>
+                <a:pt x="1053113" y="290428"/>
+                <a:pt x="1062654" y="298061"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1144381" y="363442"/>
+                <a:pt x="1064878" y="287325"/>
+                <a:pt x="1127449" y="349898"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1131769" y="362857"/>
+                <a:pt x="1127157" y="385462"/>
+                <a:pt x="1140409" y="388775"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1155519" y="392552"/>
+                <a:pt x="1167461" y="372993"/>
+                <a:pt x="1179286" y="362857"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1308547" y="252062"/>
+                <a:pt x="1140173" y="371654"/>
+                <a:pt x="1308878" y="259184"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1347756" y="233265"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1356395" y="246224"/>
+                <a:pt x="1367539" y="257827"/>
+                <a:pt x="1373674" y="272143"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1382144" y="291908"/>
+                <a:pt x="1386985" y="341845"/>
+                <a:pt x="1399592" y="362857"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1405878" y="373334"/>
+                <a:pt x="1416871" y="380136"/>
+                <a:pt x="1425511" y="388775"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1460069" y="384455"/>
+                <a:pt x="1495130" y="383113"/>
+                <a:pt x="1529184" y="375816"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1544082" y="372624"/>
+                <a:pt x="1632428" y="338037"/>
+                <a:pt x="1658776" y="336939"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1745096" y="333342"/>
+                <a:pt x="1831565" y="336939"/>
+                <a:pt x="1917960" y="336939"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K9" totalsRowShown="0" headerRowDxfId="922" dataDxfId="921">
   <autoFilter ref="A1:K9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
@@ -18087,9 +19221,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="13" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -18803,7 +19937,7 @@
       <c r="G30" s="29"/>
       <c r="H30" s="31">
         <f>(C21+C29+C37+H21+H29)-C13</f>
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="I30" s="31">
         <f>D21+D29+D37+I21+I29</f>
@@ -18825,7 +19959,9 @@
       <c r="B31" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="135"/>
+      <c r="C31" s="135">
+        <v>2.5</v>
+      </c>
       <c r="D31" s="136"/>
       <c r="E31" s="30"/>
       <c r="F31" s="200" t="s">
@@ -18850,7 +19986,9 @@
       <c r="B32" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="135"/>
+      <c r="C32" s="135">
+        <v>1</v>
+      </c>
       <c r="D32" s="136"/>
       <c r="E32" s="30"/>
       <c r="F32" s="203"/>
@@ -18873,7 +20011,9 @@
       <c r="B33" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="135"/>
+      <c r="C33" s="135">
+        <v>1</v>
+      </c>
       <c r="D33" s="136"/>
       <c r="E33" s="30"/>
       <c r="F33" s="203"/>
@@ -18964,7 +20104,7 @@
       <c r="B37" s="149"/>
       <c r="C37" s="142">
         <f>SUM(C30:C36)</f>
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="D37" s="142">
         <f>IF(C37&gt;40,C37-40,0)</f>
@@ -19406,7 +20546,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -19626,7 +20766,7 @@
       <c r="B13" s="209"/>
       <c r="C13" s="154">
         <f>'Jan 23, 2020 - Feb 5, 2020'!$C$37</f>
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="D13" s="154"/>
       <c r="E13" s="155"/>
@@ -19758,7 +20898,9 @@
       <c r="B18" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="135"/>
+      <c r="C18" s="135">
+        <v>4</v>
+      </c>
       <c r="D18" s="136"/>
       <c r="E18" s="131"/>
       <c r="F18" s="26" t="b">
@@ -19814,7 +20956,9 @@
       <c r="B20" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="138"/>
+      <c r="C20" s="138">
+        <v>0.5</v>
+      </c>
       <c r="D20" s="139"/>
       <c r="E20" s="131"/>
       <c r="F20" s="27" t="b">
@@ -19841,7 +20985,7 @@
       <c r="B21" s="141"/>
       <c r="C21" s="142">
         <f>SUM(C13:C20)</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D21" s="142">
         <f>IF(C21&gt;40,C21-40,0)</f>
@@ -19930,7 +21074,9 @@
       <c r="B24" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="135"/>
+      <c r="C24" s="135">
+        <v>2</v>
+      </c>
       <c r="D24" s="136"/>
       <c r="E24" s="131"/>
       <c r="F24" s="26" t="b">
@@ -19958,7 +21104,9 @@
       <c r="B25" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="135"/>
+      <c r="C25" s="135">
+        <v>1</v>
+      </c>
       <c r="D25" s="136"/>
       <c r="E25" s="131"/>
       <c r="F25" s="26" t="b">
@@ -19986,7 +21134,9 @@
       <c r="B26" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="135"/>
+      <c r="C26" s="174">
+        <v>2</v>
+      </c>
       <c r="D26" s="136"/>
       <c r="E26" s="131"/>
       <c r="F26" s="26" t="b">
@@ -20069,7 +21219,7 @@
       <c r="B29" s="141"/>
       <c r="C29" s="142">
         <f>SUM(C22:C28)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D29" s="142">
         <f>IF(C29&gt;40,C29-40,0)</f>
@@ -20110,7 +21260,7 @@
       <c r="G30" s="149"/>
       <c r="H30" s="142">
         <f>(C21+C29+C37+H21+H29)-C13</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="I30" s="142">
         <f>D21+D29+D37+I21+I29</f>
@@ -20704,6 +21854,7 @@
   <headerFooter>
     <oddFooter>&amp;RMay-2018</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -20712,7 +21863,7 @@
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="13" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -23557,8 +24708,8 @@
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <pane ySplit="13" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -24110,7 +25261,9 @@
       <c r="B25" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="135"/>
+      <c r="C25" s="135">
+        <v>2</v>
+      </c>
       <c r="D25" s="136"/>
       <c r="E25" s="131"/>
       <c r="F25" s="26" t="b">
@@ -24221,7 +25374,7 @@
       <c r="B29" s="141"/>
       <c r="C29" s="142">
         <f>SUM(C22:C28)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D29" s="142">
         <f>IF(C29&gt;40,C29-40,0)</f>
@@ -24262,7 +25415,7 @@
       <c r="G30" s="149"/>
       <c r="H30" s="142">
         <f>(C21+C29+C37+H21+H29)-C13</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" s="142">
         <f>D21+D29+D37+I21+I29</f>
@@ -24863,9 +26016,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -25189,7 +26342,9 @@
       <c r="B17" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="170"/>
+      <c r="C17" s="170">
+        <v>2.25</v>
+      </c>
       <c r="D17" s="136"/>
       <c r="E17" s="131"/>
       <c r="F17" s="26" t="b">
@@ -25300,7 +26455,7 @@
       <c r="B21" s="141"/>
       <c r="C21" s="142">
         <f>SUM(C13:C20)</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="D21" s="142">
         <f>IF(C21&gt;40,C21-40,0)</f>
@@ -25569,7 +26724,7 @@
       <c r="G30" s="29"/>
       <c r="H30" s="31">
         <f>(C21+C29+C37+H21+H29)-C13</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="I30" s="31">
         <f>D21+D29+D37+I21+I29</f>

--- a/TimeReport-SW-FY190-RB Kruse.xlsx
+++ b/TimeReport-SW-FY190-RB Kruse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/Research/Dr. Bethel/ROSResearch2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8346582C-33F6-6444-B92D-893E230C4BA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD66B0E-2C73-2A41-9234-8F3A49B07B29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" firstSheet="16" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1814,22 +1814,6 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1904,6 +1888,22 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -10079,30 +10079,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -10116,50 +10116,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -10175,12 +10175,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$15</f>
         <v>43742</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -10201,12 +10201,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$15</f>
         <v>43760</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -10223,12 +10223,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$15</f>
         <v>20</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -10959,13 +10959,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5">
@@ -10977,19 +10977,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -11021,19 +11021,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -11138,13 +11138,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="uDfPmr05QaRHc/lKQBu+sCDEq8l9gmbXs+mDIVYrjMbYdiANiTZup5p1OYd/eKZ8QEieuycJNLsen0Bcl4ffYA==" saltValue="nukzhvoHeCxP4JigkPz7tQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -11155,6 +11148,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="645" priority="34" operator="equal">
@@ -11386,30 +11386,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -11423,50 +11423,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -11482,12 +11482,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$17</f>
         <v>43761</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -11508,12 +11508,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$17</f>
         <v>43775</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -11530,12 +11530,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$17</f>
         <v>21</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -12266,13 +12266,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -12284,19 +12284,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -12328,19 +12328,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -12445,13 +12445,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="/sMdwuAGJN7SPGgNL0ziXu1Q8XeCInhE3i/9un0d99aP6RkY4rOhwZD2naCjZIQwbL3LTnlL+uAmHX7F6ZJ8TA==" saltValue="yi38ohwCODSad6eDmoaQlA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -12462,6 +12455,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="607" priority="34" operator="equal">
@@ -12693,30 +12693,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -12730,50 +12730,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -12789,12 +12789,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$18</f>
         <v>43776</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -12815,12 +12815,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$18</f>
         <v>43787</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -12837,12 +12837,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$18</f>
         <v>22</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -13573,13 +13573,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -13591,19 +13591,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -13635,19 +13635,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -13752,13 +13752,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="b1YDq75ljJ5B6o2TZ6cSpp71QV/8+wGo6uHySvsgApnCkDdlHU/izp0MAt9NoMMvlwJo7O/oEfqC3sSbh8J6lw==" saltValue="YEpRtlZipUUsNS0a5ZzSmA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -13769,6 +13762,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="569" priority="34" operator="equal">
@@ -14000,30 +14000,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -14037,50 +14037,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -14096,12 +14096,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$20</f>
         <v>43788</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -14122,12 +14122,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$20</f>
         <v>43802</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14144,12 +14144,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$20</f>
         <v>23</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -14886,13 +14886,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -14904,19 +14904,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -14948,19 +14948,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -15065,13 +15065,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="3Z6eW+z3pw+vQCjBKIuoJGAKNBF8XRIGiABYepWnM715kNUB3NHASvVak4ysCm50L8slsFsG4INB1JxJk1vfog==" saltValue="pMUvIumHrWxgi1YvQBev+A==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -15082,6 +15075,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="531" priority="34" operator="equal">
@@ -15314,30 +15314,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -15351,50 +15351,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -15410,12 +15410,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$21</f>
         <v>43803</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -15436,12 +15436,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$21</f>
         <v>43808</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15458,12 +15458,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$21</f>
         <v>24</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -16194,13 +16194,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -16212,19 +16212,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -16256,19 +16256,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -16373,13 +16373,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="5S8pPa3Rbz2Tnuz4VwlCPO3sWLEC0cZqbv88WApxMyRXWZSiEaO48moEPWK1AYz8vDZoh0RBe0+ZiOm3A9sbvQ==" saltValue="x9JfbylXq6vDZEk+GDoBZQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -16390,6 +16383,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="493" priority="34" operator="equal">
@@ -16621,30 +16621,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -16658,50 +16658,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -16717,12 +16717,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$23</f>
         <v>43809</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -16743,12 +16743,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$23</f>
         <v>43836</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -16765,12 +16765,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$23</f>
         <v>1</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -17501,13 +17501,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5">
@@ -17519,19 +17519,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -17563,19 +17563,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5">
         <f t="shared" si="8"/>
         <v>43832</v>
@@ -17680,13 +17680,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="axvo6Tg8DSfMEUeJCS4l6Pyz11MbJ+p1QagU8xCdQw5fg5SdhFbZ4fHrgdrUPqyusByHsIezxMFf3tPpcDkjfg==" saltValue="5iujVD2EGR97WF/z8x9VBQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -17697,6 +17690,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="455" priority="34" operator="equal">
@@ -17928,30 +17928,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -17965,50 +17965,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -18024,12 +18024,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$24</f>
         <v>43837</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -18050,12 +18050,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$24</f>
         <v>43852</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -18072,12 +18072,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$24</f>
         <v>2</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -18816,13 +18816,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -18834,19 +18834,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -18878,19 +18878,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -18995,13 +18995,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="xkKCxjW7MCiMvjPrg31YBXUU+osmUVj0krXN90eD/T6hHoNPrXDNIpHb23E9yJP7hKDOQAn0YvOoTrRvBongqA==" saltValue="c75NYpkdlYU8+gsM0zCRNA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -19012,6 +19005,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="417" priority="34" operator="equal">
@@ -19243,30 +19243,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -19280,50 +19280,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -19339,12 +19339,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$26</f>
         <v>43853</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -19365,12 +19365,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$26</f>
         <v>43866</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -19387,12 +19387,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$26</f>
         <v>3</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -20139,13 +20139,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -20157,19 +20157,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -20201,19 +20201,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -20318,13 +20318,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ZcNZSxFLwvB3uJEog6sE8eX/p3zfr3mUKYcu6v8ZRrn2g9ZL8xsmH+kakoe8C1JkjePqf4XCT340Bl8b/ztlAA==" saltValue="jXF2oECus8nAaH9pzX9SUQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -20335,6 +20328,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="379" priority="34" operator="equal">
@@ -20566,30 +20566,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -20603,50 +20603,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -20662,12 +20662,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$27</f>
         <v>43867</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -20688,12 +20688,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$27</f>
         <v>43880</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -20710,12 +20710,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$27</f>
         <v>4</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -21456,13 +21456,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -21474,19 +21474,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -21518,19 +21518,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -21635,13 +21635,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="EzGaIiT0OCXSKPs9rTkp1ftITDSfrkhQUzI0bmma8+dV1URCCocs7OTxcxmqNKHwjvPJWVuLqU8TSqt28dUcNg==" saltValue="PXH+58hkNDKJly1D/0pVmQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -21652,6 +21645,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="341" priority="34" operator="equal">
@@ -21884,30 +21884,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -21921,50 +21921,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -21980,12 +21980,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$29</f>
         <v>43881</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -22006,12 +22006,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$29</f>
         <v>43894</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -22028,12 +22028,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$29</f>
         <v>5</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -22764,13 +22764,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -22782,19 +22782,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -22826,19 +22826,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -22943,13 +22943,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="a1OZcyflEvX/Gd5N3Q6nZCP9yG0vNF9wTHcqApIWzyQjdXQ/ELOJxnA0CX4clIgGZyMFf1l8c0gBzIMyjZmwmQ==" saltValue="nGZ72lm9LqEz+L7b3oJGkg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -22960,6 +22953,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="303" priority="34" operator="equal">
@@ -23422,30 +23422,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -23459,50 +23459,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -23518,12 +23518,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$30</f>
         <v>43895</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -23544,12 +23544,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$30</f>
         <v>43912</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -23566,12 +23566,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$30</f>
         <v>6</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -24302,13 +24302,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="str">
@@ -24320,19 +24320,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -24364,19 +24364,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -24481,13 +24481,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="V1nc17foZ8+TKkdpHgVLN1BfpxWYRmqD/Ya12wVVHUx78LQZNTNRnriKGjLnjhdnBItbI6SiAkHW9EsltcklJw==" saltValue="wublnwmPYTCrrjYQtLtFvw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -24498,6 +24491,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="265" priority="34" operator="equal">
@@ -24729,30 +24729,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -24766,50 +24766,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -24825,12 +24825,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$32</f>
         <v>43913</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -24851,12 +24851,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$32</f>
         <v>43926</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -24873,12 +24873,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$32</f>
         <v>7</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -25611,13 +25611,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -25629,19 +25629,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -25673,19 +25673,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -25790,13 +25790,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Kg6B3wMpyHtE3AG2+ZhM4iVpdSxDw+pCBdNIb+Wo6Ts+QON2d+uS2cM4EGU7doxlj/v6sQZRCLDJacYEHRTCWg==" saltValue="TqyyoN4EUigEJJATe2teew==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -25807,6 +25800,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="227" priority="34" operator="equal">
@@ -26017,8 +26017,8 @@
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <pane ySplit="13" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -26038,30 +26038,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -26075,50 +26075,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -26134,12 +26134,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$33</f>
         <v>43927</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -26160,12 +26160,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$33</f>
         <v>43942</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -26182,12 +26182,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$33</f>
         <v>8</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -26343,7 +26343,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="170">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="D17" s="136"/>
       <c r="E17" s="131"/>
@@ -26428,7 +26428,9 @@
       <c r="B20" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="138"/>
+      <c r="C20" s="138">
+        <v>1</v>
+      </c>
       <c r="D20" s="139"/>
       <c r="E20" s="131"/>
       <c r="F20" s="27" t="b">
@@ -26455,7 +26457,7 @@
       <c r="B21" s="141"/>
       <c r="C21" s="142">
         <f>SUM(C13:C20)</f>
-        <v>2.25</v>
+        <v>4.25</v>
       </c>
       <c r="D21" s="142">
         <f>IF(C21&gt;40,C21-40,0)</f>
@@ -26544,7 +26546,9 @@
       <c r="B24" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="135"/>
+      <c r="C24" s="135">
+        <v>1</v>
+      </c>
       <c r="D24" s="136"/>
       <c r="E24" s="131"/>
       <c r="F24" s="26" t="b">
@@ -26600,7 +26604,9 @@
       <c r="B26" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="135"/>
+      <c r="C26" s="135">
+        <v>4</v>
+      </c>
       <c r="D26" s="136"/>
       <c r="E26" s="131"/>
       <c r="F26" s="26" t="b">
@@ -26683,7 +26689,7 @@
       <c r="B29" s="141"/>
       <c r="C29" s="142">
         <f>SUM(C22:C28)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D29" s="142">
         <f>IF(C29&gt;40,C29-40,0)</f>
@@ -26724,7 +26730,7 @@
       <c r="G30" s="29"/>
       <c r="H30" s="31">
         <f>(C21+C29+C37+H21+H29)-C13</f>
-        <v>2.25</v>
+        <v>9.25</v>
       </c>
       <c r="I30" s="31">
         <f>D21+D29+D37+I21+I29</f>
@@ -26920,13 +26926,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -26938,19 +26944,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -26982,19 +26988,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -27099,13 +27105,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="pL1llo1icHEYJ3TXDIYTPyJLENO1wV3Eyh/2WXX1MQibsv6eIANEQ6p81eSLf00FXmHTK80ocHiAlfzCSNnobA==" saltValue="xg19KB5Q+BRlyZJ260jfjw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -27116,6 +27115,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="189" priority="34" operator="equal">
@@ -27347,30 +27353,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -27384,50 +27390,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -27443,12 +27449,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$35</f>
         <v>43943</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -27469,12 +27475,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$35</f>
         <v>43957</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -27491,12 +27497,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$35</f>
         <v>9</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -28227,13 +28233,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -28245,19 +28251,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -28289,19 +28295,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -28406,13 +28412,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="cTTzshwCkoAqnh/geSNfKTT36wmZ/VdBuT3vIr+/2YsvbGJ8iBLOCV3uynrPhE8WcWQfprCPh0UKqqYAOdwEwQ==" saltValue="Q4AkvBK7ZSuvi376cVoqHg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -28423,6 +28422,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="151" priority="34" operator="equal">
@@ -28654,30 +28660,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -28691,50 +28697,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -28750,12 +28756,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$36</f>
         <v>43958</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -28776,12 +28782,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$36</f>
         <v>43970</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -28798,12 +28804,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$36</f>
         <v>10</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -29534,13 +29540,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -29552,19 +29558,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -29596,19 +29602,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -29713,13 +29719,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="/V1OKocwyLiiD7voXBGhmM1UK7C7RaZXxwAl2UR0a/g9ofjWI2UH03lweCKWBkoGED//exie+GFqMeUI+uVmzQ==" saltValue="eZQsMcrfzspB3EMk5v6XVA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -29730,6 +29729,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="113" priority="34" operator="equal">
@@ -29961,30 +29967,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -29998,50 +30004,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -30057,12 +30063,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$38</f>
         <v>43971</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -30083,12 +30089,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$38</f>
         <v>43986</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -30105,12 +30111,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$38</f>
         <v>11</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -30841,13 +30847,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -30859,19 +30865,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -30903,19 +30909,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -31020,13 +31026,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="oNctHQkxsBNUdifaeP4nhC9Gpn8YqyV2INclhAfQGal8TbFhFBZ5GsyonIJaHE15CM1bSYVUQSgD+94/pOyF2A==" saltValue="VnPuH9l13Gfm4vUE2x53PA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -31037,6 +31036,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="75" priority="34" operator="equal">
@@ -31268,30 +31274,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -31305,50 +31311,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -31364,12 +31370,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$39</f>
         <v>43987</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -31390,12 +31396,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$39</f>
         <v>44003</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -31412,12 +31418,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$39</f>
         <v>12</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -32148,13 +32154,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="str">
@@ -32166,19 +32172,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -32210,19 +32216,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -32327,13 +32333,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="uV3RtGqppO7ha8Js24gTUllRkNwQoQeB1H9xx2tTMLpS6FYIg9UoAIO8nji2h7RSBhm6I77Jv5QWfAHoz4mxtg==" saltValue="rz6vH+A1IVicU/xL/a63lA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -32344,6 +32343,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="37" priority="34" operator="equal">
@@ -32575,30 +32581,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -32612,70 +32618,70 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="196">
+      <c r="B8" s="192">
         <v>904301118</v>
       </c>
-      <c r="C8" s="196"/>
-      <c r="D8" s="196"/>
+      <c r="C8" s="192"/>
+      <c r="D8" s="192"/>
       <c r="E8" s="4"/>
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$5</f>
         <v>43636</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -32686,42 +32692,42 @@
       <c r="A9" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="197" t="s">
+      <c r="B9" s="193" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="197"/>
-      <c r="D9" s="197"/>
+      <c r="C9" s="193"/>
+      <c r="D9" s="193"/>
       <c r="E9" s="4"/>
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$5</f>
         <v>43648</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="197" t="s">
+      <c r="B10" s="193" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="197"/>
-      <c r="D10" s="197"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="193"/>
       <c r="E10" s="4"/>
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$5</f>
         <v>13</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -32766,10 +32772,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="195" t="s">
+      <c r="A13" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="195"/>
+      <c r="B13" s="191"/>
       <c r="C13" s="16">
         <f>'Previous June Split WK HRS'!$B$9</f>
         <v>0</v>
@@ -33281,12 +33287,12 @@
       <c r="C31" s="135"/>
       <c r="D31" s="136"/>
       <c r="E31" s="131"/>
-      <c r="F31" s="184" t="s">
+      <c r="F31" s="180" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="185"/>
-      <c r="H31" s="185"/>
-      <c r="I31" s="186"/>
+      <c r="G31" s="181"/>
+      <c r="H31" s="181"/>
+      <c r="I31" s="182"/>
       <c r="K31" s="5">
         <f>IF(K30=0,"",IF(K30&lt;$G$9,K30+1,IF(K30=$G$9,"")))</f>
         <v>43647</v>
@@ -33306,10 +33312,10 @@
       <c r="C32" s="135"/>
       <c r="D32" s="136"/>
       <c r="E32" s="131"/>
-      <c r="F32" s="187"/>
-      <c r="G32" s="188"/>
-      <c r="H32" s="188"/>
-      <c r="I32" s="189"/>
+      <c r="F32" s="183"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="184"/>
+      <c r="I32" s="185"/>
       <c r="K32" s="5">
         <f t="shared" ref="K32:K36" si="7">IF(K31=0,"",IF(K31&lt;$G$9,K31+1,IF(K31=$G$9,"")))</f>
         <v>43648</v>
@@ -33329,10 +33335,10 @@
       <c r="C33" s="136"/>
       <c r="D33" s="136"/>
       <c r="E33" s="131"/>
-      <c r="F33" s="187"/>
-      <c r="G33" s="188"/>
-      <c r="H33" s="188"/>
-      <c r="I33" s="189"/>
+      <c r="F33" s="183"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="185"/>
       <c r="K33" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -33352,10 +33358,10 @@
       <c r="C34" s="136"/>
       <c r="D34" s="136"/>
       <c r="E34" s="131"/>
-      <c r="F34" s="187"/>
-      <c r="G34" s="188"/>
-      <c r="H34" s="188"/>
-      <c r="I34" s="189"/>
+      <c r="F34" s="183"/>
+      <c r="G34" s="184"/>
+      <c r="H34" s="184"/>
+      <c r="I34" s="185"/>
       <c r="K34" s="5" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -33375,10 +33381,10 @@
       <c r="C35" s="136"/>
       <c r="D35" s="136"/>
       <c r="E35" s="131"/>
-      <c r="F35" s="187"/>
-      <c r="G35" s="188"/>
-      <c r="H35" s="188"/>
-      <c r="I35" s="189"/>
+      <c r="F35" s="183"/>
+      <c r="G35" s="184"/>
+      <c r="H35" s="184"/>
+      <c r="I35" s="185"/>
       <c r="K35" s="5" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -33398,10 +33404,10 @@
       <c r="C36" s="139"/>
       <c r="D36" s="139"/>
       <c r="E36" s="131"/>
-      <c r="F36" s="187"/>
-      <c r="G36" s="188"/>
-      <c r="H36" s="188"/>
-      <c r="I36" s="189"/>
+      <c r="F36" s="183"/>
+      <c r="G36" s="184"/>
+      <c r="H36" s="184"/>
+      <c r="I36" s="185"/>
       <c r="K36" s="5" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -33424,10 +33430,10 @@
         <v>0</v>
       </c>
       <c r="E37" s="150"/>
-      <c r="F37" s="190"/>
-      <c r="G37" s="191"/>
-      <c r="H37" s="191"/>
-      <c r="I37" s="192"/>
+      <c r="F37" s="186"/>
+      <c r="G37" s="187"/>
+      <c r="H37" s="187"/>
+      <c r="I37" s="188"/>
       <c r="K37" s="8" t="s">
         <v>22</v>
       </c>
@@ -33452,13 +33458,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -33470,19 +33476,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -33514,19 +33520,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -33631,6 +33637,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="S5X1sRKbVHIC/CxNvUSLGbMtzFy/V13rjQxnfTWYv4nG1Q+RIPUG1SPfVjoRJSUT2HTEVjeS/kJu2d8+Y6rxSg==" saltValue="A64d+t0sLiguDosj21Ghpw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="A42:D42"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A4:I7"/>
@@ -33642,12 +33654,6 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="A42:D42"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="909" priority="43" operator="equal">
@@ -33869,30 +33875,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -33906,50 +33912,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -33965,12 +33971,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$6</f>
         <v>43649</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -33991,12 +33997,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$6</f>
         <v>43668</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -34013,12 +34019,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$6</f>
         <v>14</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -34063,10 +34069,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="195" t="s">
+      <c r="A13" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="195"/>
+      <c r="B13" s="191"/>
       <c r="C13" s="16">
         <f>'June 20, 2019 - July 2,2019'!$C$37</f>
         <v>0</v>
@@ -34749,13 +34755,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5">
@@ -34767,19 +34773,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -34811,19 +34817,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -34928,13 +34934,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="2lB+QSBmjIj9R2xKru8PmZreKGvpmEfO/0GOrlhZ0MZCVS02q7aLA/WORT8uz5qYj3dUHkRAJw1U/qt64pNfiw==" saltValue="h6uuiXovP/FrsUciOjanjw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -34945,6 +34944,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="873" priority="34" operator="equal">
@@ -35176,30 +35182,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -35213,50 +35219,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -35272,12 +35278,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$8</f>
         <v>43669</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -35298,12 +35304,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$8</f>
         <v>43683</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -35320,12 +35326,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$8</f>
         <v>15</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -35370,10 +35376,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="195" t="s">
+      <c r="A13" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="195"/>
+      <c r="B13" s="191"/>
       <c r="C13" s="16">
         <f>'July 3, 2019 - July 22, 2019'!$H$21</f>
         <v>0</v>
@@ -36056,13 +36062,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -36074,19 +36080,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -36118,19 +36124,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -36235,13 +36241,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ATJHUNHQBNdjd96oUH7vKvka/F64NjKj3Xn6T8lprLHrs616uwjb1Z0qCX7s8JM5yStmTV5XhlOA40aVUekqmw==" saltValue="ZSXrR0LlpV1Qr9K1tI8xEA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -36252,6 +36251,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="835" priority="34" operator="equal">
@@ -36483,30 +36489,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -36520,50 +36526,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -36579,12 +36585,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$9</f>
         <v>43684</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -36605,12 +36611,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$9</f>
         <v>43698</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -36627,12 +36633,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$9</f>
         <v>16</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -36677,10 +36683,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="195" t="s">
+      <c r="A13" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="195"/>
+      <c r="B13" s="191"/>
       <c r="C13" s="16">
         <f>'July 23, 2019 - Aug 6, 2019'!$C$37</f>
         <v>0</v>
@@ -37363,13 +37369,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -37381,19 +37387,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -37425,19 +37431,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -37542,13 +37548,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="pjvtob70aqxbUVwbESLxavj0Egekft8/sG3lzDDz8j0UwrUOUxmx6PyQliu1rUgl/+2/kjNfTvUwQZgl2it/Ww==" saltValue="Tncw5B/YPaEuEdaFi6BZwA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -37559,6 +37558,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="797" priority="34" operator="equal">
@@ -37790,30 +37796,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -37827,50 +37833,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -37886,12 +37892,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$11</f>
         <v>43699</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -37912,12 +37918,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$11</f>
         <v>43712</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -37934,12 +37940,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$11</f>
         <v>17</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -37984,10 +37990,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="195" t="s">
+      <c r="A13" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="195"/>
+      <c r="B13" s="191"/>
       <c r="C13" s="16">
         <f>'Aug 7, 2019 - Aug 21, 2019'!$C$37</f>
         <v>0</v>
@@ -38670,13 +38676,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -38688,19 +38694,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -38732,19 +38738,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -38849,13 +38855,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="6LAhclbOUnmqJcpdXA5lk6utAC8YfwinYcC5Ki32jSdOy8vMfhUJVna4b6LEsTnFQwBID+ZoytYeUHiOwjDQQA==" saltValue="Xi3mOL2RymSmRy9N4wbt7Q==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -38866,6 +38865,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="759" priority="34" operator="equal">
@@ -39097,30 +39103,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -39134,50 +39140,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -39193,12 +39199,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$12</f>
         <v>43713</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -39219,12 +39225,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$12</f>
         <v>43727</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -39241,12 +39247,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$12</f>
         <v>18</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -39291,10 +39297,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="195" t="s">
+      <c r="A13" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="195"/>
+      <c r="B13" s="191"/>
       <c r="C13" s="16">
         <f>'Aug 22, 2019 - Sept 4, 2019'!$C$37</f>
         <v>0</v>
@@ -39977,13 +39983,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -39995,19 +40001,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -40039,19 +40045,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -40156,13 +40162,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="y3DImqH2VJ6Dt3mfRvoZqaB3/pUlD505riboGLqDJWCwWWWLCviCk1N0GcfKxeCT4uGRqT7/qdqgKfcgOKdMGQ==" saltValue="8TCmrJvFWv6GB62RsfwMPg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -40173,6 +40172,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="721" priority="34" operator="equal">
@@ -40404,30 +40410,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -40441,50 +40447,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -40500,12 +40506,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$14</f>
         <v>43728</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -40526,12 +40532,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$14</f>
         <v>43741</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -40548,12 +40554,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$14</f>
         <v>19</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -41284,13 +41290,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -41302,19 +41308,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -41346,19 +41352,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -41463,13 +41469,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="6dEjPHEgF8OUT15wBxgLnX+yynDGVgTTC4871Syu9JmtBGLoz89ibSTwvX6fYAZHt//Uzbi0MxR+8tDXSNLVjw==" saltValue="aH9gsTcCeUah3TuHbCYGvw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -41480,6 +41479,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="683" priority="34" operator="equal">

--- a/TimeReport-SW-FY190-RB Kruse.xlsx
+++ b/TimeReport-SW-FY190-RB Kruse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/Research/Dr. Bethel/ROSResearch2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD66B0E-2C73-2A41-9234-8F3A49B07B29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C095D39-28B0-3B48-82FB-95BA4CB13EC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" firstSheet="16" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1814,6 +1814,22 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1888,22 +1904,6 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -10079,30 +10079,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -10116,50 +10116,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -10175,12 +10175,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$15</f>
         <v>43742</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -10201,12 +10201,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$15</f>
         <v>43760</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -10223,12 +10223,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$15</f>
         <v>20</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -10959,13 +10959,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5">
@@ -10977,19 +10977,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -11021,19 +11021,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -11138,6 +11138,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="uDfPmr05QaRHc/lKQBu+sCDEq8l9gmbXs+mDIVYrjMbYdiANiTZup5p1OYd/eKZ8QEieuycJNLsen0Bcl4ffYA==" saltValue="nukzhvoHeCxP4JigkPz7tQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -11148,13 +11155,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="645" priority="34" operator="equal">
@@ -11386,30 +11386,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -11423,50 +11423,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -11482,12 +11482,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$17</f>
         <v>43761</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -11508,12 +11508,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$17</f>
         <v>43775</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -11530,12 +11530,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$17</f>
         <v>21</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -12266,13 +12266,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -12284,19 +12284,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -12328,19 +12328,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -12445,6 +12445,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="/sMdwuAGJN7SPGgNL0ziXu1Q8XeCInhE3i/9un0d99aP6RkY4rOhwZD2naCjZIQwbL3LTnlL+uAmHX7F6ZJ8TA==" saltValue="yi38ohwCODSad6eDmoaQlA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -12455,13 +12462,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="607" priority="34" operator="equal">
@@ -12693,30 +12693,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -12730,50 +12730,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -12789,12 +12789,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$18</f>
         <v>43776</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -12815,12 +12815,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$18</f>
         <v>43787</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -12837,12 +12837,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$18</f>
         <v>22</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -13573,13 +13573,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -13591,19 +13591,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -13635,19 +13635,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -13752,6 +13752,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="b1YDq75ljJ5B6o2TZ6cSpp71QV/8+wGo6uHySvsgApnCkDdlHU/izp0MAt9NoMMvlwJo7O/oEfqC3sSbh8J6lw==" saltValue="YEpRtlZipUUsNS0a5ZzSmA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -13762,13 +13769,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="569" priority="34" operator="equal">
@@ -14000,30 +14000,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -14037,50 +14037,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -14096,12 +14096,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$20</f>
         <v>43788</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -14122,12 +14122,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$20</f>
         <v>43802</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14144,12 +14144,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$20</f>
         <v>23</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -14886,13 +14886,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -14904,19 +14904,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -14948,19 +14948,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -15065,6 +15065,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="3Z6eW+z3pw+vQCjBKIuoJGAKNBF8XRIGiABYepWnM715kNUB3NHASvVak4ysCm50L8slsFsG4INB1JxJk1vfog==" saltValue="pMUvIumHrWxgi1YvQBev+A==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -15075,13 +15082,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="531" priority="34" operator="equal">
@@ -15314,30 +15314,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -15351,50 +15351,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -15410,12 +15410,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$21</f>
         <v>43803</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -15436,12 +15436,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$21</f>
         <v>43808</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15458,12 +15458,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$21</f>
         <v>24</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -16194,13 +16194,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -16212,19 +16212,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -16256,19 +16256,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -16373,6 +16373,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="5S8pPa3Rbz2Tnuz4VwlCPO3sWLEC0cZqbv88WApxMyRXWZSiEaO48moEPWK1AYz8vDZoh0RBe0+ZiOm3A9sbvQ==" saltValue="x9JfbylXq6vDZEk+GDoBZQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -16383,13 +16390,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="493" priority="34" operator="equal">
@@ -16621,30 +16621,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -16658,50 +16658,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -16717,12 +16717,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$23</f>
         <v>43809</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -16743,12 +16743,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$23</f>
         <v>43836</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -16765,12 +16765,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$23</f>
         <v>1</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -17501,13 +17501,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5">
@@ -17519,19 +17519,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -17563,19 +17563,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5">
         <f t="shared" si="8"/>
         <v>43832</v>
@@ -17680,6 +17680,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="axvo6Tg8DSfMEUeJCS4l6Pyz11MbJ+p1QagU8xCdQw5fg5SdhFbZ4fHrgdrUPqyusByHsIezxMFf3tPpcDkjfg==" saltValue="5iujVD2EGR97WF/z8x9VBQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -17690,13 +17697,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="455" priority="34" operator="equal">
@@ -17928,30 +17928,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -17965,50 +17965,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -18024,12 +18024,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$24</f>
         <v>43837</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -18050,12 +18050,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$24</f>
         <v>43852</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -18072,12 +18072,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$24</f>
         <v>2</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -18816,13 +18816,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -18834,19 +18834,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -18878,19 +18878,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -18995,6 +18995,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="xkKCxjW7MCiMvjPrg31YBXUU+osmUVj0krXN90eD/T6hHoNPrXDNIpHb23E9yJP7hKDOQAn0YvOoTrRvBongqA==" saltValue="c75NYpkdlYU8+gsM0zCRNA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -19005,13 +19012,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="417" priority="34" operator="equal">
@@ -19243,30 +19243,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -19280,50 +19280,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -19339,12 +19339,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$26</f>
         <v>43853</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -19365,12 +19365,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$26</f>
         <v>43866</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -19387,12 +19387,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$26</f>
         <v>3</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -20139,13 +20139,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -20157,19 +20157,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -20201,19 +20201,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -20318,6 +20318,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ZcNZSxFLwvB3uJEog6sE8eX/p3zfr3mUKYcu6v8ZRrn2g9ZL8xsmH+kakoe8C1JkjePqf4XCT340Bl8b/ztlAA==" saltValue="jXF2oECus8nAaH9pzX9SUQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -20328,13 +20335,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="379" priority="34" operator="equal">
@@ -20566,30 +20566,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -20603,50 +20603,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -20662,12 +20662,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$27</f>
         <v>43867</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -20688,12 +20688,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$27</f>
         <v>43880</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -20710,12 +20710,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$27</f>
         <v>4</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -21456,13 +21456,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -21474,19 +21474,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -21518,19 +21518,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -21635,6 +21635,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="EzGaIiT0OCXSKPs9rTkp1ftITDSfrkhQUzI0bmma8+dV1URCCocs7OTxcxmqNKHwjvPJWVuLqU8TSqt28dUcNg==" saltValue="PXH+58hkNDKJly1D/0pVmQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -21645,13 +21652,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="341" priority="34" operator="equal">
@@ -21884,30 +21884,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -21921,50 +21921,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -21980,12 +21980,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$29</f>
         <v>43881</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -22006,12 +22006,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$29</f>
         <v>43894</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -22028,12 +22028,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$29</f>
         <v>5</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -22764,13 +22764,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -22782,19 +22782,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -22826,19 +22826,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -22943,6 +22943,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="a1OZcyflEvX/Gd5N3Q6nZCP9yG0vNF9wTHcqApIWzyQjdXQ/ELOJxnA0CX4clIgGZyMFf1l8c0gBzIMyjZmwmQ==" saltValue="nGZ72lm9LqEz+L7b3oJGkg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -22953,13 +22960,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="303" priority="34" operator="equal">
@@ -23422,30 +23422,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -23459,50 +23459,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -23518,12 +23518,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$30</f>
         <v>43895</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -23544,12 +23544,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$30</f>
         <v>43912</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -23566,12 +23566,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$30</f>
         <v>6</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -24302,13 +24302,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="str">
@@ -24320,19 +24320,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -24364,19 +24364,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -24481,6 +24481,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="V1nc17foZ8+TKkdpHgVLN1BfpxWYRmqD/Ya12wVVHUx78LQZNTNRnriKGjLnjhdnBItbI6SiAkHW9EsltcklJw==" saltValue="wublnwmPYTCrrjYQtLtFvw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -24491,13 +24498,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="265" priority="34" operator="equal">
@@ -24729,30 +24729,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -24766,50 +24766,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -24825,12 +24825,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$32</f>
         <v>43913</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -24851,12 +24851,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$32</f>
         <v>43926</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -24873,12 +24873,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$32</f>
         <v>7</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -25611,13 +25611,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -25629,19 +25629,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -25673,19 +25673,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -25790,6 +25790,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Kg6B3wMpyHtE3AG2+ZhM4iVpdSxDw+pCBdNIb+Wo6Ts+QON2d+uS2cM4EGU7doxlj/v6sQZRCLDJacYEHRTCWg==" saltValue="TqyyoN4EUigEJJATe2teew==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -25800,13 +25807,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="227" priority="34" operator="equal">
@@ -26018,7 +26018,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="13" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -26038,30 +26038,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -26075,50 +26075,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -26134,12 +26134,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$33</f>
         <v>43927</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -26160,12 +26160,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$33</f>
         <v>43942</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -26182,12 +26182,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$33</f>
         <v>8</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -26634,7 +26634,9 @@
       <c r="B27" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="135"/>
+      <c r="C27" s="135">
+        <v>2</v>
+      </c>
       <c r="D27" s="136"/>
       <c r="E27" s="131"/>
       <c r="F27" s="26" t="b">
@@ -26689,7 +26691,7 @@
       <c r="B29" s="141"/>
       <c r="C29" s="142">
         <f>SUM(C22:C28)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D29" s="142">
         <f>IF(C29&gt;40,C29-40,0)</f>
@@ -26730,7 +26732,7 @@
       <c r="G30" s="29"/>
       <c r="H30" s="31">
         <f>(C21+C29+C37+H21+H29)-C13</f>
-        <v>9.25</v>
+        <v>11.25</v>
       </c>
       <c r="I30" s="31">
         <f>D21+D29+D37+I21+I29</f>
@@ -26926,13 +26928,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -26944,19 +26946,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -26988,19 +26990,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -27105,6 +27107,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="pL1llo1icHEYJ3TXDIYTPyJLENO1wV3Eyh/2WXX1MQibsv6eIANEQ6p81eSLf00FXmHTK80ocHiAlfzCSNnobA==" saltValue="xg19KB5Q+BRlyZJ260jfjw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -27115,13 +27124,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="189" priority="34" operator="equal">
@@ -27353,30 +27355,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -27390,50 +27392,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -27449,12 +27451,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$35</f>
         <v>43943</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -27475,12 +27477,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$35</f>
         <v>43957</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -27497,12 +27499,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$35</f>
         <v>9</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -28233,13 +28235,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -28251,19 +28253,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -28295,19 +28297,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -28412,6 +28414,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="cTTzshwCkoAqnh/geSNfKTT36wmZ/VdBuT3vIr+/2YsvbGJ8iBLOCV3uynrPhE8WcWQfprCPh0UKqqYAOdwEwQ==" saltValue="Q4AkvBK7ZSuvi376cVoqHg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -28422,13 +28431,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="151" priority="34" operator="equal">
@@ -28660,30 +28662,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -28697,50 +28699,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -28756,12 +28758,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$36</f>
         <v>43958</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -28782,12 +28784,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$36</f>
         <v>43970</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -28804,12 +28806,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$36</f>
         <v>10</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -29540,13 +29542,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -29558,19 +29560,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -29602,19 +29604,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -29719,6 +29721,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="/V1OKocwyLiiD7voXBGhmM1UK7C7RaZXxwAl2UR0a/g9ofjWI2UH03lweCKWBkoGED//exie+GFqMeUI+uVmzQ==" saltValue="eZQsMcrfzspB3EMk5v6XVA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -29729,13 +29738,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="113" priority="34" operator="equal">
@@ -29967,30 +29969,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -30004,50 +30006,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -30063,12 +30065,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$38</f>
         <v>43971</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -30089,12 +30091,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$38</f>
         <v>43986</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -30111,12 +30113,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$38</f>
         <v>11</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -30847,13 +30849,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -30865,19 +30867,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -30909,19 +30911,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -31026,6 +31028,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="oNctHQkxsBNUdifaeP4nhC9Gpn8YqyV2INclhAfQGal8TbFhFBZ5GsyonIJaHE15CM1bSYVUQSgD+94/pOyF2A==" saltValue="VnPuH9l13Gfm4vUE2x53PA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -31036,13 +31045,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="75" priority="34" operator="equal">
@@ -31274,30 +31276,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -31311,50 +31313,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -31370,12 +31372,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$39</f>
         <v>43987</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -31396,12 +31398,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$39</f>
         <v>44003</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -31418,12 +31420,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$39</f>
         <v>12</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -32154,13 +32156,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="str">
@@ -32172,19 +32174,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -32216,19 +32218,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -32333,6 +32335,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="uV3RtGqppO7ha8Js24gTUllRkNwQoQeB1H9xx2tTMLpS6FYIg9UoAIO8nji2h7RSBhm6I77Jv5QWfAHoz4mxtg==" saltValue="rz6vH+A1IVicU/xL/a63lA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -32343,13 +32352,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="37" priority="34" operator="equal">
@@ -32581,30 +32583,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -32618,70 +32620,70 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="192">
+      <c r="B8" s="196">
         <v>904301118</v>
       </c>
-      <c r="C8" s="192"/>
-      <c r="D8" s="192"/>
+      <c r="C8" s="196"/>
+      <c r="D8" s="196"/>
       <c r="E8" s="4"/>
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$5</f>
         <v>43636</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -32692,42 +32694,42 @@
       <c r="A9" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="193" t="s">
+      <c r="B9" s="197" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="193"/>
-      <c r="D9" s="193"/>
+      <c r="C9" s="197"/>
+      <c r="D9" s="197"/>
       <c r="E9" s="4"/>
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$5</f>
         <v>43648</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="193" t="s">
+      <c r="B10" s="197" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="193"/>
-      <c r="D10" s="193"/>
+      <c r="C10" s="197"/>
+      <c r="D10" s="197"/>
       <c r="E10" s="4"/>
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$5</f>
         <v>13</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -32772,10 +32774,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="191" t="s">
+      <c r="A13" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="191"/>
+      <c r="B13" s="195"/>
       <c r="C13" s="16">
         <f>'Previous June Split WK HRS'!$B$9</f>
         <v>0</v>
@@ -33287,12 +33289,12 @@
       <c r="C31" s="135"/>
       <c r="D31" s="136"/>
       <c r="E31" s="131"/>
-      <c r="F31" s="180" t="s">
+      <c r="F31" s="184" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="181"/>
-      <c r="H31" s="181"/>
-      <c r="I31" s="182"/>
+      <c r="G31" s="185"/>
+      <c r="H31" s="185"/>
+      <c r="I31" s="186"/>
       <c r="K31" s="5">
         <f>IF(K30=0,"",IF(K30&lt;$G$9,K30+1,IF(K30=$G$9,"")))</f>
         <v>43647</v>
@@ -33312,10 +33314,10 @@
       <c r="C32" s="135"/>
       <c r="D32" s="136"/>
       <c r="E32" s="131"/>
-      <c r="F32" s="183"/>
-      <c r="G32" s="184"/>
-      <c r="H32" s="184"/>
-      <c r="I32" s="185"/>
+      <c r="F32" s="187"/>
+      <c r="G32" s="188"/>
+      <c r="H32" s="188"/>
+      <c r="I32" s="189"/>
       <c r="K32" s="5">
         <f t="shared" ref="K32:K36" si="7">IF(K31=0,"",IF(K31&lt;$G$9,K31+1,IF(K31=$G$9,"")))</f>
         <v>43648</v>
@@ -33335,10 +33337,10 @@
       <c r="C33" s="136"/>
       <c r="D33" s="136"/>
       <c r="E33" s="131"/>
-      <c r="F33" s="183"/>
-      <c r="G33" s="184"/>
-      <c r="H33" s="184"/>
-      <c r="I33" s="185"/>
+      <c r="F33" s="187"/>
+      <c r="G33" s="188"/>
+      <c r="H33" s="188"/>
+      <c r="I33" s="189"/>
       <c r="K33" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -33358,10 +33360,10 @@
       <c r="C34" s="136"/>
       <c r="D34" s="136"/>
       <c r="E34" s="131"/>
-      <c r="F34" s="183"/>
-      <c r="G34" s="184"/>
-      <c r="H34" s="184"/>
-      <c r="I34" s="185"/>
+      <c r="F34" s="187"/>
+      <c r="G34" s="188"/>
+      <c r="H34" s="188"/>
+      <c r="I34" s="189"/>
       <c r="K34" s="5" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -33381,10 +33383,10 @@
       <c r="C35" s="136"/>
       <c r="D35" s="136"/>
       <c r="E35" s="131"/>
-      <c r="F35" s="183"/>
-      <c r="G35" s="184"/>
-      <c r="H35" s="184"/>
-      <c r="I35" s="185"/>
+      <c r="F35" s="187"/>
+      <c r="G35" s="188"/>
+      <c r="H35" s="188"/>
+      <c r="I35" s="189"/>
       <c r="K35" s="5" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -33404,10 +33406,10 @@
       <c r="C36" s="139"/>
       <c r="D36" s="139"/>
       <c r="E36" s="131"/>
-      <c r="F36" s="183"/>
-      <c r="G36" s="184"/>
-      <c r="H36" s="184"/>
-      <c r="I36" s="185"/>
+      <c r="F36" s="187"/>
+      <c r="G36" s="188"/>
+      <c r="H36" s="188"/>
+      <c r="I36" s="189"/>
       <c r="K36" s="5" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -33430,10 +33432,10 @@
         <v>0</v>
       </c>
       <c r="E37" s="150"/>
-      <c r="F37" s="186"/>
-      <c r="G37" s="187"/>
-      <c r="H37" s="187"/>
-      <c r="I37" s="188"/>
+      <c r="F37" s="190"/>
+      <c r="G37" s="191"/>
+      <c r="H37" s="191"/>
+      <c r="I37" s="192"/>
       <c r="K37" s="8" t="s">
         <v>22</v>
       </c>
@@ -33458,13 +33460,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -33476,19 +33478,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -33520,19 +33522,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -33637,12 +33639,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="S5X1sRKbVHIC/CxNvUSLGbMtzFy/V13rjQxnfTWYv4nG1Q+RIPUG1SPfVjoRJSUT2HTEVjeS/kJu2d8+Y6rxSg==" saltValue="A64d+t0sLiguDosj21Ghpw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="A42:D42"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A4:I7"/>
@@ -33654,6 +33650,12 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="A42:D42"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="909" priority="43" operator="equal">
@@ -33875,30 +33877,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -33912,50 +33914,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -33971,12 +33973,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$6</f>
         <v>43649</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -33997,12 +33999,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$6</f>
         <v>43668</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -34019,12 +34021,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$6</f>
         <v>14</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -34069,10 +34071,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="191" t="s">
+      <c r="A13" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="191"/>
+      <c r="B13" s="195"/>
       <c r="C13" s="16">
         <f>'June 20, 2019 - July 2,2019'!$C$37</f>
         <v>0</v>
@@ -34755,13 +34757,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5">
@@ -34773,19 +34775,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -34817,19 +34819,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -34934,6 +34936,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="2lB+QSBmjIj9R2xKru8PmZreKGvpmEfO/0GOrlhZ0MZCVS02q7aLA/WORT8uz5qYj3dUHkRAJw1U/qt64pNfiw==" saltValue="h6uuiXovP/FrsUciOjanjw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -34944,13 +34953,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="873" priority="34" operator="equal">
@@ -35182,30 +35184,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -35219,50 +35221,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -35278,12 +35280,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$8</f>
         <v>43669</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -35304,12 +35306,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$8</f>
         <v>43683</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -35326,12 +35328,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$8</f>
         <v>15</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -35376,10 +35378,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="191" t="s">
+      <c r="A13" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="191"/>
+      <c r="B13" s="195"/>
       <c r="C13" s="16">
         <f>'July 3, 2019 - July 22, 2019'!$H$21</f>
         <v>0</v>
@@ -36062,13 +36064,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -36080,19 +36082,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -36124,19 +36126,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -36241,6 +36243,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ATJHUNHQBNdjd96oUH7vKvka/F64NjKj3Xn6T8lprLHrs616uwjb1Z0qCX7s8JM5yStmTV5XhlOA40aVUekqmw==" saltValue="ZSXrR0LlpV1Qr9K1tI8xEA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -36251,13 +36260,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="835" priority="34" operator="equal">
@@ -36489,30 +36491,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -36526,50 +36528,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -36585,12 +36587,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$9</f>
         <v>43684</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -36611,12 +36613,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$9</f>
         <v>43698</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -36633,12 +36635,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$9</f>
         <v>16</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -36683,10 +36685,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="191" t="s">
+      <c r="A13" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="191"/>
+      <c r="B13" s="195"/>
       <c r="C13" s="16">
         <f>'July 23, 2019 - Aug 6, 2019'!$C$37</f>
         <v>0</v>
@@ -37369,13 +37371,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -37387,19 +37389,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -37431,19 +37433,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -37548,6 +37550,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="pjvtob70aqxbUVwbESLxavj0Egekft8/sG3lzDDz8j0UwrUOUxmx6PyQliu1rUgl/+2/kjNfTvUwQZgl2it/Ww==" saltValue="Tncw5B/YPaEuEdaFi6BZwA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -37558,13 +37567,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="797" priority="34" operator="equal">
@@ -37796,30 +37798,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -37833,50 +37835,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -37892,12 +37894,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$11</f>
         <v>43699</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -37918,12 +37920,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$11</f>
         <v>43712</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -37940,12 +37942,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$11</f>
         <v>17</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -37990,10 +37992,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="191" t="s">
+      <c r="A13" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="191"/>
+      <c r="B13" s="195"/>
       <c r="C13" s="16">
         <f>'Aug 7, 2019 - Aug 21, 2019'!$C$37</f>
         <v>0</v>
@@ -38676,13 +38678,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -38694,19 +38696,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -38738,19 +38740,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -38855,6 +38857,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="6LAhclbOUnmqJcpdXA5lk6utAC8YfwinYcC5Ki32jSdOy8vMfhUJVna4b6LEsTnFQwBID+ZoytYeUHiOwjDQQA==" saltValue="Xi3mOL2RymSmRy9N4wbt7Q==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -38865,13 +38874,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="759" priority="34" operator="equal">
@@ -39103,30 +39105,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -39140,50 +39142,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -39199,12 +39201,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$12</f>
         <v>43713</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -39225,12 +39227,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$12</f>
         <v>43727</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -39247,12 +39249,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$12</f>
         <v>18</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -39297,10 +39299,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="191" t="s">
+      <c r="A13" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="191"/>
+      <c r="B13" s="195"/>
       <c r="C13" s="16">
         <f>'Aug 22, 2019 - Sept 4, 2019'!$C$37</f>
         <v>0</v>
@@ -39983,13 +39985,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -40001,19 +40003,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -40045,19 +40047,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -40162,6 +40164,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="y3DImqH2VJ6Dt3mfRvoZqaB3/pUlD505riboGLqDJWCwWWWLCviCk1N0GcfKxeCT4uGRqT7/qdqgKfcgOKdMGQ==" saltValue="8TCmrJvFWv6GB62RsfwMPg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -40172,13 +40181,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="721" priority="34" operator="equal">
@@ -40410,30 +40412,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -40447,50 +40449,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -40506,12 +40508,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$14</f>
         <v>43728</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -40532,12 +40534,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$14</f>
         <v>43741</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -40554,12 +40556,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$14</f>
         <v>19</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -41290,13 +41292,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -41308,19 +41310,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -41352,19 +41354,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -41469,6 +41471,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="6dEjPHEgF8OUT15wBxgLnX+yynDGVgTTC4871Syu9JmtBGLoz89ibSTwvX6fYAZHt//Uzbi0MxR+8tDXSNLVjw==" saltValue="aH9gsTcCeUah3TuHbCYGvw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -41479,13 +41488,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="683" priority="34" operator="equal">

--- a/TimeReport-SW-FY190-RB Kruse.xlsx
+++ b/TimeReport-SW-FY190-RB Kruse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/Research/Dr. Bethel/ROSResearch2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C095D39-28B0-3B48-82FB-95BA4CB13EC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E841883D-2E76-AB4A-A2AA-8DABCB0672AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" firstSheet="16" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" firstSheet="17" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payroll Schedule" sheetId="3" state="hidden" r:id="rId1"/>
@@ -26016,9 +26016,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="13" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -26732,7 +26732,7 @@
       <c r="G30" s="29"/>
       <c r="H30" s="31">
         <f>(C21+C29+C37+H21+H29)-C13</f>
-        <v>11.25</v>
+        <v>16.25</v>
       </c>
       <c r="I30" s="31">
         <f>D21+D29+D37+I21+I29</f>
@@ -26754,7 +26754,9 @@
       <c r="B31" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="135"/>
+      <c r="C31" s="135">
+        <v>5</v>
+      </c>
       <c r="D31" s="136"/>
       <c r="E31" s="30"/>
       <c r="F31" s="200" t="s">
@@ -26893,7 +26895,7 @@
       <c r="B37" s="149"/>
       <c r="C37" s="142">
         <f>SUM(C30:C36)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D37" s="142">
         <f>IF(C37&gt;40,C37-40,0)</f>
@@ -27333,9 +27335,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="13" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -27555,7 +27557,7 @@
       <c r="B13" s="209"/>
       <c r="C13" s="154">
         <f>'April 6, 2020 - April 21, 2020'!$C$37</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D13" s="154"/>
       <c r="E13" s="155"/>
@@ -27770,7 +27772,7 @@
       <c r="B21" s="141"/>
       <c r="C21" s="142">
         <f>SUM(C13:C20)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D21" s="142">
         <f>IF(C21&gt;40,C21-40,0)</f>
@@ -27859,7 +27861,9 @@
       <c r="B24" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="135"/>
+      <c r="C24" s="135">
+        <v>2</v>
+      </c>
       <c r="D24" s="136"/>
       <c r="E24" s="131"/>
       <c r="F24" s="26" t="b">
@@ -27998,7 +28002,7 @@
       <c r="B29" s="141"/>
       <c r="C29" s="142">
         <f>SUM(C22:C28)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D29" s="142">
         <f>IF(C29&gt;40,C29-40,0)</f>
@@ -28039,7 +28043,7 @@
       <c r="G30" s="29"/>
       <c r="H30" s="31">
         <f>(C21+C29+C37+H21+H29)-C13</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I30" s="31">
         <f>D21+D29+D37+I21+I29</f>
@@ -28061,7 +28065,9 @@
       <c r="B31" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="135"/>
+      <c r="C31" s="135">
+        <v>3</v>
+      </c>
       <c r="D31" s="136"/>
       <c r="E31" s="30"/>
       <c r="F31" s="200" t="s">
@@ -28200,7 +28206,7 @@
       <c r="B37" s="149"/>
       <c r="C37" s="142">
         <f>SUM(C30:C36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D37" s="142">
         <f>IF(C37&gt;40,C37-40,0)</f>
@@ -28862,7 +28868,7 @@
       <c r="B13" s="209"/>
       <c r="C13" s="154">
         <f>'April 22, 2020 - May 6, 2020'!$C$37</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D13" s="154"/>
       <c r="E13" s="155"/>
@@ -29077,7 +29083,7 @@
       <c r="B21" s="141"/>
       <c r="C21" s="142">
         <f>SUM(C13:C20)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D21" s="142">
         <f>IF(C21&gt;40,C21-40,0)</f>

--- a/TimeReport-SW-FY190-RB Kruse.xlsx
+++ b/TimeReport-SW-FY190-RB Kruse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/Research/Dr. Bethel/ROSResearch2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E841883D-2E76-AB4A-A2AA-8DABCB0672AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251BDFD4-4238-1149-99BE-55F89C162EBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" firstSheet="17" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1814,22 +1814,6 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1904,6 +1888,22 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -10079,30 +10079,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -10116,50 +10116,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -10175,12 +10175,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$15</f>
         <v>43742</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -10201,12 +10201,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$15</f>
         <v>43760</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -10223,12 +10223,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$15</f>
         <v>20</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -10959,13 +10959,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5">
@@ -10977,19 +10977,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -11021,19 +11021,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -11138,13 +11138,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="uDfPmr05QaRHc/lKQBu+sCDEq8l9gmbXs+mDIVYrjMbYdiANiTZup5p1OYd/eKZ8QEieuycJNLsen0Bcl4ffYA==" saltValue="nukzhvoHeCxP4JigkPz7tQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -11155,6 +11148,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="645" priority="34" operator="equal">
@@ -11386,30 +11386,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -11423,50 +11423,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -11482,12 +11482,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$17</f>
         <v>43761</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -11508,12 +11508,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$17</f>
         <v>43775</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -11530,12 +11530,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$17</f>
         <v>21</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -12266,13 +12266,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -12284,19 +12284,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -12328,19 +12328,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -12445,13 +12445,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="/sMdwuAGJN7SPGgNL0ziXu1Q8XeCInhE3i/9un0d99aP6RkY4rOhwZD2naCjZIQwbL3LTnlL+uAmHX7F6ZJ8TA==" saltValue="yi38ohwCODSad6eDmoaQlA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -12462,6 +12455,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="607" priority="34" operator="equal">
@@ -12693,30 +12693,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -12730,50 +12730,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -12789,12 +12789,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$18</f>
         <v>43776</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -12815,12 +12815,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$18</f>
         <v>43787</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -12837,12 +12837,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$18</f>
         <v>22</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -13573,13 +13573,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -13591,19 +13591,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -13635,19 +13635,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -13752,13 +13752,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="b1YDq75ljJ5B6o2TZ6cSpp71QV/8+wGo6uHySvsgApnCkDdlHU/izp0MAt9NoMMvlwJo7O/oEfqC3sSbh8J6lw==" saltValue="YEpRtlZipUUsNS0a5ZzSmA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -13769,6 +13762,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="569" priority="34" operator="equal">
@@ -14000,30 +14000,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -14037,50 +14037,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -14096,12 +14096,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$20</f>
         <v>43788</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -14122,12 +14122,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$20</f>
         <v>43802</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14144,12 +14144,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$20</f>
         <v>23</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -14886,13 +14886,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -14904,19 +14904,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -14948,19 +14948,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -15065,13 +15065,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="3Z6eW+z3pw+vQCjBKIuoJGAKNBF8XRIGiABYepWnM715kNUB3NHASvVak4ysCm50L8slsFsG4INB1JxJk1vfog==" saltValue="pMUvIumHrWxgi1YvQBev+A==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -15082,6 +15075,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="531" priority="34" operator="equal">
@@ -15314,30 +15314,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -15351,50 +15351,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -15410,12 +15410,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$21</f>
         <v>43803</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -15436,12 +15436,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$21</f>
         <v>43808</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15458,12 +15458,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$21</f>
         <v>24</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -16194,13 +16194,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -16212,19 +16212,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -16256,19 +16256,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -16373,13 +16373,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="5S8pPa3Rbz2Tnuz4VwlCPO3sWLEC0cZqbv88WApxMyRXWZSiEaO48moEPWK1AYz8vDZoh0RBe0+ZiOm3A9sbvQ==" saltValue="x9JfbylXq6vDZEk+GDoBZQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -16390,6 +16383,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="493" priority="34" operator="equal">
@@ -16621,30 +16621,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -16658,50 +16658,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -16717,12 +16717,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$23</f>
         <v>43809</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -16743,12 +16743,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$23</f>
         <v>43836</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -16765,12 +16765,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$23</f>
         <v>1</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -17501,13 +17501,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5">
@@ -17519,19 +17519,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -17563,19 +17563,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5">
         <f t="shared" si="8"/>
         <v>43832</v>
@@ -17680,13 +17680,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="axvo6Tg8DSfMEUeJCS4l6Pyz11MbJ+p1QagU8xCdQw5fg5SdhFbZ4fHrgdrUPqyusByHsIezxMFf3tPpcDkjfg==" saltValue="5iujVD2EGR97WF/z8x9VBQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -17697,6 +17690,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="455" priority="34" operator="equal">
@@ -17928,30 +17928,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -17965,50 +17965,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -18024,12 +18024,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$24</f>
         <v>43837</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -18050,12 +18050,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$24</f>
         <v>43852</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -18072,12 +18072,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$24</f>
         <v>2</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -18816,13 +18816,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -18834,19 +18834,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -18878,19 +18878,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -18995,13 +18995,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="xkKCxjW7MCiMvjPrg31YBXUU+osmUVj0krXN90eD/T6hHoNPrXDNIpHb23E9yJP7hKDOQAn0YvOoTrRvBongqA==" saltValue="c75NYpkdlYU8+gsM0zCRNA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -19012,6 +19005,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="417" priority="34" operator="equal">
@@ -19243,30 +19243,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -19280,50 +19280,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -19339,12 +19339,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$26</f>
         <v>43853</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -19365,12 +19365,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$26</f>
         <v>43866</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -19387,12 +19387,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$26</f>
         <v>3</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -20139,13 +20139,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -20157,19 +20157,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -20201,19 +20201,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -20318,13 +20318,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ZcNZSxFLwvB3uJEog6sE8eX/p3zfr3mUKYcu6v8ZRrn2g9ZL8xsmH+kakoe8C1JkjePqf4XCT340Bl8b/ztlAA==" saltValue="jXF2oECus8nAaH9pzX9SUQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -20335,6 +20328,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="379" priority="34" operator="equal">
@@ -20566,30 +20566,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -20603,50 +20603,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -20662,12 +20662,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$27</f>
         <v>43867</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -20688,12 +20688,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$27</f>
         <v>43880</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -20710,12 +20710,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$27</f>
         <v>4</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -21456,13 +21456,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -21474,19 +21474,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -21518,19 +21518,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -21635,13 +21635,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="EzGaIiT0OCXSKPs9rTkp1ftITDSfrkhQUzI0bmma8+dV1URCCocs7OTxcxmqNKHwjvPJWVuLqU8TSqt28dUcNg==" saltValue="PXH+58hkNDKJly1D/0pVmQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -21652,6 +21645,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="341" priority="34" operator="equal">
@@ -21884,30 +21884,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -21921,50 +21921,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -21980,12 +21980,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$29</f>
         <v>43881</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -22006,12 +22006,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$29</f>
         <v>43894</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -22028,12 +22028,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$29</f>
         <v>5</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -22764,13 +22764,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -22782,19 +22782,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -22826,19 +22826,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -22943,13 +22943,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="a1OZcyflEvX/Gd5N3Q6nZCP9yG0vNF9wTHcqApIWzyQjdXQ/ELOJxnA0CX4clIgGZyMFf1l8c0gBzIMyjZmwmQ==" saltValue="nGZ72lm9LqEz+L7b3oJGkg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -22960,6 +22953,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="303" priority="34" operator="equal">
@@ -23422,30 +23422,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -23459,50 +23459,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -23518,12 +23518,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$30</f>
         <v>43895</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -23544,12 +23544,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$30</f>
         <v>43912</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -23566,12 +23566,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$30</f>
         <v>6</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -24302,13 +24302,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="str">
@@ -24320,19 +24320,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -24364,19 +24364,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -24481,13 +24481,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="V1nc17foZ8+TKkdpHgVLN1BfpxWYRmqD/Ya12wVVHUx78LQZNTNRnriKGjLnjhdnBItbI6SiAkHW9EsltcklJw==" saltValue="wublnwmPYTCrrjYQtLtFvw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -24498,6 +24491,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="265" priority="34" operator="equal">
@@ -24729,30 +24729,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -24766,50 +24766,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -24825,12 +24825,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$32</f>
         <v>43913</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -24851,12 +24851,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$32</f>
         <v>43926</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -24873,12 +24873,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$32</f>
         <v>7</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -25611,13 +25611,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -25629,19 +25629,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -25673,19 +25673,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -25790,13 +25790,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Kg6B3wMpyHtE3AG2+ZhM4iVpdSxDw+pCBdNIb+Wo6Ts+QON2d+uS2cM4EGU7doxlj/v6sQZRCLDJacYEHRTCWg==" saltValue="TqyyoN4EUigEJJATe2teew==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -25807,6 +25800,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="227" priority="34" operator="equal">
@@ -26038,30 +26038,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -26075,50 +26075,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -26134,12 +26134,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$33</f>
         <v>43927</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -26160,12 +26160,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$33</f>
         <v>43942</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -26182,12 +26182,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$33</f>
         <v>8</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -26930,13 +26930,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -26948,19 +26948,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -26992,19 +26992,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -27109,13 +27109,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="pL1llo1icHEYJ3TXDIYTPyJLENO1wV3Eyh/2WXX1MQibsv6eIANEQ6p81eSLf00FXmHTK80ocHiAlfzCSNnobA==" saltValue="xg19KB5Q+BRlyZJ260jfjw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -27126,6 +27119,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="189" priority="34" operator="equal">
@@ -27336,7 +27336,7 @@
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="13" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -27357,30 +27357,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -27394,50 +27394,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -27453,12 +27453,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$35</f>
         <v>43943</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -27479,12 +27479,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$35</f>
         <v>43957</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -27501,12 +27501,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$35</f>
         <v>9</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -28043,7 +28043,7 @@
       <c r="G30" s="29"/>
       <c r="H30" s="31">
         <f>(C21+C29+C37+H21+H29)-C13</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I30" s="31">
         <f>D21+D29+D37+I21+I29</f>
@@ -28092,7 +28092,9 @@
       <c r="B32" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="170"/>
+      <c r="C32" s="170">
+        <v>4</v>
+      </c>
       <c r="D32" s="136"/>
       <c r="E32" s="30"/>
       <c r="F32" s="203"/>
@@ -28206,7 +28208,7 @@
       <c r="B37" s="149"/>
       <c r="C37" s="142">
         <f>SUM(C30:C36)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D37" s="142">
         <f>IF(C37&gt;40,C37-40,0)</f>
@@ -28241,13 +28243,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -28259,19 +28261,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -28303,19 +28305,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -28420,13 +28422,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="cTTzshwCkoAqnh/geSNfKTT36wmZ/VdBuT3vIr+/2YsvbGJ8iBLOCV3uynrPhE8WcWQfprCPh0UKqqYAOdwEwQ==" saltValue="Q4AkvBK7ZSuvi376cVoqHg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -28437,6 +28432,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="151" priority="34" operator="equal">
@@ -28668,30 +28670,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -28705,50 +28707,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -28764,12 +28766,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$36</f>
         <v>43958</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -28790,12 +28792,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$36</f>
         <v>43970</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -28812,12 +28814,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$36</f>
         <v>10</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -28868,7 +28870,7 @@
       <c r="B13" s="209"/>
       <c r="C13" s="154">
         <f>'April 22, 2020 - May 6, 2020'!$C$37</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D13" s="154"/>
       <c r="E13" s="155"/>
@@ -29083,7 +29085,7 @@
       <c r="B21" s="141"/>
       <c r="C21" s="142">
         <f>SUM(C13:C20)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D21" s="142">
         <f>IF(C21&gt;40,C21-40,0)</f>
@@ -29548,13 +29550,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -29566,19 +29568,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -29610,19 +29612,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -29727,13 +29729,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="/V1OKocwyLiiD7voXBGhmM1UK7C7RaZXxwAl2UR0a/g9ofjWI2UH03lweCKWBkoGED//exie+GFqMeUI+uVmzQ==" saltValue="eZQsMcrfzspB3EMk5v6XVA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -29744,6 +29739,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="113" priority="34" operator="equal">
@@ -29975,30 +29977,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -30012,50 +30014,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -30071,12 +30073,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$38</f>
         <v>43971</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -30097,12 +30099,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$38</f>
         <v>43986</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -30119,12 +30121,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$38</f>
         <v>11</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -30855,13 +30857,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -30873,19 +30875,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -30917,19 +30919,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -31034,13 +31036,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="oNctHQkxsBNUdifaeP4nhC9Gpn8YqyV2INclhAfQGal8TbFhFBZ5GsyonIJaHE15CM1bSYVUQSgD+94/pOyF2A==" saltValue="VnPuH9l13Gfm4vUE2x53PA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -31051,6 +31046,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="75" priority="34" operator="equal">
@@ -31282,30 +31284,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -31319,50 +31321,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -31378,12 +31380,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$39</f>
         <v>43987</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -31404,12 +31406,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$39</f>
         <v>44003</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -31426,12 +31428,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$39</f>
         <v>12</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -32162,13 +32164,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="str">
@@ -32180,19 +32182,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -32224,19 +32226,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -32341,13 +32343,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="uV3RtGqppO7ha8Js24gTUllRkNwQoQeB1H9xx2tTMLpS6FYIg9UoAIO8nji2h7RSBhm6I77Jv5QWfAHoz4mxtg==" saltValue="rz6vH+A1IVicU/xL/a63lA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -32358,6 +32353,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="37" priority="34" operator="equal">
@@ -32589,30 +32591,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -32626,70 +32628,70 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="196">
+      <c r="B8" s="192">
         <v>904301118</v>
       </c>
-      <c r="C8" s="196"/>
-      <c r="D8" s="196"/>
+      <c r="C8" s="192"/>
+      <c r="D8" s="192"/>
       <c r="E8" s="4"/>
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$5</f>
         <v>43636</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -32700,42 +32702,42 @@
       <c r="A9" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="197" t="s">
+      <c r="B9" s="193" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="197"/>
-      <c r="D9" s="197"/>
+      <c r="C9" s="193"/>
+      <c r="D9" s="193"/>
       <c r="E9" s="4"/>
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$5</f>
         <v>43648</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="197" t="s">
+      <c r="B10" s="193" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="197"/>
-      <c r="D10" s="197"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="193"/>
       <c r="E10" s="4"/>
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$5</f>
         <v>13</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -32780,10 +32782,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="195" t="s">
+      <c r="A13" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="195"/>
+      <c r="B13" s="191"/>
       <c r="C13" s="16">
         <f>'Previous June Split WK HRS'!$B$9</f>
         <v>0</v>
@@ -33295,12 +33297,12 @@
       <c r="C31" s="135"/>
       <c r="D31" s="136"/>
       <c r="E31" s="131"/>
-      <c r="F31" s="184" t="s">
+      <c r="F31" s="180" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="185"/>
-      <c r="H31" s="185"/>
-      <c r="I31" s="186"/>
+      <c r="G31" s="181"/>
+      <c r="H31" s="181"/>
+      <c r="I31" s="182"/>
       <c r="K31" s="5">
         <f>IF(K30=0,"",IF(K30&lt;$G$9,K30+1,IF(K30=$G$9,"")))</f>
         <v>43647</v>
@@ -33320,10 +33322,10 @@
       <c r="C32" s="135"/>
       <c r="D32" s="136"/>
       <c r="E32" s="131"/>
-      <c r="F32" s="187"/>
-      <c r="G32" s="188"/>
-      <c r="H32" s="188"/>
-      <c r="I32" s="189"/>
+      <c r="F32" s="183"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="184"/>
+      <c r="I32" s="185"/>
       <c r="K32" s="5">
         <f t="shared" ref="K32:K36" si="7">IF(K31=0,"",IF(K31&lt;$G$9,K31+1,IF(K31=$G$9,"")))</f>
         <v>43648</v>
@@ -33343,10 +33345,10 @@
       <c r="C33" s="136"/>
       <c r="D33" s="136"/>
       <c r="E33" s="131"/>
-      <c r="F33" s="187"/>
-      <c r="G33" s="188"/>
-      <c r="H33" s="188"/>
-      <c r="I33" s="189"/>
+      <c r="F33" s="183"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="185"/>
       <c r="K33" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -33366,10 +33368,10 @@
       <c r="C34" s="136"/>
       <c r="D34" s="136"/>
       <c r="E34" s="131"/>
-      <c r="F34" s="187"/>
-      <c r="G34" s="188"/>
-      <c r="H34" s="188"/>
-      <c r="I34" s="189"/>
+      <c r="F34" s="183"/>
+      <c r="G34" s="184"/>
+      <c r="H34" s="184"/>
+      <c r="I34" s="185"/>
       <c r="K34" s="5" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -33389,10 +33391,10 @@
       <c r="C35" s="136"/>
       <c r="D35" s="136"/>
       <c r="E35" s="131"/>
-      <c r="F35" s="187"/>
-      <c r="G35" s="188"/>
-      <c r="H35" s="188"/>
-      <c r="I35" s="189"/>
+      <c r="F35" s="183"/>
+      <c r="G35" s="184"/>
+      <c r="H35" s="184"/>
+      <c r="I35" s="185"/>
       <c r="K35" s="5" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -33412,10 +33414,10 @@
       <c r="C36" s="139"/>
       <c r="D36" s="139"/>
       <c r="E36" s="131"/>
-      <c r="F36" s="187"/>
-      <c r="G36" s="188"/>
-      <c r="H36" s="188"/>
-      <c r="I36" s="189"/>
+      <c r="F36" s="183"/>
+      <c r="G36" s="184"/>
+      <c r="H36" s="184"/>
+      <c r="I36" s="185"/>
       <c r="K36" s="5" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -33438,10 +33440,10 @@
         <v>0</v>
       </c>
       <c r="E37" s="150"/>
-      <c r="F37" s="190"/>
-      <c r="G37" s="191"/>
-      <c r="H37" s="191"/>
-      <c r="I37" s="192"/>
+      <c r="F37" s="186"/>
+      <c r="G37" s="187"/>
+      <c r="H37" s="187"/>
+      <c r="I37" s="188"/>
       <c r="K37" s="8" t="s">
         <v>22</v>
       </c>
@@ -33466,13 +33468,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -33484,19 +33486,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -33528,19 +33530,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -33645,6 +33647,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="S5X1sRKbVHIC/CxNvUSLGbMtzFy/V13rjQxnfTWYv4nG1Q+RIPUG1SPfVjoRJSUT2HTEVjeS/kJu2d8+Y6rxSg==" saltValue="A64d+t0sLiguDosj21Ghpw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="A42:D42"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A4:I7"/>
@@ -33656,12 +33664,6 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="A42:D42"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="909" priority="43" operator="equal">
@@ -33883,30 +33885,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -33920,50 +33922,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -33979,12 +33981,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$6</f>
         <v>43649</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -34005,12 +34007,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$6</f>
         <v>43668</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -34027,12 +34029,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$6</f>
         <v>14</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -34077,10 +34079,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="195" t="s">
+      <c r="A13" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="195"/>
+      <c r="B13" s="191"/>
       <c r="C13" s="16">
         <f>'June 20, 2019 - July 2,2019'!$C$37</f>
         <v>0</v>
@@ -34763,13 +34765,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5">
@@ -34781,19 +34783,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -34825,19 +34827,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -34942,13 +34944,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="2lB+QSBmjIj9R2xKru8PmZreKGvpmEfO/0GOrlhZ0MZCVS02q7aLA/WORT8uz5qYj3dUHkRAJw1U/qt64pNfiw==" saltValue="h6uuiXovP/FrsUciOjanjw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -34959,6 +34954,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="873" priority="34" operator="equal">
@@ -35190,30 +35192,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -35227,50 +35229,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -35286,12 +35288,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$8</f>
         <v>43669</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -35312,12 +35314,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$8</f>
         <v>43683</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -35334,12 +35336,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$8</f>
         <v>15</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -35384,10 +35386,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="195" t="s">
+      <c r="A13" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="195"/>
+      <c r="B13" s="191"/>
       <c r="C13" s="16">
         <f>'July 3, 2019 - July 22, 2019'!$H$21</f>
         <v>0</v>
@@ -36070,13 +36072,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -36088,19 +36090,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -36132,19 +36134,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -36249,13 +36251,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ATJHUNHQBNdjd96oUH7vKvka/F64NjKj3Xn6T8lprLHrs616uwjb1Z0qCX7s8JM5yStmTV5XhlOA40aVUekqmw==" saltValue="ZSXrR0LlpV1Qr9K1tI8xEA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -36266,6 +36261,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="835" priority="34" operator="equal">
@@ -36497,30 +36499,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -36534,50 +36536,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -36593,12 +36595,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$9</f>
         <v>43684</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -36619,12 +36621,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$9</f>
         <v>43698</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -36641,12 +36643,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$9</f>
         <v>16</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -36691,10 +36693,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="195" t="s">
+      <c r="A13" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="195"/>
+      <c r="B13" s="191"/>
       <c r="C13" s="16">
         <f>'July 23, 2019 - Aug 6, 2019'!$C$37</f>
         <v>0</v>
@@ -37377,13 +37379,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -37395,19 +37397,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -37439,19 +37441,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -37556,13 +37558,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="pjvtob70aqxbUVwbESLxavj0Egekft8/sG3lzDDz8j0UwrUOUxmx6PyQliu1rUgl/+2/kjNfTvUwQZgl2it/Ww==" saltValue="Tncw5B/YPaEuEdaFi6BZwA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -37573,6 +37568,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="797" priority="34" operator="equal">
@@ -37804,30 +37806,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -37841,50 +37843,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -37900,12 +37902,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$11</f>
         <v>43699</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -37926,12 +37928,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$11</f>
         <v>43712</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -37948,12 +37950,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$11</f>
         <v>17</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -37998,10 +38000,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="195" t="s">
+      <c r="A13" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="195"/>
+      <c r="B13" s="191"/>
       <c r="C13" s="16">
         <f>'Aug 7, 2019 - Aug 21, 2019'!$C$37</f>
         <v>0</v>
@@ -38684,13 +38686,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -38702,19 +38704,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -38746,19 +38748,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -38863,13 +38865,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="6LAhclbOUnmqJcpdXA5lk6utAC8YfwinYcC5Ki32jSdOy8vMfhUJVna4b6LEsTnFQwBID+ZoytYeUHiOwjDQQA==" saltValue="Xi3mOL2RymSmRy9N4wbt7Q==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -38880,6 +38875,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="759" priority="34" operator="equal">
@@ -39111,30 +39113,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -39148,50 +39150,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -39207,12 +39209,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$12</f>
         <v>43713</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -39233,12 +39235,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$12</f>
         <v>43727</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -39255,12 +39257,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$12</f>
         <v>18</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -39305,10 +39307,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="195" t="s">
+      <c r="A13" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="195"/>
+      <c r="B13" s="191"/>
       <c r="C13" s="16">
         <f>'Aug 22, 2019 - Sept 4, 2019'!$C$37</f>
         <v>0</v>
@@ -39991,13 +39993,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -40009,19 +40011,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -40053,19 +40055,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -40170,13 +40172,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="y3DImqH2VJ6Dt3mfRvoZqaB3/pUlD505riboGLqDJWCwWWWLCviCk1N0GcfKxeCT4uGRqT7/qdqgKfcgOKdMGQ==" saltValue="8TCmrJvFWv6GB62RsfwMPg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -40187,6 +40182,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="721" priority="34" operator="equal">
@@ -40418,30 +40420,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -40455,50 +40457,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -40514,12 +40516,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$14</f>
         <v>43728</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -40540,12 +40542,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$14</f>
         <v>43741</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -40562,12 +40564,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$14</f>
         <v>19</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -41298,13 +41300,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -41316,19 +41318,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -41360,19 +41362,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -41477,13 +41479,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="6dEjPHEgF8OUT15wBxgLnX+yynDGVgTTC4871Syu9JmtBGLoz89ibSTwvX6fYAZHt//Uzbi0MxR+8tDXSNLVjw==" saltValue="aH9gsTcCeUah3TuHbCYGvw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -41494,6 +41489,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="683" priority="34" operator="equal">

--- a/TimeReport-SW-FY190-RB Kruse.xlsx
+++ b/TimeReport-SW-FY190-RB Kruse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/Research/Dr. Bethel/ROSResearch2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251BDFD4-4238-1149-99BE-55F89C162EBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1E9D2F-01D7-4D48-A79B-FDF3DC86A714}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" firstSheet="17" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1814,6 +1814,22 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1888,22 +1904,6 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -10079,30 +10079,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -10116,50 +10116,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -10175,12 +10175,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$15</f>
         <v>43742</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -10201,12 +10201,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$15</f>
         <v>43760</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -10223,12 +10223,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$15</f>
         <v>20</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -10959,13 +10959,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5">
@@ -10977,19 +10977,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -11021,19 +11021,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -11138,6 +11138,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="uDfPmr05QaRHc/lKQBu+sCDEq8l9gmbXs+mDIVYrjMbYdiANiTZup5p1OYd/eKZ8QEieuycJNLsen0Bcl4ffYA==" saltValue="nukzhvoHeCxP4JigkPz7tQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -11148,13 +11155,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="645" priority="34" operator="equal">
@@ -11386,30 +11386,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -11423,50 +11423,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -11482,12 +11482,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$17</f>
         <v>43761</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -11508,12 +11508,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$17</f>
         <v>43775</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -11530,12 +11530,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$17</f>
         <v>21</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -12266,13 +12266,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -12284,19 +12284,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -12328,19 +12328,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -12445,6 +12445,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="/sMdwuAGJN7SPGgNL0ziXu1Q8XeCInhE3i/9un0d99aP6RkY4rOhwZD2naCjZIQwbL3LTnlL+uAmHX7F6ZJ8TA==" saltValue="yi38ohwCODSad6eDmoaQlA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -12455,13 +12462,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="607" priority="34" operator="equal">
@@ -12693,30 +12693,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -12730,50 +12730,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -12789,12 +12789,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$18</f>
         <v>43776</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -12815,12 +12815,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$18</f>
         <v>43787</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -12837,12 +12837,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$18</f>
         <v>22</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -13573,13 +13573,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -13591,19 +13591,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -13635,19 +13635,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -13752,6 +13752,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="b1YDq75ljJ5B6o2TZ6cSpp71QV/8+wGo6uHySvsgApnCkDdlHU/izp0MAt9NoMMvlwJo7O/oEfqC3sSbh8J6lw==" saltValue="YEpRtlZipUUsNS0a5ZzSmA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -13762,13 +13769,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="569" priority="34" operator="equal">
@@ -14000,30 +14000,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -14037,50 +14037,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -14096,12 +14096,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$20</f>
         <v>43788</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -14122,12 +14122,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$20</f>
         <v>43802</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14144,12 +14144,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$20</f>
         <v>23</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -14886,13 +14886,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -14904,19 +14904,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -14948,19 +14948,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -15065,6 +15065,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="3Z6eW+z3pw+vQCjBKIuoJGAKNBF8XRIGiABYepWnM715kNUB3NHASvVak4ysCm50L8slsFsG4INB1JxJk1vfog==" saltValue="pMUvIumHrWxgi1YvQBev+A==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -15075,13 +15082,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="531" priority="34" operator="equal">
@@ -15314,30 +15314,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -15351,50 +15351,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -15410,12 +15410,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$21</f>
         <v>43803</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -15436,12 +15436,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$21</f>
         <v>43808</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15458,12 +15458,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$21</f>
         <v>24</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -16194,13 +16194,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -16212,19 +16212,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -16256,19 +16256,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -16373,6 +16373,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="5S8pPa3Rbz2Tnuz4VwlCPO3sWLEC0cZqbv88WApxMyRXWZSiEaO48moEPWK1AYz8vDZoh0RBe0+ZiOm3A9sbvQ==" saltValue="x9JfbylXq6vDZEk+GDoBZQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -16383,13 +16390,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="493" priority="34" operator="equal">
@@ -16621,30 +16621,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -16658,50 +16658,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -16717,12 +16717,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$23</f>
         <v>43809</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -16743,12 +16743,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$23</f>
         <v>43836</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -16765,12 +16765,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$23</f>
         <v>1</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -17501,13 +17501,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5">
@@ -17519,19 +17519,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -17563,19 +17563,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5">
         <f t="shared" si="8"/>
         <v>43832</v>
@@ -17680,6 +17680,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="axvo6Tg8DSfMEUeJCS4l6Pyz11MbJ+p1QagU8xCdQw5fg5SdhFbZ4fHrgdrUPqyusByHsIezxMFf3tPpcDkjfg==" saltValue="5iujVD2EGR97WF/z8x9VBQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -17690,13 +17697,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="455" priority="34" operator="equal">
@@ -17928,30 +17928,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -17965,50 +17965,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -18024,12 +18024,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$24</f>
         <v>43837</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -18050,12 +18050,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$24</f>
         <v>43852</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -18072,12 +18072,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$24</f>
         <v>2</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -18816,13 +18816,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -18834,19 +18834,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -18878,19 +18878,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -18995,6 +18995,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="xkKCxjW7MCiMvjPrg31YBXUU+osmUVj0krXN90eD/T6hHoNPrXDNIpHb23E9yJP7hKDOQAn0YvOoTrRvBongqA==" saltValue="c75NYpkdlYU8+gsM0zCRNA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -19005,13 +19012,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="417" priority="34" operator="equal">
@@ -19243,30 +19243,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -19280,50 +19280,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -19339,12 +19339,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$26</f>
         <v>43853</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -19365,12 +19365,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$26</f>
         <v>43866</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -19387,12 +19387,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$26</f>
         <v>3</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -20139,13 +20139,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -20157,19 +20157,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -20201,19 +20201,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -20318,6 +20318,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ZcNZSxFLwvB3uJEog6sE8eX/p3zfr3mUKYcu6v8ZRrn2g9ZL8xsmH+kakoe8C1JkjePqf4XCT340Bl8b/ztlAA==" saltValue="jXF2oECus8nAaH9pzX9SUQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -20328,13 +20335,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="379" priority="34" operator="equal">
@@ -20566,30 +20566,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -20603,50 +20603,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -20662,12 +20662,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$27</f>
         <v>43867</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -20688,12 +20688,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$27</f>
         <v>43880</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -20710,12 +20710,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$27</f>
         <v>4</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -21456,13 +21456,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -21474,19 +21474,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -21518,19 +21518,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -21635,6 +21635,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="EzGaIiT0OCXSKPs9rTkp1ftITDSfrkhQUzI0bmma8+dV1URCCocs7OTxcxmqNKHwjvPJWVuLqU8TSqt28dUcNg==" saltValue="PXH+58hkNDKJly1D/0pVmQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -21645,13 +21652,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="341" priority="34" operator="equal">
@@ -21884,30 +21884,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -21921,50 +21921,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -21980,12 +21980,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$29</f>
         <v>43881</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -22006,12 +22006,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$29</f>
         <v>43894</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -22028,12 +22028,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$29</f>
         <v>5</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -22764,13 +22764,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -22782,19 +22782,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -22826,19 +22826,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -22943,6 +22943,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="a1OZcyflEvX/Gd5N3Q6nZCP9yG0vNF9wTHcqApIWzyQjdXQ/ELOJxnA0CX4clIgGZyMFf1l8c0gBzIMyjZmwmQ==" saltValue="nGZ72lm9LqEz+L7b3oJGkg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -22953,13 +22960,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="303" priority="34" operator="equal">
@@ -23422,30 +23422,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -23459,50 +23459,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -23518,12 +23518,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$30</f>
         <v>43895</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -23544,12 +23544,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$30</f>
         <v>43912</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -23566,12 +23566,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$30</f>
         <v>6</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -24302,13 +24302,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="str">
@@ -24320,19 +24320,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -24364,19 +24364,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -24481,6 +24481,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="V1nc17foZ8+TKkdpHgVLN1BfpxWYRmqD/Ya12wVVHUx78LQZNTNRnriKGjLnjhdnBItbI6SiAkHW9EsltcklJw==" saltValue="wublnwmPYTCrrjYQtLtFvw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -24491,13 +24498,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="265" priority="34" operator="equal">
@@ -24729,30 +24729,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -24766,50 +24766,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -24825,12 +24825,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$32</f>
         <v>43913</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -24851,12 +24851,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$32</f>
         <v>43926</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -24873,12 +24873,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$32</f>
         <v>7</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -25611,13 +25611,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -25629,19 +25629,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -25673,19 +25673,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -25790,6 +25790,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Kg6B3wMpyHtE3AG2+ZhM4iVpdSxDw+pCBdNIb+Wo6Ts+QON2d+uS2cM4EGU7doxlj/v6sQZRCLDJacYEHRTCWg==" saltValue="TqyyoN4EUigEJJATe2teew==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -25800,13 +25807,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="227" priority="34" operator="equal">
@@ -26038,30 +26038,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -26075,50 +26075,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -26134,12 +26134,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$33</f>
         <v>43927</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -26160,12 +26160,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$33</f>
         <v>43942</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -26182,12 +26182,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$33</f>
         <v>8</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -26930,13 +26930,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -26948,19 +26948,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -26992,19 +26992,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -27109,6 +27109,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="pL1llo1icHEYJ3TXDIYTPyJLENO1wV3Eyh/2WXX1MQibsv6eIANEQ6p81eSLf00FXmHTK80ocHiAlfzCSNnobA==" saltValue="xg19KB5Q+BRlyZJ260jfjw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -27119,13 +27126,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="189" priority="34" operator="equal">
@@ -27336,8 +27336,8 @@
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <pane ySplit="13" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -27357,30 +27357,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -27394,50 +27394,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -27453,12 +27453,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$35</f>
         <v>43943</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -27479,12 +27479,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$35</f>
         <v>43957</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -27501,12 +27501,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$35</f>
         <v>9</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -28043,7 +28043,7 @@
       <c r="G30" s="29"/>
       <c r="H30" s="31">
         <f>(C21+C29+C37+H21+H29)-C13</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I30" s="31">
         <f>D21+D29+D37+I21+I29</f>
@@ -28117,7 +28117,9 @@
       <c r="B33" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="170"/>
+      <c r="C33" s="170">
+        <v>2</v>
+      </c>
       <c r="D33" s="136"/>
       <c r="E33" s="30"/>
       <c r="F33" s="203"/>
@@ -28208,7 +28210,7 @@
       <c r="B37" s="149"/>
       <c r="C37" s="142">
         <f>SUM(C30:C36)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D37" s="142">
         <f>IF(C37&gt;40,C37-40,0)</f>
@@ -28243,13 +28245,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -28261,19 +28263,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -28305,19 +28307,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -28422,6 +28424,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="cTTzshwCkoAqnh/geSNfKTT36wmZ/VdBuT3vIr+/2YsvbGJ8iBLOCV3uynrPhE8WcWQfprCPh0UKqqYAOdwEwQ==" saltValue="Q4AkvBK7ZSuvi376cVoqHg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -28432,13 +28441,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="151" priority="34" operator="equal">
@@ -28670,30 +28672,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -28707,50 +28709,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -28766,12 +28768,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$36</f>
         <v>43958</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -28792,12 +28794,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$36</f>
         <v>43970</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -28814,12 +28816,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$36</f>
         <v>10</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -28870,7 +28872,7 @@
       <c r="B13" s="209"/>
       <c r="C13" s="154">
         <f>'April 22, 2020 - May 6, 2020'!$C$37</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13" s="154"/>
       <c r="E13" s="155"/>
@@ -29085,7 +29087,7 @@
       <c r="B21" s="141"/>
       <c r="C21" s="142">
         <f>SUM(C13:C20)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D21" s="142">
         <f>IF(C21&gt;40,C21-40,0)</f>
@@ -29550,13 +29552,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -29568,19 +29570,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -29612,19 +29614,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -29729,6 +29731,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="/V1OKocwyLiiD7voXBGhmM1UK7C7RaZXxwAl2UR0a/g9ofjWI2UH03lweCKWBkoGED//exie+GFqMeUI+uVmzQ==" saltValue="eZQsMcrfzspB3EMk5v6XVA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -29739,13 +29748,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="113" priority="34" operator="equal">
@@ -29977,30 +29979,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -30014,50 +30016,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -30073,12 +30075,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$38</f>
         <v>43971</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -30099,12 +30101,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$38</f>
         <v>43986</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -30121,12 +30123,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$38</f>
         <v>11</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -30857,13 +30859,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -30875,19 +30877,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -30919,19 +30921,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -31036,6 +31038,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="oNctHQkxsBNUdifaeP4nhC9Gpn8YqyV2INclhAfQGal8TbFhFBZ5GsyonIJaHE15CM1bSYVUQSgD+94/pOyF2A==" saltValue="VnPuH9l13Gfm4vUE2x53PA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -31046,13 +31055,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="75" priority="34" operator="equal">
@@ -31284,30 +31286,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -31321,50 +31323,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -31380,12 +31382,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$39</f>
         <v>43987</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -31406,12 +31408,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$39</f>
         <v>44003</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -31428,12 +31430,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$39</f>
         <v>12</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -32164,13 +32166,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="str">
@@ -32182,19 +32184,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -32226,19 +32228,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -32343,6 +32345,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="uV3RtGqppO7ha8Js24gTUllRkNwQoQeB1H9xx2tTMLpS6FYIg9UoAIO8nji2h7RSBhm6I77Jv5QWfAHoz4mxtg==" saltValue="rz6vH+A1IVicU/xL/a63lA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -32353,13 +32362,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="37" priority="34" operator="equal">
@@ -32591,30 +32593,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -32628,70 +32630,70 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="192">
+      <c r="B8" s="196">
         <v>904301118</v>
       </c>
-      <c r="C8" s="192"/>
-      <c r="D8" s="192"/>
+      <c r="C8" s="196"/>
+      <c r="D8" s="196"/>
       <c r="E8" s="4"/>
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$5</f>
         <v>43636</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -32702,42 +32704,42 @@
       <c r="A9" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="193" t="s">
+      <c r="B9" s="197" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="193"/>
-      <c r="D9" s="193"/>
+      <c r="C9" s="197"/>
+      <c r="D9" s="197"/>
       <c r="E9" s="4"/>
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$5</f>
         <v>43648</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="193" t="s">
+      <c r="B10" s="197" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="193"/>
-      <c r="D10" s="193"/>
+      <c r="C10" s="197"/>
+      <c r="D10" s="197"/>
       <c r="E10" s="4"/>
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$5</f>
         <v>13</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -32782,10 +32784,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="191" t="s">
+      <c r="A13" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="191"/>
+      <c r="B13" s="195"/>
       <c r="C13" s="16">
         <f>'Previous June Split WK HRS'!$B$9</f>
         <v>0</v>
@@ -33297,12 +33299,12 @@
       <c r="C31" s="135"/>
       <c r="D31" s="136"/>
       <c r="E31" s="131"/>
-      <c r="F31" s="180" t="s">
+      <c r="F31" s="184" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="181"/>
-      <c r="H31" s="181"/>
-      <c r="I31" s="182"/>
+      <c r="G31" s="185"/>
+      <c r="H31" s="185"/>
+      <c r="I31" s="186"/>
       <c r="K31" s="5">
         <f>IF(K30=0,"",IF(K30&lt;$G$9,K30+1,IF(K30=$G$9,"")))</f>
         <v>43647</v>
@@ -33322,10 +33324,10 @@
       <c r="C32" s="135"/>
       <c r="D32" s="136"/>
       <c r="E32" s="131"/>
-      <c r="F32" s="183"/>
-      <c r="G32" s="184"/>
-      <c r="H32" s="184"/>
-      <c r="I32" s="185"/>
+      <c r="F32" s="187"/>
+      <c r="G32" s="188"/>
+      <c r="H32" s="188"/>
+      <c r="I32" s="189"/>
       <c r="K32" s="5">
         <f t="shared" ref="K32:K36" si="7">IF(K31=0,"",IF(K31&lt;$G$9,K31+1,IF(K31=$G$9,"")))</f>
         <v>43648</v>
@@ -33345,10 +33347,10 @@
       <c r="C33" s="136"/>
       <c r="D33" s="136"/>
       <c r="E33" s="131"/>
-      <c r="F33" s="183"/>
-      <c r="G33" s="184"/>
-      <c r="H33" s="184"/>
-      <c r="I33" s="185"/>
+      <c r="F33" s="187"/>
+      <c r="G33" s="188"/>
+      <c r="H33" s="188"/>
+      <c r="I33" s="189"/>
       <c r="K33" s="5" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -33368,10 +33370,10 @@
       <c r="C34" s="136"/>
       <c r="D34" s="136"/>
       <c r="E34" s="131"/>
-      <c r="F34" s="183"/>
-      <c r="G34" s="184"/>
-      <c r="H34" s="184"/>
-      <c r="I34" s="185"/>
+      <c r="F34" s="187"/>
+      <c r="G34" s="188"/>
+      <c r="H34" s="188"/>
+      <c r="I34" s="189"/>
       <c r="K34" s="5" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -33391,10 +33393,10 @@
       <c r="C35" s="136"/>
       <c r="D35" s="136"/>
       <c r="E35" s="131"/>
-      <c r="F35" s="183"/>
-      <c r="G35" s="184"/>
-      <c r="H35" s="184"/>
-      <c r="I35" s="185"/>
+      <c r="F35" s="187"/>
+      <c r="G35" s="188"/>
+      <c r="H35" s="188"/>
+      <c r="I35" s="189"/>
       <c r="K35" s="5" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -33414,10 +33416,10 @@
       <c r="C36" s="139"/>
       <c r="D36" s="139"/>
       <c r="E36" s="131"/>
-      <c r="F36" s="183"/>
-      <c r="G36" s="184"/>
-      <c r="H36" s="184"/>
-      <c r="I36" s="185"/>
+      <c r="F36" s="187"/>
+      <c r="G36" s="188"/>
+      <c r="H36" s="188"/>
+      <c r="I36" s="189"/>
       <c r="K36" s="5" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -33440,10 +33442,10 @@
         <v>0</v>
       </c>
       <c r="E37" s="150"/>
-      <c r="F37" s="186"/>
-      <c r="G37" s="187"/>
-      <c r="H37" s="187"/>
-      <c r="I37" s="188"/>
+      <c r="F37" s="190"/>
+      <c r="G37" s="191"/>
+      <c r="H37" s="191"/>
+      <c r="I37" s="192"/>
       <c r="K37" s="8" t="s">
         <v>22</v>
       </c>
@@ -33468,13 +33470,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -33486,19 +33488,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -33530,19 +33532,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -33647,12 +33649,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="S5X1sRKbVHIC/CxNvUSLGbMtzFy/V13rjQxnfTWYv4nG1Q+RIPUG1SPfVjoRJSUT2HTEVjeS/kJu2d8+Y6rxSg==" saltValue="A64d+t0sLiguDosj21Ghpw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="A42:D42"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A4:I7"/>
@@ -33664,6 +33660,12 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="A42:D42"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="909" priority="43" operator="equal">
@@ -33885,30 +33887,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -33922,50 +33924,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -33981,12 +33983,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$6</f>
         <v>43649</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -34007,12 +34009,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$6</f>
         <v>43668</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -34029,12 +34031,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$6</f>
         <v>14</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -34079,10 +34081,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="191" t="s">
+      <c r="A13" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="191"/>
+      <c r="B13" s="195"/>
       <c r="C13" s="16">
         <f>'June 20, 2019 - July 2,2019'!$C$37</f>
         <v>0</v>
@@ -34765,13 +34767,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5">
@@ -34783,19 +34785,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -34827,19 +34829,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -34944,6 +34946,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="2lB+QSBmjIj9R2xKru8PmZreKGvpmEfO/0GOrlhZ0MZCVS02q7aLA/WORT8uz5qYj3dUHkRAJw1U/qt64pNfiw==" saltValue="h6uuiXovP/FrsUciOjanjw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -34954,13 +34963,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="873" priority="34" operator="equal">
@@ -35192,30 +35194,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -35229,50 +35231,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -35288,12 +35290,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$8</f>
         <v>43669</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -35314,12 +35316,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$8</f>
         <v>43683</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -35336,12 +35338,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$8</f>
         <v>15</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -35386,10 +35388,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="191" t="s">
+      <c r="A13" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="191"/>
+      <c r="B13" s="195"/>
       <c r="C13" s="16">
         <f>'July 3, 2019 - July 22, 2019'!$H$21</f>
         <v>0</v>
@@ -36072,13 +36074,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -36090,19 +36092,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -36134,19 +36136,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -36251,6 +36253,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ATJHUNHQBNdjd96oUH7vKvka/F64NjKj3Xn6T8lprLHrs616uwjb1Z0qCX7s8JM5yStmTV5XhlOA40aVUekqmw==" saltValue="ZSXrR0LlpV1Qr9K1tI8xEA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -36261,13 +36270,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="835" priority="34" operator="equal">
@@ -36499,30 +36501,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -36536,50 +36538,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -36595,12 +36597,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$9</f>
         <v>43684</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -36621,12 +36623,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$9</f>
         <v>43698</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -36643,12 +36645,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$9</f>
         <v>16</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -36693,10 +36695,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="191" t="s">
+      <c r="A13" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="191"/>
+      <c r="B13" s="195"/>
       <c r="C13" s="16">
         <f>'July 23, 2019 - Aug 6, 2019'!$C$37</f>
         <v>0</v>
@@ -37379,13 +37381,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -37397,19 +37399,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -37441,19 +37443,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -37558,6 +37560,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="pjvtob70aqxbUVwbESLxavj0Egekft8/sG3lzDDz8j0UwrUOUxmx6PyQliu1rUgl/+2/kjNfTvUwQZgl2it/Ww==" saltValue="Tncw5B/YPaEuEdaFi6BZwA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -37568,13 +37577,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="797" priority="34" operator="equal">
@@ -37806,30 +37808,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -37843,50 +37845,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -37902,12 +37904,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$11</f>
         <v>43699</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -37928,12 +37930,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$11</f>
         <v>43712</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -37950,12 +37952,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$11</f>
         <v>17</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -38000,10 +38002,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="191" t="s">
+      <c r="A13" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="191"/>
+      <c r="B13" s="195"/>
       <c r="C13" s="16">
         <f>'Aug 7, 2019 - Aug 21, 2019'!$C$37</f>
         <v>0</v>
@@ -38686,13 +38688,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -38704,19 +38706,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -38748,19 +38750,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -38865,6 +38867,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="6LAhclbOUnmqJcpdXA5lk6utAC8YfwinYcC5Ki32jSdOy8vMfhUJVna4b6LEsTnFQwBID+ZoytYeUHiOwjDQQA==" saltValue="Xi3mOL2RymSmRy9N4wbt7Q==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -38875,13 +38884,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="759" priority="34" operator="equal">
@@ -39113,30 +39115,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -39150,50 +39152,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -39209,12 +39211,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$12</f>
         <v>43713</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -39235,12 +39237,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$12</f>
         <v>43727</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -39257,12 +39259,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$12</f>
         <v>18</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -39307,10 +39309,10 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="191" t="s">
+      <c r="A13" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="191"/>
+      <c r="B13" s="195"/>
       <c r="C13" s="16">
         <f>'Aug 22, 2019 - Sept 4, 2019'!$C$37</f>
         <v>0</v>
@@ -39993,13 +39995,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -40011,19 +40013,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -40055,19 +40057,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -40172,6 +40174,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="y3DImqH2VJ6Dt3mfRvoZqaB3/pUlD505riboGLqDJWCwWWWLCviCk1N0GcfKxeCT4uGRqT7/qdqgKfcgOKdMGQ==" saltValue="8TCmrJvFWv6GB62RsfwMPg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -40182,13 +40191,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="721" priority="34" operator="equal">
@@ -40420,30 +40422,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="A1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -40457,50 +40459,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
+      <c r="A6" s="182"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -40516,12 +40518,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="198">
         <f>'Payroll Schedule'!$K$14</f>
         <v>43728</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -40542,12 +40544,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="193">
         <f>'Payroll Schedule'!$L$14</f>
         <v>43741</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -40564,12 +40566,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="190">
+      <c r="G10" s="194">
         <f>'Payroll Schedule'!$B$14</f>
         <v>19</v>
       </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -41300,13 +41302,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -41318,19 +41320,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -41362,19 +41364,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="198" t="s">
+      <c r="A42" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -41479,6 +41481,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="6dEjPHEgF8OUT15wBxgLnX+yynDGVgTTC4871Syu9JmtBGLoz89ibSTwvX6fYAZHt//Uzbi0MxR+8tDXSNLVjw==" saltValue="aH9gsTcCeUah3TuHbCYGvw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -41489,13 +41498,6 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="683" priority="34" operator="equal">

--- a/TimeReport-SW-FY190-RB Kruse.xlsx
+++ b/TimeReport-SW-FY190-RB Kruse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/Research/Dr. Bethel/ROSResearch2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1E9D2F-01D7-4D48-A79B-FDF3DC86A714}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A231B99-8A38-134C-8503-C697AC277BA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" firstSheet="17" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" firstSheet="18" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payroll Schedule" sheetId="3" state="hidden" r:id="rId1"/>
@@ -1814,22 +1814,6 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1904,6 +1888,22 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -10079,30 +10079,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -10116,50 +10116,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -10175,12 +10175,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$15</f>
         <v>43742</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -10201,12 +10201,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$15</f>
         <v>43760</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -10223,12 +10223,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$15</f>
         <v>20</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -10959,13 +10959,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5">
@@ -10977,19 +10977,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -11021,19 +11021,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -11138,13 +11138,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="uDfPmr05QaRHc/lKQBu+sCDEq8l9gmbXs+mDIVYrjMbYdiANiTZup5p1OYd/eKZ8QEieuycJNLsen0Bcl4ffYA==" saltValue="nukzhvoHeCxP4JigkPz7tQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -11155,6 +11148,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="645" priority="34" operator="equal">
@@ -11386,30 +11386,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -11423,50 +11423,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -11482,12 +11482,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$17</f>
         <v>43761</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -11508,12 +11508,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$17</f>
         <v>43775</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -11530,12 +11530,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$17</f>
         <v>21</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -12266,13 +12266,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -12284,19 +12284,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -12328,19 +12328,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -12445,13 +12445,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="/sMdwuAGJN7SPGgNL0ziXu1Q8XeCInhE3i/9un0d99aP6RkY4rOhwZD2naCjZIQwbL3LTnlL+uAmHX7F6ZJ8TA==" saltValue="yi38ohwCODSad6eDmoaQlA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -12462,6 +12455,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="607" priority="34" operator="equal">
@@ -12693,30 +12693,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -12730,50 +12730,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -12789,12 +12789,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$18</f>
         <v>43776</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -12815,12 +12815,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$18</f>
         <v>43787</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -12837,12 +12837,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$18</f>
         <v>22</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -13573,13 +13573,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -13591,19 +13591,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -13635,19 +13635,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -13752,13 +13752,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="b1YDq75ljJ5B6o2TZ6cSpp71QV/8+wGo6uHySvsgApnCkDdlHU/izp0MAt9NoMMvlwJo7O/oEfqC3sSbh8J6lw==" saltValue="YEpRtlZipUUsNS0a5ZzSmA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -13769,6 +13762,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="569" priority="34" operator="equal">
@@ -14000,30 +14000,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -14037,50 +14037,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -14096,12 +14096,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$20</f>
         <v>43788</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -14122,12 +14122,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$20</f>
         <v>43802</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14144,12 +14144,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$20</f>
         <v>23</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -14886,13 +14886,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -14904,19 +14904,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -14948,19 +14948,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -15065,13 +15065,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="3Z6eW+z3pw+vQCjBKIuoJGAKNBF8XRIGiABYepWnM715kNUB3NHASvVak4ysCm50L8slsFsG4INB1JxJk1vfog==" saltValue="pMUvIumHrWxgi1YvQBev+A==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -15082,6 +15075,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="531" priority="34" operator="equal">
@@ -15314,30 +15314,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -15351,50 +15351,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -15410,12 +15410,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$21</f>
         <v>43803</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -15436,12 +15436,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$21</f>
         <v>43808</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15458,12 +15458,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$21</f>
         <v>24</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -16194,13 +16194,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -16212,19 +16212,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -16256,19 +16256,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -16373,13 +16373,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="5S8pPa3Rbz2Tnuz4VwlCPO3sWLEC0cZqbv88WApxMyRXWZSiEaO48moEPWK1AYz8vDZoh0RBe0+ZiOm3A9sbvQ==" saltValue="x9JfbylXq6vDZEk+GDoBZQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -16390,6 +16383,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="493" priority="34" operator="equal">
@@ -16621,30 +16621,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -16658,50 +16658,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -16717,12 +16717,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$23</f>
         <v>43809</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -16743,12 +16743,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$23</f>
         <v>43836</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -16765,12 +16765,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$23</f>
         <v>1</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -17501,13 +17501,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5">
@@ -17519,19 +17519,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -17563,19 +17563,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5">
         <f t="shared" si="8"/>
         <v>43832</v>
@@ -17680,13 +17680,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="axvo6Tg8DSfMEUeJCS4l6Pyz11MbJ+p1QagU8xCdQw5fg5SdhFbZ4fHrgdrUPqyusByHsIezxMFf3tPpcDkjfg==" saltValue="5iujVD2EGR97WF/z8x9VBQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -17697,6 +17690,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="455" priority="34" operator="equal">
@@ -17928,30 +17928,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -17965,50 +17965,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
@@ -18024,12 +18024,12 @@
       <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="194">
         <f>'Payroll Schedule'!$K$24</f>
         <v>43837</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
       <c r="J8" s="37"/>
       <c r="K8" s="12" t="str">
         <f>TEXT(G8,"dddd")</f>
@@ -18050,12 +18050,12 @@
       <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="189">
         <f>'Payroll Schedule'!$L$24</f>
         <v>43852</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -18072,12 +18072,12 @@
       <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="194">
+      <c r="G10" s="190">
         <f>'Payroll Schedule'!$B$24</f>
         <v>2</v>
       </c>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -18816,13 +18816,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="K39" s="5" t="b">
@@ -18834,19 +18834,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="196"/>
       <c r="C40" s="34"/>
       <c r="D40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="34"/>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="177"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="34"/>
       <c r="I40" s="36" t="s">
         <v>25</v>
@@ -18878,19 +18878,19 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
       <c r="E42" s="34"/>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="K42" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -18995,13 +18995,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="xkKCxjW7MCiMvjPrg31YBXUU+osmUVj0krXN90eD/T6hHoNPrXDNIpHb23E9yJP7hKDOQAn0YvOoTrRvBongqA==" saltValue="c75NYpkdlYU8+gsM0zCRNA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="A42:D42"/>
@@ -19012,6 +19005,13 @@
     <mergeCell ref="F31:I37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="K45 L13:L21 L28:L29 L36:L52">
     <cfRule type="cellIs" dxfId="417" priority="34" operator="equal">
@@ -19243,30 +19243,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
@@ -19280,50 +19280,50 @@
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="